--- a/ExcelTableToMarkDownSample.xlsx
+++ b/ExcelTableToMarkDownSample.xlsx
@@ -5,30 +5,34 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\ECI Julio Garavito\Centro de Estudios Hidráulicos\Curso TSED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A62489-AE8E-4A55-B450-9131686DF74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0972957-BC53-4A17-8072-4C2AAE4D4FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample" sheetId="1" r:id="rId1"/>
-    <sheet name="0_Section01" sheetId="4" r:id="rId2"/>
-    <sheet name="0_Section02" sheetId="5" r:id="rId3"/>
-    <sheet name="0_Section03" sheetId="6" r:id="rId4"/>
-    <sheet name="0_Section04" sheetId="7" r:id="rId5"/>
-    <sheet name="1_TransporteSedimentos" sheetId="3" r:id="rId6"/>
-    <sheet name="RefsFile" sheetId="2" r:id="rId7"/>
+    <sheet name="Abreviaturas" sheetId="9" r:id="rId1"/>
+    <sheet name="Sample" sheetId="1" r:id="rId2"/>
+    <sheet name="0_Section01" sheetId="4" r:id="rId3"/>
+    <sheet name="0_Section02" sheetId="5" r:id="rId4"/>
+    <sheet name="0_Section03" sheetId="6" r:id="rId5"/>
+    <sheet name="0_Section04" sheetId="7" r:id="rId6"/>
+    <sheet name="1_TransporteSedimentos" sheetId="3" r:id="rId7"/>
+    <sheet name="2_PotencialTransporte" sheetId="8" r:id="rId8"/>
+    <sheet name="RefsFile" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc107986980" localSheetId="1">'0_Section01'!$B$9</definedName>
-    <definedName name="_Toc107986980" localSheetId="2">'0_Section02'!$B$9</definedName>
-    <definedName name="_Toc107986980" localSheetId="3">'0_Section03'!$B$9</definedName>
-    <definedName name="_Toc107986980" localSheetId="4">'0_Section04'!$B$9</definedName>
-    <definedName name="_Toc107986980" localSheetId="5">'1_TransporteSedimentos'!$B$9</definedName>
-    <definedName name="_Toc107986980" localSheetId="6">RefsFile!$B$9</definedName>
-    <definedName name="_Toc107986980" localSheetId="0">Sample!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="2">'0_Section01'!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="3">'0_Section02'!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="4">'0_Section03'!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="5">'0_Section04'!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="6">'1_TransporteSedimentos'!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="7">'2_PotencialTransporte'!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="0">Abreviaturas!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="8">RefsFile!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="1">Sample!$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="185">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -373,6 +377,237 @@
   </si>
   <si>
     <t>Ecuaciones: Shields, Meyer-Peter and Müller (MPM) y Wilcock and Crowe. Ejemplos</t>
+  </si>
+  <si>
+    <t>Estudio</t>
+  </si>
+  <si>
+    <t>Transporte por cuantificar</t>
+  </si>
+  <si>
+    <t>Tiempo de llenado de una pequeña presa derivadora</t>
+  </si>
+  <si>
+    <t>$G_{B}$</t>
+  </si>
+  <si>
+    <t>Tiempo de llenado de una presa derivadora</t>
+  </si>
+  <si>
+    <t>$G_{B}$ o $G_{BT}$</t>
+  </si>
+  <si>
+    <t>Tiempo de llenado de una gran presa</t>
+  </si>
+  <si>
+    <t>Erosión aguas abajo de grandes presas</t>
+  </si>
+  <si>
+    <t>Estabilidad de cauces y rectificaciones</t>
+  </si>
+  <si>
+    <t>Derivaciones en ríos hacia canales de riego</t>
+  </si>
+  <si>
+    <t>Bombeo directo de un río</t>
+  </si>
+  <si>
+    <t>Tanques de sedimentación</t>
+  </si>
+  <si>
+    <t>Desvíos para acuacultura en lagunas costeras o estanques</t>
+  </si>
+  <si>
+    <t>Entubamiento de arroyos en su paso por centros urbanos</t>
+  </si>
+  <si>
+    <t>Diseño de canales sin arrastre</t>
+  </si>
+  <si>
+    <t>$G_{T}$</t>
+  </si>
+  <si>
+    <t>$G_{BT}$</t>
+  </si>
+  <si>
+    <t>$G_{BS}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$G_{BS}$ y $G_{L}$ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$G_{BS}$ o $G_{L}$ </t>
+  </si>
+  <si>
+    <t>$G_{B}=0$ (condición crítica de arrastre)</t>
+  </si>
+  <si>
+    <t>Obras de defensa contra inundaciones: Bordos de protección</t>
+  </si>
+  <si>
+    <t>Obras de defensa contra inundaciones: Desvíos temporales</t>
+  </si>
+  <si>
+    <t>Obras de defensa contra inundaciones: Cauces de alivio</t>
+  </si>
+  <si>
+    <t>Estudios de erosión y sedimentación de tramos de ríos</t>
+  </si>
+  <si>
+    <t>Abreviatura</t>
+  </si>
+  <si>
+    <t>Significado</t>
+  </si>
+  <si>
+    <t>$G_{L}$</t>
+  </si>
+  <si>
+    <t>$G_{S}$</t>
+  </si>
+  <si>
+    <t>$P$</t>
+  </si>
+  <si>
+    <t>Carga de sedimentos o carga total de sedimentos $\frac{[F]}{[T]}$</t>
+  </si>
+  <si>
+    <t>Carga de lavado $\frac{[F]}{[T]}$</t>
+  </si>
+  <si>
+    <t>Carga de material del lecho $\frac{[F]}{[T]}$</t>
+  </si>
+  <si>
+    <t>Carga por arrastre $\frac{[F]}{[T]}$</t>
+  </si>
+  <si>
+    <t>Carga del material del lecho en suspensión $\frac{[F]}{[T]}$</t>
+  </si>
+  <si>
+    <t>Carga en suspensión $\frac{[F]}{[T]}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potencia de la corriente por unidad de área $\frac{[F]}{[L][T]}$ </t>
+  </si>
+  <si>
+    <t>$\gamma$</t>
+  </si>
+  <si>
+    <t>$\gamma_{S}$</t>
+  </si>
+  <si>
+    <t>$y$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$V$ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$S_{0}$ </t>
+  </si>
+  <si>
+    <t>Peso específico del agua $\frac{[F]}{[L^{3}]}$</t>
+  </si>
+  <si>
+    <t>Profundidad de la lámina de agua $[L]$</t>
+  </si>
+  <si>
+    <t>Velocidad media de la corriente $\frac{[L]}{[T]}$</t>
+  </si>
+  <si>
+    <t>Pendiente media del fondo del lecho $\frac{[L]}{[L]}$</t>
+  </si>
+  <si>
+    <t>Peso específico de las partículas de sedimento $\frac{[F]}{[L^{3}]}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\tau_{*}$ </t>
+  </si>
+  <si>
+    <t>$R_{*}$</t>
+  </si>
+  <si>
+    <t>$\tau_{0}$</t>
+  </si>
+  <si>
+    <t>$d$</t>
+  </si>
+  <si>
+    <t>$\nu$</t>
+  </si>
+  <si>
+    <t>$U_{*}$</t>
+  </si>
+  <si>
+    <t>$\rho$</t>
+  </si>
+  <si>
+    <t>$R$</t>
+  </si>
+  <si>
+    <t>$D_{*c}$</t>
+  </si>
+  <si>
+    <t>Esfuerzo cortante adimensional $[adimensional]$</t>
+  </si>
+  <si>
+    <t>Número de Reynolds de corte $[adimensional]$</t>
+  </si>
+  <si>
+    <t>Parámetro adimensional de la partícula $[adimensional]$</t>
+  </si>
+  <si>
+    <t>$D_{*}$</t>
+  </si>
+  <si>
+    <t>Esfuerzo cortante en el lecho  $\frac{[F]}{[L^{2}]}$</t>
+  </si>
+  <si>
+    <t>Diámetro característico de las partículas $[L]$</t>
+  </si>
+  <si>
+    <t>Viscosidad cinemática del agua $\frac{[L]^{2}}{[T]}$</t>
+  </si>
+  <si>
+    <t>Velocidad de corte $\frac{[L]}{[T]}$</t>
+  </si>
+  <si>
+    <t>Densidad del fluido $\frac{[M]}{[L^{3}]}$</t>
+  </si>
+  <si>
+    <t>Radio hidráulico $[L]$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\tau_{*c}$ </t>
+  </si>
+  <si>
+    <t>Esfuerzo cortante adimensional asociado a $\tau_{c}$   $[adimensional]$</t>
+  </si>
+  <si>
+    <t>$\tau_{c}$</t>
+  </si>
+  <si>
+    <t>Esfuerzo cortante crítico  $\frac{[F]}{[L^{2}]}$</t>
+  </si>
+  <si>
+    <t>Número de Reynolds de corte asociado a $\tau_{c}$ $[adimensional]$</t>
+  </si>
+  <si>
+    <t>$R_{*c}$</t>
+  </si>
+  <si>
+    <t>Parámetro adimensional de la partícula asociado a $\tau_{c}$  $[adimensional]$</t>
+  </si>
+  <si>
+    <t>$Q$</t>
+  </si>
+  <si>
+    <t>$Q_{S}$</t>
+  </si>
+  <si>
+    <t>Caudal líquido $\frac{[L^{3}]}{[T]}$</t>
+  </si>
+  <si>
+    <t>Caudal sólido $\frac{[L^{3}]}{[T]}$</t>
   </si>
 </sst>
 </file>
@@ -781,6 +1016,2093 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FDD70F-C213-44CE-AFB4-2AF114267DBE}">
+  <dimension ref="B2:I103"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="2.77734375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="74.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
+        <v>| Abreviatura | Significado |</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
+        <v>| Abreviatura | Significado | Tamaño |</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
+        <v>| Abreviatura | Significado | Tamaño | Tamiz |</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|")</f>
+        <v>|---|---|</v>
+      </c>
+      <c r="H4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|")</f>
+        <v>|---|---|---|</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|",E4,"|")</f>
+        <v>|---|---|---|---|</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
+        <v>| $G_{T}$ | Carga de sedimentos o carga total de sedimentos $\frac{[F]}{[T]}$ |</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5:H68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
+        <v>| $G_{T}$ | Carga de sedimentos o carga total de sedimentos $\frac{[F]}{[T]}$ |  |</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
+        <v>| $G_{T}$ | Carga de sedimentos o carga total de sedimentos $\frac{[F]}{[T]}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="str">
+        <f t="shared" ref="G6:G69" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
+        <v>| $G_{L}$ | Carga de lavado $\frac{[F]}{[T]}$ |</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| $G_{L}$ | Carga de lavado $\frac{[F]}{[T]}$ |  |</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| $G_{L}$ | Carga de lavado $\frac{[F]}{[T]}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| $G_{BT}$ | Carga de material del lecho $\frac{[F]}{[T]}$ |</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| $G_{BT}$ | Carga de material del lecho $\frac{[F]}{[T]}$ |  |</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| $G_{BT}$ | Carga de material del lecho $\frac{[F]}{[T]}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| $G_{B}$ | Carga por arrastre $\frac{[F]}{[T]}$ |</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| $G_{B}$ | Carga por arrastre $\frac{[F]}{[T]}$ |  |</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| $G_{B}$ | Carga por arrastre $\frac{[F]}{[T]}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| $G_{BS}$ | Carga del material del lecho en suspensión $\frac{[F]}{[T]}$ |</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| $G_{BS}$ | Carga del material del lecho en suspensión $\frac{[F]}{[T]}$ |  |</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| $G_{BS}$ | Carga del material del lecho en suspensión $\frac{[F]}{[T]}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| $G_{S}$ | Carga en suspensión $\frac{[F]}{[T]}$ |</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| $G_{S}$ | Carga en suspensión $\frac{[F]}{[T]}$ |  |</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| $G_{S}$ | Carga en suspensión $\frac{[F]}{[T]}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| $P$ | Potencia de la corriente por unidad de área $\frac{[F]}{[L][T]}$  |</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| $P$ | Potencia de la corriente por unidad de área $\frac{[F]}{[L][T]}$  |  |</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| $P$ | Potencia de la corriente por unidad de área $\frac{[F]}{[L][T]}$  |  |  |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| $\gamma$ | Peso específico del agua $\frac{[F]}{[L^{3}]}$ |</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| $\gamma$ | Peso específico del agua $\frac{[F]}{[L^{3}]}$ |  |</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| $\gamma$ | Peso específico del agua $\frac{[F]}{[L^{3}]}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| $\gamma_{S}$ | Peso específico de las partículas de sedimento $\frac{[F]}{[L^{3}]}$ |</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| $\gamma_{S}$ | Peso específico de las partículas de sedimento $\frac{[F]}{[L^{3}]}$ |  |</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| $\gamma_{S}$ | Peso específico de las partículas de sedimento $\frac{[F]}{[L^{3}]}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| $y$ | Profundidad de la lámina de agua $[L]$ |</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| $y$ | Profundidad de la lámina de agua $[L]$ |  |</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| $y$ | Profundidad de la lámina de agua $[L]$ |  |  |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| $V$  | Velocidad media de la corriente $\frac{[L]}{[T]}$ |</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| $V$  | Velocidad media de la corriente $\frac{[L]}{[T]}$ |  |</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| $V$  | Velocidad media de la corriente $\frac{[L]}{[T]}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| $S_{0}$  | Pendiente media del fondo del lecho $\frac{[L]}{[L]}$ |</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| $S_{0}$  | Pendiente media del fondo del lecho $\frac{[L]}{[L]}$ |  |</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| $S_{0}$  | Pendiente media del fondo del lecho $\frac{[L]}{[L]}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| $\tau_{0}$ | Esfuerzo cortante en el lecho  $\frac{[F]}{[L^{2}]}$ |</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| $\tau_{0}$ | Esfuerzo cortante en el lecho  $\frac{[F]}{[L^{2}]}$ |  |</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| $\tau_{0}$ | Esfuerzo cortante en el lecho  $\frac{[F]}{[L^{2}]}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B18," | ",C18," |")</f>
+        <v>| $\tau_{c}$ | Esfuerzo cortante crítico  $\frac{[F]}{[L^{2}]}$ |</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B18," | ",C18," | ",D18," |")</f>
+        <v>| $\tau_{c}$ | Esfuerzo cortante crítico  $\frac{[F]}{[L^{2}]}$ |  |</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B18," | ",C18," | ",D18," | ",E18," |")</f>
+        <v>| $\tau_{c}$ | Esfuerzo cortante crítico  $\frac{[F]}{[L^{2}]}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B19," | ",C19," |")</f>
+        <v>| $\tau_{*}$  | Esfuerzo cortante adimensional $[adimensional]$ |</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B19," | ",C19," | ",D19," |")</f>
+        <v>| $\tau_{*}$  | Esfuerzo cortante adimensional $[adimensional]$ |  |</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B19," | ",C19," | ",D19," | ",E19," |")</f>
+        <v>| $\tau_{*}$  | Esfuerzo cortante adimensional $[adimensional]$ |  |  |</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B20," | ",C20," |")</f>
+        <v>| $\tau_{*c}$  | Esfuerzo cortante adimensional asociado a $\tau_{c}$   $[adimensional]$ |</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B20," | ",C20," | ",D20," |")</f>
+        <v>| $\tau_{*c}$  | Esfuerzo cortante adimensional asociado a $\tau_{c}$   $[adimensional]$ |  |</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B20," | ",C20," | ",D20," | ",E20," |")</f>
+        <v>| $\tau_{*c}$  | Esfuerzo cortante adimensional asociado a $\tau_{c}$   $[adimensional]$ |  |  |</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B21," | ",C21," |")</f>
+        <v>| $R_{*}$ | Número de Reynolds de corte $[adimensional]$ |</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B21," | ",C21," | ",D21," |")</f>
+        <v>| $R_{*}$ | Número de Reynolds de corte $[adimensional]$ |  |</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B21," | ",C21," | ",D21," | ",E21," |")</f>
+        <v>| $R_{*}$ | Número de Reynolds de corte $[adimensional]$ |  |  |</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B22," | ",C22," |")</f>
+        <v>| $R_{*c}$ | Número de Reynolds de corte asociado a $\tau_{c}$ $[adimensional]$ |</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B22," | ",C22," | ",D22," |")</f>
+        <v>| $R_{*c}$ | Número de Reynolds de corte asociado a $\tau_{c}$ $[adimensional]$ |  |</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B22," | ",C22," | ",D22," | ",E22," |")</f>
+        <v>| $R_{*c}$ | Número de Reynolds de corte asociado a $\tau_{c}$ $[adimensional]$ |  |  |</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B23," | ",C23," |")</f>
+        <v>| $d$ | Diámetro característico de las partículas $[L]$ |</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B23," | ",C23," | ",D23," |")</f>
+        <v>| $d$ | Diámetro característico de las partículas $[L]$ |  |</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B23," | ",C23," | ",D23," | ",E23," |")</f>
+        <v>| $d$ | Diámetro característico de las partículas $[L]$ |  |  |</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B24," | ",C24," |")</f>
+        <v>| $\nu$ | Viscosidad cinemática del agua $\frac{[L]^{2}}{[T]}$ |</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B24," | ",C24," | ",D24," |")</f>
+        <v>| $\nu$ | Viscosidad cinemática del agua $\frac{[L]^{2}}{[T]}$ |  |</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B24," | ",C24," | ",D24," | ",E24," |")</f>
+        <v>| $\nu$ | Viscosidad cinemática del agua $\frac{[L]^{2}}{[T]}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B25," | ",C25," |")</f>
+        <v>| $U_{*}$ | Velocidad de corte $\frac{[L]}{[T]}$ |</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B25," | ",C25," | ",D25," |")</f>
+        <v>| $U_{*}$ | Velocidad de corte $\frac{[L]}{[T]}$ |  |</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B25," | ",C25," | ",D25," | ",E25," |")</f>
+        <v>| $U_{*}$ | Velocidad de corte $\frac{[L]}{[T]}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B26," | ",C26," |")</f>
+        <v>| $\rho$ | Densidad del fluido $\frac{[M]}{[L^{3}]}$ |</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B26," | ",C26," | ",D26," |")</f>
+        <v>| $\rho$ | Densidad del fluido $\frac{[M]}{[L^{3}]}$ |  |</v>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B26," | ",C26," | ",D26," | ",E26," |")</f>
+        <v>| $\rho$ | Densidad del fluido $\frac{[M]}{[L^{3}]}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| $R$ | Radio hidráulico $[L]$ |</v>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| $R$ | Radio hidráulico $[L]$ |  |</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| $R$ | Radio hidráulico $[L]$ |  |  |</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| $D_{*}$ | Parámetro adimensional de la partícula $[adimensional]$ |</v>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| $D_{*}$ | Parámetro adimensional de la partícula $[adimensional]$ |  |</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| $D_{*}$ | Parámetro adimensional de la partícula $[adimensional]$ |  |  |</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| $D_{*c}$ | Parámetro adimensional de la partícula asociado a $\tau_{c}$  $[adimensional]$ |</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| $D_{*c}$ | Parámetro adimensional de la partícula asociado a $\tau_{c}$  $[adimensional]$ |  |</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| $D_{*c}$ | Parámetro adimensional de la partícula asociado a $\tau_{c}$  $[adimensional]$ |  |  |</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B30," | ",C30," |")</f>
+        <v>| $Q$ | Caudal líquido $\frac{[L^{3}]}{[T]}$ |</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B30," | ",C30," | ",D30," |")</f>
+        <v>| $Q$ | Caudal líquido $\frac{[L^{3}]}{[T]}$ |  |</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B30," | ",C30," | ",D30," | ",E30," |")</f>
+        <v>| $Q$ | Caudal líquido $\frac{[L^{3}]}{[T]}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B31," | ",C31," |")</f>
+        <v>| $Q_{S}$ | Caudal sólido $\frac{[L^{3}]}{[T]}$ |</v>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B31," | ",C31," | ",D31," |")</f>
+        <v>| $Q_{S}$ | Caudal sólido $\frac{[L^{3}]}{[T]}$ |  |</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B31," | ",C31," | ",D31," | ",E31," |")</f>
+        <v>| $Q_{S}$ | Caudal sólido $\frac{[L^{3}]}{[T]}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I39" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I41" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I42" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I43" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I45" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I46" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I54" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I55" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I57" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I58" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I59" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I61" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I62" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I63" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I64" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I65" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H66" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I66" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I67" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I68" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H69" s="5" t="str">
+        <f t="shared" ref="H69:H103" si="3">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I69" s="5" t="str">
+        <f t="shared" ref="I69:I103" si="4">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," | ",E69," |")</f>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="5" t="str">
+        <f t="shared" ref="G70:G103" si="5">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="H70" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I70" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H71" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I71" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H72" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I72" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H73" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I73" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H74" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I74" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H75" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I75" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H76" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I76" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H77" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I77" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H78" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I78" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H79" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I79" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H80" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I80" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I81" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H82" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I82" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H83" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I83" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H84" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I84" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H85" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H86" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I86" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H87" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I87" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H88" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I88" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H89" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I89" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H90" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I90" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H91" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I91" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H92" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I92" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H93" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I93" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H94" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I94" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H95" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I95" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H96" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I96" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H97" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I97" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H98" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I98" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H99" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I99" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H100" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I100" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H101" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I101" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H102" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I102" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H103" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I103" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2E19A4-40DE-42A8-B3E2-A2516218588C}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B2:I103"/>
@@ -2768,7 +5090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1D714B-9B6E-407D-AE17-6308F02183D5}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B2:I103"/>
@@ -4772,12 +7094,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FC35F7-E1F5-4D93-9954-7369D1C39019}">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
@@ -4911,7 +7233,7 @@
         <v>| Transporte por arrastre | Ecuaciones: Shields, Meyer-Peter and Müller (MPM) y Wilcock and Crowe. Ejemplos |  |  |</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>81</v>
       </c>
@@ -4922,7 +7244,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="str">
-        <f t="shared" ref="G7:G8" si="2">_xlfn.CONCAT("| ",B7," | ",C7," |")</f>
+        <f t="shared" ref="G7" si="2">_xlfn.CONCAT("| ",B7," | ",C7," |")</f>
         <v>| Transporte por suspensión | Ecuaciones: |</v>
       </c>
       <c r="H7" s="5" t="str">
@@ -4964,7 +7286,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="str">
-        <f t="shared" ref="G6:G69" si="3">_xlfn.CONCAT("| ",B9," | ",C9," |")</f>
+        <f t="shared" ref="G9:G69" si="3">_xlfn.CONCAT("| ",B9," | ",C9," |")</f>
         <v>|  |  |</v>
       </c>
       <c r="H9" s="5" t="str">
@@ -6768,7 +9090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8E123B-9080-4571-AD06-DEDC363A6AEB}">
   <sheetPr codeName="Hoja6"/>
   <dimension ref="B2:I103"/>
@@ -8776,7 +11098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17435F5A-6FF6-46D8-82B3-65E349CBB224}">
   <sheetPr codeName="Hoja7"/>
   <dimension ref="B2:I103"/>
@@ -10780,7 +13102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4D1AA1-E8DE-4F52-B39F-83F2799A1FB7}">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B2:I103"/>
@@ -12880,14 +15202,2034 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16AD24E-BC6D-4E2C-905E-0970E18303A5}">
+  <dimension ref="B2:I102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="2.77734375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="74.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
+        <v>| Estudio | Transporte por cuantificar |</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
+        <v>| Estudio | Transporte por cuantificar | Tamaño |</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
+        <v>| Estudio | Transporte por cuantificar | Tamaño | Tamiz |</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|")</f>
+        <v>|---|---|</v>
+      </c>
+      <c r="H4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|")</f>
+        <v>|---|---|---|</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|",E4,"|")</f>
+        <v>|---|---|---|---|</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
+        <v>| Tiempo de llenado de una pequeña presa derivadora | $G_{B}$ |</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5:H67" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
+        <v>| Tiempo de llenado de una pequeña presa derivadora | $G_{B}$ |  |</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" ref="I5:I67" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
+        <v>| Tiempo de llenado de una pequeña presa derivadora | $G_{B}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="str">
+        <f t="shared" ref="G6:G68" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
+        <v>| Tiempo de llenado de una presa derivadora | $G_{B}$ o $G_{BT}$ |</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Tiempo de llenado de una presa derivadora | $G_{B}$ o $G_{BT}$ |  |</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Tiempo de llenado de una presa derivadora | $G_{B}$ o $G_{BT}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Tiempo de llenado de una gran presa | $G_{T}$ |</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Tiempo de llenado de una gran presa | $G_{T}$ |  |</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Tiempo de llenado de una gran presa | $G_{T}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Erosión aguas abajo de grandes presas | $G_{BT}$ |</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Erosión aguas abajo de grandes presas | $G_{BT}$ |  |</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Erosión aguas abajo de grandes presas | $G_{BT}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Estabilidad de cauces y rectificaciones | $G_{B}$ o $G_{BT}$ |</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Estabilidad de cauces y rectificaciones | $G_{B}$ o $G_{BT}$ |  |</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Estabilidad de cauces y rectificaciones | $G_{B}$ o $G_{BT}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Derivaciones en ríos hacia canales de riego | $G_{BS}$ |</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Derivaciones en ríos hacia canales de riego | $G_{BS}$ |  |</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Derivaciones en ríos hacia canales de riego | $G_{BS}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Obras de defensa contra inundaciones: Bordos de protección | $G_{BT}$ |</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Obras de defensa contra inundaciones: Bordos de protección | $G_{BT}$ |  |</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Obras de defensa contra inundaciones: Bordos de protección | $G_{BT}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Obras de defensa contra inundaciones: Desvíos temporales | $G_{BS}$ y $G_{L}$  |</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Obras de defensa contra inundaciones: Desvíos temporales | $G_{BS}$ y $G_{L}$  |  |</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Obras de defensa contra inundaciones: Desvíos temporales | $G_{BS}$ y $G_{L}$  |  |  |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Obras de defensa contra inundaciones: Cauces de alivio | $G_{BS}$ |</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Obras de defensa contra inundaciones: Cauces de alivio | $G_{BS}$ |  |</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Obras de defensa contra inundaciones: Cauces de alivio | $G_{BS}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Bombeo directo de un río | $G_{BS}$ |</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Bombeo directo de un río | $G_{BS}$ |  |</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Bombeo directo de un río | $G_{BS}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Tanques de sedimentación | $G_{B}$ o $G_{BT}$ |</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Tanques de sedimentación | $G_{B}$ o $G_{BT}$ |  |</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Tanques de sedimentación | $G_{B}$ o $G_{BT}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Desvíos para acuacultura en lagunas costeras o estanques | $G_{BS}$ o $G_{L}$  |</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Desvíos para acuacultura en lagunas costeras o estanques | $G_{BS}$ o $G_{L}$  |  |</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Desvíos para acuacultura en lagunas costeras o estanques | $G_{BS}$ o $G_{L}$  |  |  |</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Entubamiento de arroyos en su paso por centros urbanos | $G_{BT}$ |</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Entubamiento de arroyos en su paso por centros urbanos | $G_{BT}$ |  |</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Entubamiento de arroyos en su paso por centros urbanos | $G_{BT}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Diseño de canales sin arrastre | $G_{B}=0$ (condición crítica de arrastre) |</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Diseño de canales sin arrastre | $G_{B}=0$ (condición crítica de arrastre) |  |</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Diseño de canales sin arrastre | $G_{B}=0$ (condición crítica de arrastre) |  |  |</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Estudios de erosión y sedimentación de tramos de ríos | $G_{B}$ o $G_{BT}$ |</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Estudios de erosión y sedimentación de tramos de ríos | $G_{B}$ o $G_{BT}$ |  |</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Estudios de erosión y sedimentación de tramos de ríos | $G_{B}$ o $G_{BT}$ |  |  |</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I39" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I41" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I42" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I43" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I45" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I46" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I54" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I55" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I57" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I58" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I59" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I61" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I62" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I63" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I64" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I65" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H66" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I66" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I67" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f t="shared" ref="H68:H102" si="3">_xlfn.CONCAT("| ",B68," | ",C68," | ",D68," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I68" s="5" t="str">
+        <f t="shared" ref="I68:I102" si="4">_xlfn.CONCAT("| ",B68," | ",C68," | ",D68," | ",E68," |")</f>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="5" t="str">
+        <f t="shared" ref="G69:G102" si="5">_xlfn.CONCAT("| ",B69," | ",C69," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="H69" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I69" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H70" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I70" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H71" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I71" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H72" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I72" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H73" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I73" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H74" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I74" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H75" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I75" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H76" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I76" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H77" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I77" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H78" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I78" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H79" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I79" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H80" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I80" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I81" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H82" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I82" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H83" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I83" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H84" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I84" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H85" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H86" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I86" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H87" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I87" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H88" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I88" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H89" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I89" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H90" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I90" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H91" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I91" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H92" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I92" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H93" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I93" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H94" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I94" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H95" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I95" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H96" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I96" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H97" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I97" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H98" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I98" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H99" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I99" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H100" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I100" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H101" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I101" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H102" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I102" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB6E6C-1D05-499A-989F-C261220A1AD3}">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="B2:I103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3:I7"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>

--- a/ExcelTableToMarkDownSample.xlsx
+++ b/ExcelTableToMarkDownSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0972957-BC53-4A17-8072-4C2AAE4D4FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D64BA1-BBEB-4B31-A855-5C0CD1AE8F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Abreviaturas" sheetId="9" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="189">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -265,31 +265,7 @@
     <t>Clasificación de los cauces y los patrones de cauce con base en los criterios de Schumm.</t>
   </si>
   <si>
-    <t>Transporte de sedimentos</t>
-  </si>
-  <si>
     <t>Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos.</t>
-  </si>
-  <si>
-    <t>Potencia de la corriente</t>
-  </si>
-  <si>
-    <t>Definición y usos</t>
-  </si>
-  <si>
-    <t>Predicción sobre la respuesta general de un río al cambio</t>
-  </si>
-  <si>
-    <t>Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo</t>
-  </si>
-  <si>
-    <t>Movimiento incipiente</t>
-  </si>
-  <si>
-    <t>Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields.</t>
-  </si>
-  <si>
-    <t>Acorazamiento</t>
   </si>
   <si>
     <t>Explicación del proceso de acorazamiento de un lecho.</t>
@@ -608,6 +584,42 @@
   </si>
   <si>
     <t>Caudal sólido $\frac{[L^{3}]}{[T]}$</t>
+  </si>
+  <si>
+    <t>Definición y usos.</t>
+  </si>
+  <si>
+    <t>Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo.</t>
+  </si>
+  <si>
+    <t>Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. Ejemplo.</t>
+  </si>
+  <si>
+    <t>Caudal sólido en suspensión</t>
+  </si>
+  <si>
+    <t>Distribución de velocidades y concentración de sedimentos en suspensión en un canal.</t>
+  </si>
+  <si>
+    <t>Ecuación de continuidad de sedimentos</t>
+  </si>
+  <si>
+    <t>Ecuación de Exner.</t>
+  </si>
+  <si>
+    <t>[Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos)</t>
+  </si>
+  <si>
+    <t>[Potencia de la corriente](https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia)</t>
+  </si>
+  <si>
+    <t>[Movimiento incipiente](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_MovimientoIncipiente)</t>
+  </si>
+  <si>
+    <t>[Acorazamiento](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Acorazamiento)</t>
+  </si>
+  <si>
+    <t>[Predicción sobre la respuesta general de un río al cambio](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Lane)</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FDD70F-C213-44CE-AFB4-2AF114267DBE}">
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G3" sqref="G3:G31"/>
     </sheetView>
@@ -1055,10 +1067,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -1109,10 +1121,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1132,10 +1144,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1155,10 +1167,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1178,10 +1190,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1201,10 +1213,10 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1224,10 +1236,10 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1247,10 +1259,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1270,10 +1282,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1293,10 +1305,10 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1316,10 +1328,10 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1339,10 +1351,10 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1362,10 +1374,10 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1385,10 +1397,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1408,217 +1420,217 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B18," | ",C18," |")</f>
+        <f t="shared" ref="G18:G26" si="3">_xlfn.CONCAT("| ",B18," | ",C18," |")</f>
         <v>| $\tau_{c}$ | Esfuerzo cortante crítico  $\frac{[F]}{[L^{2}]}$ |</v>
       </c>
       <c r="H18" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B18," | ",C18," | ",D18," |")</f>
+        <f t="shared" ref="H18:H26" si="4">_xlfn.CONCAT("| ",B18," | ",C18," | ",D18," |")</f>
         <v>| $\tau_{c}$ | Esfuerzo cortante crítico  $\frac{[F]}{[L^{2}]}$ |  |</v>
       </c>
       <c r="I18" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B18," | ",C18," | ",D18," | ",E18," |")</f>
+        <f t="shared" ref="I18:I26" si="5">_xlfn.CONCAT("| ",B18," | ",C18," | ",D18," | ",E18," |")</f>
         <v>| $\tau_{c}$ | Esfuerzo cortante crítico  $\frac{[F]}{[L^{2}]}$ |  |  |</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B19," | ",C19," |")</f>
+        <f t="shared" si="3"/>
         <v>| $\tau_{*}$  | Esfuerzo cortante adimensional $[adimensional]$ |</v>
       </c>
       <c r="H19" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B19," | ",C19," | ",D19," |")</f>
+        <f t="shared" si="4"/>
         <v>| $\tau_{*}$  | Esfuerzo cortante adimensional $[adimensional]$ |  |</v>
       </c>
       <c r="I19" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B19," | ",C19," | ",D19," | ",E19," |")</f>
+        <f t="shared" si="5"/>
         <v>| $\tau_{*}$  | Esfuerzo cortante adimensional $[adimensional]$ |  |  |</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B20," | ",C20," |")</f>
+        <f t="shared" si="3"/>
         <v>| $\tau_{*c}$  | Esfuerzo cortante adimensional asociado a $\tau_{c}$   $[adimensional]$ |</v>
       </c>
       <c r="H20" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B20," | ",C20," | ",D20," |")</f>
+        <f t="shared" si="4"/>
         <v>| $\tau_{*c}$  | Esfuerzo cortante adimensional asociado a $\tau_{c}$   $[adimensional]$ |  |</v>
       </c>
       <c r="I20" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B20," | ",C20," | ",D20," | ",E20," |")</f>
+        <f t="shared" si="5"/>
         <v>| $\tau_{*c}$  | Esfuerzo cortante adimensional asociado a $\tau_{c}$   $[adimensional]$ |  |  |</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B21," | ",C21," |")</f>
+        <f t="shared" si="3"/>
         <v>| $R_{*}$ | Número de Reynolds de corte $[adimensional]$ |</v>
       </c>
       <c r="H21" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B21," | ",C21," | ",D21," |")</f>
+        <f t="shared" si="4"/>
         <v>| $R_{*}$ | Número de Reynolds de corte $[adimensional]$ |  |</v>
       </c>
       <c r="I21" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B21," | ",C21," | ",D21," | ",E21," |")</f>
+        <f t="shared" si="5"/>
         <v>| $R_{*}$ | Número de Reynolds de corte $[adimensional]$ |  |  |</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B22," | ",C22," |")</f>
+        <f t="shared" si="3"/>
         <v>| $R_{*c}$ | Número de Reynolds de corte asociado a $\tau_{c}$ $[adimensional]$ |</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B22," | ",C22," | ",D22," |")</f>
+        <f t="shared" si="4"/>
         <v>| $R_{*c}$ | Número de Reynolds de corte asociado a $\tau_{c}$ $[adimensional]$ |  |</v>
       </c>
       <c r="I22" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B22," | ",C22," | ",D22," | ",E22," |")</f>
+        <f t="shared" si="5"/>
         <v>| $R_{*c}$ | Número de Reynolds de corte asociado a $\tau_{c}$ $[adimensional]$ |  |  |</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B23," | ",C23," |")</f>
+        <f t="shared" si="3"/>
         <v>| $d$ | Diámetro característico de las partículas $[L]$ |</v>
       </c>
       <c r="H23" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B23," | ",C23," | ",D23," |")</f>
+        <f t="shared" si="4"/>
         <v>| $d$ | Diámetro característico de las partículas $[L]$ |  |</v>
       </c>
       <c r="I23" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B23," | ",C23," | ",D23," | ",E23," |")</f>
+        <f t="shared" si="5"/>
         <v>| $d$ | Diámetro característico de las partículas $[L]$ |  |  |</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B24," | ",C24," |")</f>
+        <f t="shared" si="3"/>
         <v>| $\nu$ | Viscosidad cinemática del agua $\frac{[L]^{2}}{[T]}$ |</v>
       </c>
       <c r="H24" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B24," | ",C24," | ",D24," |")</f>
+        <f t="shared" si="4"/>
         <v>| $\nu$ | Viscosidad cinemática del agua $\frac{[L]^{2}}{[T]}$ |  |</v>
       </c>
       <c r="I24" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B24," | ",C24," | ",D24," | ",E24," |")</f>
+        <f t="shared" si="5"/>
         <v>| $\nu$ | Viscosidad cinemática del agua $\frac{[L]^{2}}{[T]}$ |  |  |</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B25," | ",C25," |")</f>
+        <f t="shared" si="3"/>
         <v>| $U_{*}$ | Velocidad de corte $\frac{[L]}{[T]}$ |</v>
       </c>
       <c r="H25" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B25," | ",C25," | ",D25," |")</f>
+        <f t="shared" si="4"/>
         <v>| $U_{*}$ | Velocidad de corte $\frac{[L]}{[T]}$ |  |</v>
       </c>
       <c r="I25" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B25," | ",C25," | ",D25," | ",E25," |")</f>
+        <f t="shared" si="5"/>
         <v>| $U_{*}$ | Velocidad de corte $\frac{[L]}{[T]}$ |  |  |</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B26," | ",C26," |")</f>
+        <f t="shared" si="3"/>
         <v>| $\rho$ | Densidad del fluido $\frac{[M]}{[L^{3}]}$ |</v>
       </c>
       <c r="H26" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B26," | ",C26," | ",D26," |")</f>
+        <f t="shared" si="4"/>
         <v>| $\rho$ | Densidad del fluido $\frac{[M]}{[L^{3}]}$ |  |</v>
       </c>
       <c r="I26" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B26," | ",C26," | ",D26," | ",E26," |")</f>
+        <f t="shared" si="5"/>
         <v>| $\rho$ | Densidad del fluido $\frac{[M]}{[L^{3}]}$ |  |  |</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1638,10 +1650,10 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1659,12 +1671,12 @@
         <v>| $D_{*}$ | Parámetro adimensional de la partícula $[adimensional]$ |  |  |</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1684,10 +1696,10 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1707,10 +1719,10 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2442,11 +2454,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H69" s="5" t="str">
-        <f t="shared" ref="H69:H103" si="3">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
+        <f t="shared" ref="H69:H103" si="6">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
         <v>|  |  |  |</v>
       </c>
       <c r="I69" s="5" t="str">
-        <f t="shared" ref="I69:I103" si="4">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," | ",E69," |")</f>
+        <f t="shared" ref="I69:I103" si="7">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," | ",E69," |")</f>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2457,15 +2469,15 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="5" t="str">
-        <f t="shared" ref="G70:G103" si="5">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
+        <f t="shared" ref="G70:G103" si="8">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
         <v>|  |  |</v>
       </c>
       <c r="H70" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I70" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2476,15 +2488,15 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H71" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I71" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2495,15 +2507,15 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H72" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I72" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2514,15 +2526,15 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H73" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I73" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2533,15 +2545,15 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H74" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I74" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2552,15 +2564,15 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H75" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I75" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2571,15 +2583,15 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H76" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I76" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2590,15 +2602,15 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H77" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I77" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2609,15 +2621,15 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H78" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I78" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2628,15 +2640,15 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H79" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I79" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2647,15 +2659,15 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H80" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I80" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2666,15 +2678,15 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H81" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I81" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2685,15 +2697,15 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H82" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I82" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2704,15 +2716,15 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H83" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I83" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2723,15 +2735,15 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H84" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I84" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2742,15 +2754,15 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H85" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I85" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2761,15 +2773,15 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H86" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I86" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2780,15 +2792,15 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H87" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I87" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2799,15 +2811,15 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H88" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I88" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2818,15 +2830,15 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H89" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I89" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2837,15 +2849,15 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H90" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I90" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2856,15 +2868,15 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H91" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I91" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2875,15 +2887,15 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H92" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I92" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2894,15 +2906,15 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H93" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I93" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2913,15 +2925,15 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H94" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I94" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2932,15 +2944,15 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H95" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I95" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2951,15 +2963,15 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H96" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I96" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2970,15 +2982,15 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H97" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I97" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -2989,15 +3001,15 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H98" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I98" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -3008,15 +3020,15 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H99" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I99" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -3027,15 +3039,15 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H100" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I100" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -3046,15 +3058,15 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H101" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I101" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -3065,15 +3077,15 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H102" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I102" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -3084,15 +3096,15 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>|  |  |</v>
       </c>
       <c r="H103" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I103" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -5095,9 +5107,9 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -5208,155 +5220,163 @@
     </row>
     <row r="6" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="str">
         <f t="shared" ref="G6:G69" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| Transporte de sedimentos | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |</v>
+        <v>| [Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Transporte de sedimentos | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |  |</v>
+        <v>| [Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |  |</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Transporte de sedimentos | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |  |  |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+        <v>| [Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |  |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Potencia de la corriente | Definición y usos |</v>
+        <v>| [Potencia de la corriente](https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia) | Definición y usos. |</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Potencia de la corriente | Definición y usos |  |</v>
+        <v>| [Potencia de la corriente](https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia) | Definición y usos. |  |</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Potencia de la corriente | Definición y usos |  |  |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+        <v>| [Potencia de la corriente](https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia) | Definición y usos. |  |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Predicción sobre la respuesta general de un río al cambio | Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo |</v>
+        <v>| [Movimiento incipiente](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_MovimientoIncipiente) | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. Ejemplo. |</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Predicción sobre la respuesta general de un río al cambio | Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo |  |</v>
+        <v>| [Movimiento incipiente](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_MovimientoIncipiente) | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. Ejemplo. |  |</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Predicción sobre la respuesta general de un río al cambio | Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo |  |  |</v>
+        <v>| [Movimiento incipiente](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_MovimientoIncipiente) | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. Ejemplo. |  |  |</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Movimiento incipiente | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. |</v>
+        <v>| [Acorazamiento](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Acorazamiento) | Explicación del proceso de acorazamiento de un lecho. |</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Movimiento incipiente | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. |  |</v>
+        <v>| [Acorazamiento](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Acorazamiento) | Explicación del proceso de acorazamiento de un lecho. |  |</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Movimiento incipiente | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. |  |  |</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+        <v>| [Acorazamiento](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Acorazamiento) | Explicación del proceso de acorazamiento de un lecho. |  |  |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Acorazamiento | Explicación del proceso de acorazamiento de un lecho. |</v>
+        <v>| Caudal sólido en suspensión | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Acorazamiento | Explicación del proceso de acorazamiento de un lecho. |  |</v>
+        <v>| Caudal sólido en suspensión | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |  |</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Acorazamiento | Explicación del proceso de acorazamiento de un lecho. |  |  |</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+        <v>| Caudal sólido en suspensión | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|  |  |</v>
+        <v>| [Predicción sobre la respuesta general de un río al cambio](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Lane) | Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo. |</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| [Predicción sobre la respuesta general de un río al cambio](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Lane) | Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo. |  |</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
+        <v>| [Predicción sobre la respuesta general de un río al cambio](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Lane) | Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo. |  |  |</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|  |  |</v>
+        <v>| Ecuación de continuidad de sedimentos | Ecuación de Exner. |</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| Ecuación de continuidad de sedimentos | Ecuación de Exner. |  |</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
+        <v>| Ecuación de continuidad de sedimentos | Ecuación de Exner. |  |  |</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
@@ -7189,10 +7209,10 @@
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -7212,10 +7232,10 @@
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -7235,10 +7255,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -7258,10 +7278,10 @@
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -9185,10 +9205,10 @@
     </row>
     <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -9208,10 +9228,10 @@
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -9231,10 +9251,10 @@
     </row>
     <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -9254,10 +9274,10 @@
     </row>
     <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -9277,10 +9297,10 @@
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -9300,10 +9320,10 @@
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -9323,10 +9343,10 @@
     </row>
     <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -11193,10 +11213,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -11216,10 +11236,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -11239,10 +11259,10 @@
     </row>
     <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -11262,10 +11282,10 @@
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -11285,10 +11305,10 @@
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -11308,10 +11328,10 @@
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -15242,10 +15262,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -15296,10 +15316,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -15319,10 +15339,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -15342,10 +15362,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -15365,10 +15385,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -15388,10 +15408,10 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -15411,10 +15431,10 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -15434,10 +15454,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -15457,10 +15477,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -15480,10 +15500,10 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -15503,10 +15523,10 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -15526,10 +15546,10 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -15549,10 +15569,10 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -15572,10 +15592,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -15595,10 +15615,10 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -15618,10 +15638,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>

--- a/ExcelTableToMarkDownSample.xlsx
+++ b/ExcelTableToMarkDownSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D64BA1-BBEB-4B31-A855-5C0CD1AE8F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD5F690-897D-4C94-80F3-8B589CF80125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
@@ -595,9 +595,6 @@
     <t>Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. Ejemplo.</t>
   </si>
   <si>
-    <t>Caudal sólido en suspensión</t>
-  </si>
-  <si>
     <t>Distribución de velocidades y concentración de sedimentos en suspensión en un canal.</t>
   </si>
   <si>
@@ -620,6 +617,9 @@
   </si>
   <si>
     <t>[Predicción sobre la respuesta general de un río al cambio](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Lane)</t>
+  </si>
+  <si>
+    <t>[Caudal sólido en suspensión](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_CaudalSuspension)</t>
   </si>
 </sst>
 </file>
@@ -5108,8 +5108,8 @@
   <dimension ref="B2:I103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G12"/>
+      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -5218,9 +5218,9 @@
         <v>| Clasificación de ríos y cauces | Clasificación de los cauces y los patrones de cauce con base en los criterios de Schumm. |  |  |</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="60" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>70</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>177</v>
@@ -5264,9 +5264,9 @@
         <v>| [Potencia de la corriente](https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia) | Definición y usos. |  |  |</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" ht="60" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>179</v>
@@ -5287,9 +5287,9 @@
         <v>| [Movimiento incipiente](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_MovimientoIncipiente) | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. Ejemplo. |  |  |</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>71</v>
@@ -5310,32 +5310,32 @@
         <v>| [Acorazamiento](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Acorazamiento) | Explicación del proceso de acorazamiento de un lecho. |  |  |</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Caudal sólido en suspensión | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |</v>
+        <v>| [Caudal sólido en suspensión](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_CaudalSuspension) | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Caudal sólido en suspensión | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |  |</v>
+        <v>| [Caudal sólido en suspensión](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_CaudalSuspension) | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |  |</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Caudal sólido en suspensión | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |  |  |</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+        <v>| [Caudal sólido en suspensión](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_CaudalSuspension) | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="60" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>178</v>
@@ -5358,10 +5358,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>

--- a/ExcelTableToMarkDownSample.xlsx
+++ b/ExcelTableToMarkDownSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD5F690-897D-4C94-80F3-8B589CF80125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1DCBE2-825B-445B-99EC-FD4D20B23245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Abreviaturas" sheetId="9" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="190">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -253,12 +253,6 @@
     <t>1/1024 mm - 1/2048 mm</t>
   </si>
   <si>
-    <t>Tema</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
     <t>Clasificación de ríos y cauces</t>
   </si>
   <si>
@@ -281,9 +275,6 @@
   </si>
   <si>
     <t>Transporte total</t>
-  </si>
-  <si>
-    <t>Ecuaciones: Ackers and White, Engelund-Hansen, Laursen-Copeland, Toffaleti, MPM-Toffaleti y Yang</t>
   </si>
   <si>
     <t>Funcionamiento del modelo de HEC-RAS 1D</t>
@@ -319,9 +310,6 @@
     <t>Datos del modelo. Archivo de sedimentos</t>
   </si>
   <si>
-    <t>Generación del archivo de sedimentos del modelo. Consideraciones. Bed Change Options.</t>
-  </si>
-  <si>
     <t>Crear plan de transporte de sedimentos</t>
   </si>
   <si>
@@ -344,9 +332,6 @@
   </si>
   <si>
     <t>Definir un plan de transporte de sedimentos y ejecutarlo.</t>
-  </si>
-  <si>
-    <t>Cuantificación del potencial de transporte de sedimentos</t>
   </si>
   <si>
     <t>Estudio y transporte sólido requerido. Distribución de velocidades y perfil de concentraciones. Datos necesarios. Parámetros de interés.</t>
@@ -620,6 +605,24 @@
   </si>
   <si>
     <t>[Caudal sólido en suspensión](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_CaudalSuspension)</t>
+  </si>
+  <si>
+    <t>Generación del archivo de sedimentos del modelo. Initial conditions and transport parameters. Boundary conditions. Consideraciones. Bed Change Options.</t>
+  </si>
+  <si>
+    <t>Estructura del modelo</t>
+  </si>
+  <si>
+    <t>Ecuaciones: Einstein, Ackers and White, Engelund-Hansen, Laursen-Copeland, Toffaleti, MPM-Toffaleti y Yang</t>
+  </si>
+  <si>
+    <t>Estructura de los archivos para modelos de transporte de sedimentos de flujo quasi- no permanente y no permanente.</t>
+  </si>
+  <si>
+    <t>Actividad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Cuantificación del potencial de transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section02/2_PotencialTransporteSedimentos) </t>
   </si>
 </sst>
 </file>
@@ -1067,10 +1070,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -1121,10 +1124,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1144,10 +1147,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1167,10 +1170,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1190,10 +1193,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1213,10 +1216,10 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1236,10 +1239,10 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1259,10 +1262,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1282,10 +1285,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1305,10 +1308,10 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1328,10 +1331,10 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1351,10 +1354,10 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1374,10 +1377,10 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1397,10 +1400,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1420,10 +1423,10 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1443,10 +1446,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1466,10 +1469,10 @@
     </row>
     <row r="20" spans="2:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1489,10 +1492,10 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1512,10 +1515,10 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1535,10 +1538,10 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1558,10 +1561,10 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1581,10 +1584,10 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1604,10 +1607,10 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1627,10 +1630,10 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1650,10 +1653,10 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1673,10 +1676,10 @@
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1696,10 +1699,10 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1719,10 +1722,10 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -5107,8 +5110,2020 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B2:I103"/>
   <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.21875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="2.77734375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="74.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
+        <v>| Actividad | Alcance |</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
+        <v>| Actividad | Alcance | Tamaño |</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
+        <v>| Actividad | Alcance | Tamaño | Tamiz |</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|")</f>
+        <v>|---|---|</v>
+      </c>
+      <c r="H4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|")</f>
+        <v>|---|---|---|</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|",E4,"|")</f>
+        <v>|---|---|---|---|</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
+        <v>| Clasificación de ríos y cauces | Clasificación de los cauces y los patrones de cauce con base en los criterios de Schumm. |</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5:H68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
+        <v>| Clasificación de ríos y cauces | Clasificación de los cauces y los patrones de cauce con base en los criterios de Schumm. |  |</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
+        <v>| Clasificación de ríos y cauces | Clasificación de los cauces y los patrones de cauce con base en los criterios de Schumm. |  |  |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="60" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="str">
+        <f t="shared" ref="G6:G69" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
+        <v>| [Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| [Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |  |</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| [Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |  |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| [Potencia de la corriente](https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia) | Definición y usos. |</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| [Potencia de la corriente](https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia) | Definición y usos. |  |</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| [Potencia de la corriente](https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia) | Definición y usos. |  |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="60" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| [Movimiento incipiente](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_MovimientoIncipiente) | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. Ejemplo. |</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| [Movimiento incipiente](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_MovimientoIncipiente) | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. Ejemplo. |  |</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| [Movimiento incipiente](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_MovimientoIncipiente) | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. Ejemplo. |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| [Acorazamiento](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Acorazamiento) | Explicación del proceso de acorazamiento de un lecho. |</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| [Acorazamiento](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Acorazamiento) | Explicación del proceso de acorazamiento de un lecho. |  |</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| [Acorazamiento](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Acorazamiento) | Explicación del proceso de acorazamiento de un lecho. |  |  |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| [Caudal sólido en suspensión](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_CaudalSuspension) | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| [Caudal sólido en suspensión](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_CaudalSuspension) | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |  |</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| [Caudal sólido en suspensión](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_CaudalSuspension) | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="60" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| [Predicción sobre la respuesta general de un río al cambio](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Lane) | Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo. |</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| [Predicción sobre la respuesta general de un río al cambio](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Lane) | Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo. |  |</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| [Predicción sobre la respuesta general de un río al cambio](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Lane) | Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo. |  |  |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>| Ecuación de continuidad de sedimentos | Ecuación de Exner. |</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Ecuación de continuidad de sedimentos | Ecuación de Exner. |  |</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Ecuación de continuidad de sedimentos | Ecuación de Exner. |  |  |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I39" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I41" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I42" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I43" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I45" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I46" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I54" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I55" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I57" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I58" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I59" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I61" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I62" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I63" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I64" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I65" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H66" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I66" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I67" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I68" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H69" s="5" t="str">
+        <f t="shared" ref="H69:H103" si="3">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I69" s="5" t="str">
+        <f t="shared" ref="I69:I103" si="4">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," | ",E69," |")</f>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="5" t="str">
+        <f t="shared" ref="G70:G103" si="5">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="H70" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I70" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H71" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I71" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H72" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I72" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H73" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I73" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H74" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I74" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H75" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I75" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H76" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I76" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H77" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I77" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H78" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I78" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H79" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I79" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H80" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I80" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I81" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H82" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I82" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H83" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I83" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H84" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I84" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H85" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H86" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I86" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H87" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I87" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H88" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I88" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H89" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I89" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H90" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I90" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H91" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I91" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H92" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I92" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H93" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I93" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H94" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I94" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H95" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I95" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H96" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I96" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H97" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I97" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H98" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I98" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H99" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I99" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H100" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I100" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H101" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I101" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H102" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I102" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H103" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I103" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FC35F7-E1F5-4D93-9954-7369D1C39019}">
+  <sheetPr codeName="Hoja3"/>
+  <dimension ref="B2:I103"/>
+  <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -5143,10 +7158,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -5157,15 +7172,15 @@
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
-        <v>| Tema | Descripción |</v>
+        <v>| Actividad | Alcance |</v>
       </c>
       <c r="H3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
-        <v>| Tema | Descripción | Tamaño |</v>
+        <v>| Actividad | Alcance | Tamaño |</v>
       </c>
       <c r="I3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
-        <v>| Tema | Descripción | Tamaño | Tamiz |</v>
+        <v>| Actividad | Alcance | Tamaño | Tamiz |</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
@@ -5195,188 +7210,172 @@
         <v>|---|---|---|---|</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| Clasificación de ríos y cauces | Clasificación de los cauces y los patrones de cauce con base en los criterios de Schumm. |</v>
+        <v>| [Cuantificación del potencial de transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section02/2_PotencialTransporteSedimentos)  | Estudio y transporte sólido requerido. Distribución de velocidades y perfil de concentraciones. Datos necesarios. Parámetros de interés. |</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" ref="H5:H68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| Clasificación de ríos y cauces | Clasificación de los cauces y los patrones de cauce con base en los criterios de Schumm. |  |</v>
+        <v>| [Cuantificación del potencial de transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section02/2_PotencialTransporteSedimentos)  | Estudio y transporte sólido requerido. Distribución de velocidades y perfil de concentraciones. Datos necesarios. Parámetros de interés. |  |</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| Clasificación de ríos y cauces | Clasificación de los cauces y los patrones de cauce con base en los criterios de Schumm. |  |  |</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="60" x14ac:dyDescent="0.35">
+        <v>| [Cuantificación del potencial de transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section02/2_PotencialTransporteSedimentos)  | Estudio y transporte sólido requerido. Distribución de velocidades y perfil de concentraciones. Datos necesarios. Parámetros de interés. |  |  |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="str">
-        <f t="shared" ref="G6:G69" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| [Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |</v>
+        <f>_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
+        <v>| Transporte por arrastre | Ecuaciones: Shields, Meyer-Peter and Müller (MPM) y Wilcock and Crowe. Ejemplos |</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| [Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |  |</v>
+        <v>| Transporte por arrastre | Ecuaciones: Shields, Meyer-Peter and Müller (MPM) y Wilcock and Crowe. Ejemplos |  |</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| [Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |  |  |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+        <v>| Transporte por arrastre | Ecuaciones: Shields, Meyer-Peter and Müller (MPM) y Wilcock and Crowe. Ejemplos |  |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| [Potencia de la corriente](https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia) | Definición y usos. |</v>
+        <f t="shared" ref="G7" si="2">_xlfn.CONCAT("| ",B7," | ",C7," |")</f>
+        <v>| Transporte por suspensión | Ecuaciones: |</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| [Potencia de la corriente](https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia) | Definición y usos. |  |</v>
+        <v>| Transporte por suspensión | Ecuaciones: |  |</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| [Potencia de la corriente](https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia) | Definición y usos. |  |  |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="60" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>185</v>
+        <v>| Transporte por suspensión | Ecuaciones: |  |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="B8" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| [Movimiento incipiente](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_MovimientoIncipiente) | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. Ejemplo. |</v>
+        <f>_xlfn.CONCAT("| ",B8," | ",C8," |")</f>
+        <v>| Transporte total | Ecuaciones: Einstein, Ackers and White, Engelund-Hansen, Laursen-Copeland, Toffaleti, MPM-Toffaleti y Yang |</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| [Movimiento incipiente](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_MovimientoIncipiente) | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. Ejemplo. |  |</v>
+        <v>| Transporte total | Ecuaciones: Einstein, Ackers and White, Engelund-Hansen, Laursen-Copeland, Toffaleti, MPM-Toffaleti y Yang |  |</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| [Movimiento incipiente](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_MovimientoIncipiente) | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. Ejemplo. |  |  |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>71</v>
-      </c>
+        <v>| Transporte total | Ecuaciones: Einstein, Ackers and White, Engelund-Hansen, Laursen-Copeland, Toffaleti, MPM-Toffaleti y Yang |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| [Acorazamiento](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Acorazamiento) | Explicación del proceso de acorazamiento de un lecho. |</v>
+        <f t="shared" ref="G9:G69" si="3">_xlfn.CONCAT("| ",B9," | ",C9," |")</f>
+        <v>|  |  |</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| [Acorazamiento](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Acorazamiento) | Explicación del proceso de acorazamiento de un lecho. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| [Acorazamiento](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Acorazamiento) | Explicación del proceso de acorazamiento de un lecho. |  |  |</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>180</v>
-      </c>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| [Caudal sólido en suspensión](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_CaudalSuspension) | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |</v>
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| [Caudal sólido en suspensión](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_CaudalSuspension) | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| [Caudal sólido en suspensión](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_CaudalSuspension) | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |  |  |</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="60" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>178</v>
-      </c>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| [Predicción sobre la respuesta general de un río al cambio](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Lane) | Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo. |</v>
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| [Predicción sobre la respuesta general de un río al cambio](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Lane) | Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| [Predicción sobre la respuesta general de un río al cambio](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Lane) | Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo. |  |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>182</v>
-      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| Ecuación de continuidad de sedimentos | Ecuación de Exner. |</v>
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Ecuación de continuidad de sedimentos | Ecuación de Exner. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Ecuación de continuidad de sedimentos | Ecuación de Exner. |  |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
@@ -5386,7 +7385,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H13" s="5" t="str">
@@ -5405,7 +7404,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H14" s="5" t="str">
@@ -5424,7 +7423,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H15" s="5" t="str">
@@ -5443,7 +7442,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H16" s="5" t="str">
@@ -5462,7 +7461,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H17" s="5" t="str">
@@ -5481,7 +7480,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H18" s="5" t="str">
@@ -5500,7 +7499,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H19" s="5" t="str">
@@ -5519,7 +7518,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H20" s="5" t="str">
@@ -5538,7 +7537,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H21" s="5" t="str">
@@ -5557,7 +7556,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H22" s="5" t="str">
@@ -5576,7 +7575,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H23" s="5" t="str">
@@ -5595,7 +7594,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H24" s="5" t="str">
@@ -5614,7 +7613,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H25" s="5" t="str">
@@ -5633,7 +7632,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H26" s="5" t="str">
@@ -5652,7 +7651,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H27" s="5" t="str">
@@ -5671,7 +7670,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H28" s="5" t="str">
@@ -5690,7 +7689,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H29" s="5" t="str">
@@ -5709,7 +7708,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H30" s="5" t="str">
@@ -5728,7 +7727,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H31" s="5" t="str">
@@ -5747,7 +7746,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H32" s="5" t="str">
@@ -5766,7 +7765,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H33" s="5" t="str">
@@ -5785,7 +7784,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H34" s="5" t="str">
@@ -5804,7 +7803,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H35" s="5" t="str">
@@ -5823,7 +7822,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H36" s="5" t="str">
@@ -5842,7 +7841,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H37" s="5" t="str">
@@ -5861,7 +7860,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H38" s="5" t="str">
@@ -5880,7 +7879,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H39" s="5" t="str">
@@ -5899,7 +7898,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H40" s="5" t="str">
@@ -5918,7 +7917,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H41" s="5" t="str">
@@ -5937,7 +7936,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H42" s="5" t="str">
@@ -5956,7 +7955,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H43" s="5" t="str">
@@ -5975,7 +7974,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H44" s="5" t="str">
@@ -5994,7 +7993,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H45" s="5" t="str">
@@ -6013,7 +8012,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H46" s="5" t="str">
@@ -6032,7 +8031,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H47" s="5" t="str">
@@ -6051,7 +8050,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H48" s="5" t="str">
@@ -6070,7 +8069,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H49" s="5" t="str">
@@ -6089,7 +8088,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H50" s="5" t="str">
@@ -6108,7 +8107,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H51" s="5" t="str">
@@ -6127,7 +8126,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H52" s="5" t="str">
@@ -6146,7 +8145,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H53" s="5" t="str">
@@ -6165,7 +8164,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H54" s="5" t="str">
@@ -6184,7 +8183,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H55" s="5" t="str">
@@ -6203,7 +8202,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H56" s="5" t="str">
@@ -6222,7 +8221,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H57" s="5" t="str">
@@ -6241,7 +8240,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H58" s="5" t="str">
@@ -6260,7 +8259,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H59" s="5" t="str">
@@ -6279,7 +8278,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H60" s="5" t="str">
@@ -6298,7 +8297,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H61" s="5" t="str">
@@ -6317,7 +8316,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H62" s="5" t="str">
@@ -6336,7 +8335,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H63" s="5" t="str">
@@ -6355,7 +8354,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H64" s="5" t="str">
@@ -6374,7 +8373,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H65" s="5" t="str">
@@ -6393,7 +8392,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H66" s="5" t="str">
@@ -6412,7 +8411,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H67" s="5" t="str">
@@ -6431,7 +8430,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H68" s="5" t="str">
@@ -6450,15 +8449,15 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="H69" s="5" t="str">
-        <f t="shared" ref="H69:H103" si="3">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
+        <f t="shared" ref="H69:H103" si="4">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
         <v>|  |  |  |</v>
       </c>
       <c r="I69" s="5" t="str">
-        <f t="shared" ref="I69:I103" si="4">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," | ",E69," |")</f>
+        <f t="shared" ref="I69:I103" si="5">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," | ",E69," |")</f>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6469,15 +8468,15 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="5" t="str">
-        <f t="shared" ref="G70:G103" si="5">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
+        <f t="shared" ref="G70:G103" si="6">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
         <v>|  |  |</v>
       </c>
       <c r="H70" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I70" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6488,15 +8487,15 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H71" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I71" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6507,15 +8506,15 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H72" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I72" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6526,15 +8525,15 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H73" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I73" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6545,15 +8544,15 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H74" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I74" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6564,15 +8563,15 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H75" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I75" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6583,15 +8582,15 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H76" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I76" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6602,15 +8601,15 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H77" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I77" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6621,15 +8620,15 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H78" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I78" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6640,15 +8639,15 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H79" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I79" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6659,15 +8658,15 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H80" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I80" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6678,15 +8677,15 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H81" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I81" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6697,15 +8696,15 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H82" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I82" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6716,15 +8715,15 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H83" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I83" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6735,15 +8734,15 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H84" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I84" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6754,15 +8753,15 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H85" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I85" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6773,15 +8772,15 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H86" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I86" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6792,15 +8791,15 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H87" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I87" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6811,15 +8810,15 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H88" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I88" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6830,15 +8829,15 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H89" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I89" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6849,15 +8848,15 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H90" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I90" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6868,15 +8867,15 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H91" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I91" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6887,15 +8886,15 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H92" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I92" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6906,15 +8905,15 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H93" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I93" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6925,15 +8924,15 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H94" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I94" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6944,15 +8943,15 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H95" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I95" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6963,15 +8962,15 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H96" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I96" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -6982,15 +8981,15 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H97" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I97" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -7001,15 +9000,15 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H98" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I98" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -7020,15 +9019,15 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H99" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I99" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -7039,15 +9038,15 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H100" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I100" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -7058,15 +9057,15 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H101" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I101" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -7077,15 +9076,15 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H102" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I102" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -7096,15 +9095,15 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="H103" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I103" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -7114,14 +9113,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FC35F7-E1F5-4D93-9954-7369D1C39019}">
-  <sheetPr codeName="Hoja3"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8E123B-9080-4571-AD06-DEDC363A6AEB}">
+  <sheetPr codeName="Hoja6"/>
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -7155,10 +9154,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -7169,15 +9168,15 @@
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
-        <v>| Tema | Descripción |</v>
+        <v>| Actividad | Alcance |</v>
       </c>
       <c r="H3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
-        <v>| Tema | Descripción | Tamaño |</v>
+        <v>| Actividad | Alcance | Tamaño |</v>
       </c>
       <c r="I3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
-        <v>| Tema | Descripción | Tamaño | Tamiz |</v>
+        <v>| Actividad | Alcance | Tamaño | Tamiz |</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
@@ -7207,172 +9206,188 @@
         <v>|---|---|---|---|</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| Cuantificación del potencial de transporte de sedimentos | Estudio y transporte sólido requerido. Distribución de velocidades y perfil de concentraciones. Datos necesarios. Parámetros de interés. |</v>
+        <v>| Funcionamiento del modelo de HEC-RAS 1D | Explicación de las ecuaciones básicas que utiliza HEC-RAS para realizar el cálculo del transporte de sedimentos. |</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" ref="H5:H68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| Cuantificación del potencial de transporte de sedimentos | Estudio y transporte sólido requerido. Distribución de velocidades y perfil de concentraciones. Datos necesarios. Parámetros de interés. |  |</v>
+        <v>| Funcionamiento del modelo de HEC-RAS 1D | Explicación de las ecuaciones básicas que utiliza HEC-RAS para realizar el cálculo del transporte de sedimentos. |  |</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| Cuantificación del potencial de transporte de sedimentos | Estudio y transporte sólido requerido. Distribución de velocidades y perfil de concentraciones. Datos necesarios. Parámetros de interés. |  |  |</v>
+        <v>| Funcionamiento del modelo de HEC-RAS 1D | Explicación de las ecuaciones básicas que utiliza HEC-RAS para realizar el cálculo del transporte de sedimentos. |  |  |</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| Transporte por arrastre | Ecuaciones: Shields, Meyer-Peter and Müller (MPM) y Wilcock and Crowe. Ejemplos |</v>
+        <f t="shared" ref="G6:G11" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
+        <v>| Estructura del modelo | Estructura de los archivos para modelos de transporte de sedimentos de flujo quasi- no permanente y no permanente. |</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Transporte por arrastre | Ecuaciones: Shields, Meyer-Peter and Müller (MPM) y Wilcock and Crowe. Ejemplos |  |</v>
+        <v>| Estructura del modelo | Estructura de los archivos para modelos de transporte de sedimentos de flujo quasi- no permanente y no permanente. |  |</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Transporte por arrastre | Ecuaciones: Shields, Meyer-Peter and Müller (MPM) y Wilcock and Crowe. Ejemplos |  |  |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+        <v>| Estructura del modelo | Estructura de los archivos para modelos de transporte de sedimentos de flujo quasi- no permanente y no permanente. |  |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="str">
-        <f t="shared" ref="G7" si="2">_xlfn.CONCAT("| ",B7," | ",C7," |")</f>
-        <v>| Transporte por suspensión | Ecuaciones: |</v>
+        <f t="shared" si="2"/>
+        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Transporte por suspensión | Ecuaciones: |  |</v>
+        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |  |</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Transporte por suspensión | Ecuaciones: |  |  |</v>
+        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |  |  |</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B8" s="9" t="s">
-        <v>75</v>
+      <c r="B8" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B8," | ",C8," |")</f>
-        <v>| Transporte total | Ecuaciones: Ackers and White, Engelund-Hansen, Laursen-Copeland, Toffaleti, MPM-Toffaleti y Yang |</v>
+        <f t="shared" si="2"/>
+        <v>| Datos del modelo. Archivo de geometría | Generación del archivo de geometría del modelo. |</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Transporte total | Ecuaciones: Ackers and White, Engelund-Hansen, Laursen-Copeland, Toffaleti, MPM-Toffaleti y Yang |  |</v>
+        <v>| Datos del modelo. Archivo de geometría | Generación del archivo de geometría del modelo. |  |</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Transporte total | Ecuaciones: Ackers and White, Engelund-Hansen, Laursen-Copeland, Toffaleti, MPM-Toffaleti y Yang |  |  |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+        <v>| Datos del modelo. Archivo de geometría | Generación del archivo de geometría del modelo. |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="str">
-        <f t="shared" ref="G9:G69" si="3">_xlfn.CONCAT("| ",B9," | ",C9," |")</f>
-        <v>|  |  |</v>
+        <f t="shared" si="2"/>
+        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo. Diferencias entre modelación con flujo "quasi-unsteady" y flujo "unsteady". Computational increment. |</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo. Diferencias entre modelación con flujo "quasi-unsteady" y flujo "unsteady". Computational increment. |  |</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo. Diferencias entre modelación con flujo "quasi-unsteady" y flujo "unsteady". Computational increment. |  |  |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
+        <f t="shared" si="2"/>
+        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. Initial conditions and transport parameters. Boundary conditions. Consideraciones. Bed Change Options. |</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. Initial conditions and transport parameters. Boundary conditions. Consideraciones. Bed Change Options. |  |</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. Initial conditions and transport parameters. Boundary conditions. Consideraciones. Bed Change Options. |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
+        <f t="shared" si="2"/>
+        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. Opciones de cálculo. Sediment Output Options. |</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. Opciones de cálculo. Sediment Output Options. |  |</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. Opciones de cálculo. Sediment Output Options. |  |  |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
+        <f t="shared" ref="G12:G69" si="3">_xlfn.CONCAT("| ",B12," | ",C12," |")</f>
+        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |  |</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
+        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |  |  |</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
@@ -9110,14 +11125,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8E123B-9080-4571-AD06-DEDC363A6AEB}">
-  <sheetPr codeName="Hoja6"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17435F5A-6FF6-46D8-82B3-65E349CBB224}">
+  <sheetPr codeName="Hoja7"/>
   <dimension ref="B2:I103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -9151,10 +11166,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -9165,15 +11180,15 @@
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
-        <v>| Tema | Descripción |</v>
+        <v>| Actividad | Alcance |</v>
       </c>
       <c r="H3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
-        <v>| Tema | Descripción | Tamaño |</v>
+        <v>| Actividad | Alcance | Tamaño |</v>
       </c>
       <c r="I3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
-        <v>| Tema | Descripción | Tamaño | Tamiz |</v>
+        <v>| Actividad | Alcance | Tamaño | Tamiz |</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
@@ -9203,2020 +11218,12 @@
         <v>|---|---|---|---|</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| Funcionamiento del modelo de HEC-RAS 1D | Explicación de las ecuaciones básicas que utiliza HEC-RAS para realizar el cálculo del transporte de sedimentos. |</v>
-      </c>
-      <c r="H5" s="5" t="str">
-        <f t="shared" ref="H5:H68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| Funcionamiento del modelo de HEC-RAS 1D | Explicación de las ecuaciones básicas que utiliza HEC-RAS para realizar el cálculo del transporte de sedimentos. |  |</v>
-      </c>
-      <c r="I5" s="5" t="str">
-        <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| Funcionamiento del modelo de HEC-RAS 1D | Explicación de las ecuaciones básicas que utiliza HEC-RAS para realizar el cálculo del transporte de sedimentos. |  |  |</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B6" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="str">
-        <f t="shared" ref="G6:G11" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |</v>
-      </c>
-      <c r="H6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |  |</v>
-      </c>
-      <c r="I6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |  |  |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| Datos del modelo. Archivo de geometría | Generación del archivo de geometría del modelo. |</v>
-      </c>
-      <c r="H7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Datos del modelo. Archivo de geometría | Generación del archivo de geometría del modelo. |  |</v>
-      </c>
-      <c r="I7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| Datos del modelo. Archivo de geometría | Generación del archivo de geometría del modelo. |  |  |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo. Diferencias entre modelación con flujo "quasi-unsteady" y flujo "unsteady". Computational increment. |</v>
-      </c>
-      <c r="H8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo. Diferencias entre modelación con flujo "quasi-unsteady" y flujo "unsteady". Computational increment. |  |</v>
-      </c>
-      <c r="I8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo. Diferencias entre modelación con flujo "quasi-unsteady" y flujo "unsteady". Computational increment. |  |  |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. Consideraciones. Bed Change Options. |</v>
-      </c>
-      <c r="H9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. Consideraciones. Bed Change Options. |  |</v>
-      </c>
-      <c r="I9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. Consideraciones. Bed Change Options. |  |  |</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. Opciones de cálculo. Sediment Output Options. |</v>
-      </c>
-      <c r="H10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. Opciones de cálculo. Sediment Output Options. |  |</v>
-      </c>
-      <c r="I10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. Opciones de cálculo. Sediment Output Options. |  |  |</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |</v>
-      </c>
-      <c r="H11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |  |</v>
-      </c>
-      <c r="I11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |  |  |</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="str">
-        <f t="shared" ref="G12:G69" si="3">_xlfn.CONCAT("| ",B12," | ",C12," |")</f>
-        <v>|  |  |</v>
-      </c>
-      <c r="H12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I28" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H29" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I29" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H30" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I30" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H31" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I31" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H32" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I32" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H33" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I33" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H34" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I34" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H35" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I35" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H36" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I36" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H37" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H38" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I38" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H39" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I39" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H40" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I40" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H41" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I41" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H42" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I42" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H43" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I43" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H44" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I44" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H45" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I45" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H46" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I46" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H47" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I47" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H48" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I48" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H49" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I49" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H50" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I50" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H51" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I51" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H52" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I52" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H53" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I53" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H54" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I54" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H55" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I55" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H56" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I56" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H57" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I57" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H58" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I58" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H59" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I59" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H60" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I60" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H61" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I61" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H62" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I62" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H63" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I63" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H64" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I64" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H65" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I65" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H66" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I66" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H67" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I67" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H68" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I68" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H69" s="5" t="str">
-        <f t="shared" ref="H69:H103" si="4">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I69" s="5" t="str">
-        <f t="shared" ref="I69:I103" si="5">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," | ",E69," |")</f>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="5" t="str">
-        <f t="shared" ref="G70:G103" si="6">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
-        <v>|  |  |</v>
-      </c>
-      <c r="H70" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I70" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H71" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I71" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H72" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I72" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H73" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I73" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H74" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I74" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H75" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I75" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H76" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I76" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H77" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I77" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H78" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I78" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H79" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I79" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H80" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I80" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H81" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I81" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H82" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I82" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H83" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I83" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H84" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I84" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H85" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I85" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H86" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I86" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H87" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I87" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H88" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I88" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H89" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I89" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H90" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I90" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H91" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I91" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H92" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I92" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H93" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I93" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H94" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I94" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H95" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I95" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H96" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I96" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H97" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I97" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H98" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I98" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H99" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I99" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H100" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I100" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H101" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I101" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H102" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I102" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H103" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I103" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17435F5A-6FF6-46D8-82B3-65E349CBB224}">
-  <sheetPr codeName="Hoja7"/>
-  <dimension ref="B2:I103"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5:G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.21875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="2.77734375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="74.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
-        <v>| Tema | Descripción |</v>
-      </c>
-      <c r="H3" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
-        <v>| Tema | Descripción | Tamaño |</v>
-      </c>
-      <c r="I3" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
-        <v>| Tema | Descripción | Tamaño | Tamiz |</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="str">
-        <f>_xlfn.CONCAT("|",B4,"|",C4,"|")</f>
-        <v>|---|---|</v>
-      </c>
-      <c r="H4" s="8" t="str">
-        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|")</f>
-        <v>|---|---|---|</v>
-      </c>
-      <c r="I4" s="8" t="str">
-        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|",E4,"|")</f>
-        <v>|---|---|---|---|</v>
-      </c>
-    </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -11236,10 +11243,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -11259,10 +11266,10 @@
     </row>
     <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -11282,10 +11289,10 @@
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -11305,10 +11312,10 @@
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -11328,10 +11335,10 @@
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -15262,10 +15269,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -15316,10 +15323,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -15339,10 +15346,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -15362,10 +15369,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -15385,10 +15392,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -15408,10 +15415,10 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -15431,10 +15438,10 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -15454,10 +15461,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -15477,10 +15484,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -15500,10 +15507,10 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -15523,10 +15530,10 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -15546,10 +15553,10 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -15569,10 +15576,10 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -15592,10 +15599,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -15615,10 +15622,10 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -15638,10 +15645,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>

--- a/ExcelTableToMarkDownSample.xlsx
+++ b/ExcelTableToMarkDownSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1DCBE2-825B-445B-99EC-FD4D20B23245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866E990F-6AE7-4DAB-83DE-CBCE40F7D353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Abreviaturas" sheetId="9" r:id="rId1"/>
@@ -20,18 +20,20 @@
     <sheet name="0_Section03" sheetId="6" r:id="rId5"/>
     <sheet name="0_Section04" sheetId="7" r:id="rId6"/>
     <sheet name="1_TransporteSedimentos" sheetId="3" r:id="rId7"/>
-    <sheet name="2_PotencialTransporte" sheetId="8" r:id="rId8"/>
-    <sheet name="RefsFile" sheetId="2" r:id="rId9"/>
+    <sheet name="1_ClasificacionRios" sheetId="10" r:id="rId8"/>
+    <sheet name="2_PotencialTransporte" sheetId="8" r:id="rId9"/>
+    <sheet name="RefsFile" sheetId="2" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc107986980" localSheetId="2">'0_Section01'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="3">'0_Section02'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="4">'0_Section03'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="5">'0_Section04'!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="7">'1_ClasificacionRios'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="6">'1_TransporteSedimentos'!$B$9</definedName>
-    <definedName name="_Toc107986980" localSheetId="7">'2_PotencialTransporte'!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="8">'2_PotencialTransporte'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="0">Abreviaturas!$B$9</definedName>
-    <definedName name="_Toc107986980" localSheetId="8">RefsFile!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="9">RefsFile!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="1">Sample!$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="208">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -251,12 +253,6 @@
   </si>
   <si>
     <t>1/1024 mm - 1/2048 mm</t>
-  </si>
-  <si>
-    <t>Clasificación de ríos y cauces</t>
-  </si>
-  <si>
-    <t>Clasificación de los cauces y los patrones de cauce con base en los criterios de Schumm.</t>
   </si>
   <si>
     <t>Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos.</t>
@@ -624,6 +620,66 @@
   <si>
     <t xml:space="preserve">[Cuantificación del potencial de transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section02/2_PotencialTransporteSedimentos) </t>
   </si>
+  <si>
+    <t>Modo de transporte de sedimentos</t>
+  </si>
+  <si>
+    <t>M%</t>
+  </si>
+  <si>
+    <t>Estable</t>
+  </si>
+  <si>
+    <t>En sedimentación (exceso de sedimentos)</t>
+  </si>
+  <si>
+    <t>En erosión (déficit de sedimentos)</t>
+  </si>
+  <si>
+    <t>Carga suspendida: carga del 85-100%</t>
+  </si>
+  <si>
+    <t>Carga mixta: carga suspendida del 65-85%, carga por arrastre del 15-35%</t>
+  </si>
+  <si>
+    <t>Carga por arrastre: carga del 35-70%</t>
+  </si>
+  <si>
+    <t>Relación ancho/profundidad &lt;7; Sinuosidad &gt;2.1; Pendiente: relativamente baja</t>
+  </si>
+  <si>
+    <t>Relación ancho/profundidad 7-25; Sinuosidad 1.5-2.1; Pendiente: moderada</t>
+  </si>
+  <si>
+    <t>Relación ancho/profundidad &gt;25; Sinuosidad &lt;1.5; Pendiente: relativamente alta</t>
+  </si>
+  <si>
+    <t>Al comienzo hay mayor sedimentación en las márgenes y luego se presenta sedimentación en el lecho.</t>
+  </si>
+  <si>
+    <t>Sedimentación en el lecho y formación de islas.</t>
+  </si>
+  <si>
+    <t>La mayor sedimentación ocurre en las márgenes, que causa el estrachamiento del cauce. La sedimentación en el lecho es poca.</t>
+  </si>
+  <si>
+    <t>Predomina la erosión del fondo del lecho. Poco ensanchamiento del cauce.</t>
+  </si>
+  <si>
+    <t>Comienza por erosión del fondo del lecho, seguido por ampliación del cauce.</t>
+  </si>
+  <si>
+    <t>Poca erosión del fondo, predomina el ensanchamiento del cauce.</t>
+  </si>
+  <si>
+    <t>Texto para cinco columnas</t>
+  </si>
+  <si>
+    <t>[Clasificación de ríos y cauces](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_ClasificacionRios)</t>
+  </si>
+  <si>
+    <t>Patrones de cauces. Clasificación de los cauces aluviales con base en los criterios de Schumm.</t>
+  </si>
 </sst>
 </file>
 
@@ -689,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -716,6 +772,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1070,10 +1135,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -1124,10 +1189,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1147,10 +1212,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1170,10 +1235,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1193,10 +1258,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1216,10 +1281,10 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1239,10 +1304,10 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1262,10 +1327,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1285,10 +1350,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1308,10 +1373,10 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1331,10 +1396,10 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1354,10 +1419,10 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1377,10 +1442,10 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1400,10 +1465,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1423,10 +1488,10 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1446,10 +1511,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1469,10 +1534,10 @@
     </row>
     <row r="20" spans="2:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1492,10 +1557,10 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1515,10 +1580,10 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1538,10 +1603,10 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1561,10 +1626,10 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1584,10 +1649,10 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1607,10 +1672,10 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1630,10 +1695,10 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1653,10 +1718,10 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1676,10 +1741,10 @@
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1699,10 +1764,10 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1722,10 +1787,10 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3108,6 +3173,1998 @@
       </c>
       <c r="I103" s="5" t="str">
         <f t="shared" si="7"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB6E6C-1D05-499A-989F-C261220A1AD3}">
+  <sheetPr codeName="Hoja5"/>
+  <dimension ref="B2:I103"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.77734375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="74.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
+        <v>| Tipo de suelo | Nombre |</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
+        <v>| Tipo de suelo | Nombre | Tamaño |</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
+        <v>| Tipo de suelo | Nombre | Tamaño | Tamiz |</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|")</f>
+        <v>|---|---|</v>
+      </c>
+      <c r="H4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|")</f>
+        <v>|---|---|---|</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|",E4,"|")</f>
+        <v>|---|---|---|---|</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
+        <v>| SUELOS GRANULARES | CANTO RODADO |</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5:H68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
+        <v>| SUELOS GRANULARES | CANTO RODADO |  |</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
+        <v>| SUELOS GRANULARES | CANTO RODADO |  |  |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="9"/>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="str">
+        <f t="shared" ref="G6:G69" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
+        <v>|  | Muy grande |</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  | Muy grande | 4 m - 2 m |</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  | Muy grande | 4 m - 2 m |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="9"/>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  | Grande |</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  | Grande | 2 m - 1 m |</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  | Grande | 2 m - 1 m |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I39" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I41" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I42" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I43" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I45" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I46" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I54" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I55" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I57" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I58" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I59" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I61" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I62" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I63" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I64" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I65" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H66" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I66" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I67" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I68" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H69" s="5" t="str">
+        <f t="shared" ref="H69:H103" si="3">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I69" s="5" t="str">
+        <f t="shared" ref="I69:I103" si="4">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," | ",E69," |")</f>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="5" t="str">
+        <f t="shared" ref="G70:G103" si="5">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="H70" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I70" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H71" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I71" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H72" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I72" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H73" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I73" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H74" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I74" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H75" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I75" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H76" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I76" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H77" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I77" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H78" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I78" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H79" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I79" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H80" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I80" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I81" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H82" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I82" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H83" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I83" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H84" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I84" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H85" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H86" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I86" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H87" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I87" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H88" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I88" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H89" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I89" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H90" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I90" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H91" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I91" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H92" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I92" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H93" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I93" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H94" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I94" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H95" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I95" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H96" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I96" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H97" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I97" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H98" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I98" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H99" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I99" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H100" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I100" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H101" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I101" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H102" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I102" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H103" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I103" s="5" t="str">
+        <f t="shared" si="4"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -5110,9 +7167,9 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -5146,7 +7203,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -5198,58 +7255,58 @@
         <v>|---|---|---|---|</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| Clasificación de ríos y cauces | Clasificación de los cauces y los patrones de cauce con base en los criterios de Schumm. |</v>
+        <v>| [Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" ref="H5:H68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| Clasificación de ríos y cauces | Clasificación de los cauces y los patrones de cauce con base en los criterios de Schumm. |  |</v>
+        <v>| [Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |  |</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| Clasificación de ríos y cauces | Clasificación de los cauces y los patrones de cauce con base en los criterios de Schumm. |  |  |</v>
+        <v>| [Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |  |  |</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="60" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>68</v>
+        <v>207</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="str">
         <f t="shared" ref="G6:G69" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| [Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |</v>
+        <v>| [Clasificación de ríos y cauces](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_ClasificacionRios) | Patrones de cauces. Clasificación de los cauces aluviales con base en los criterios de Schumm. |</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| [Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |  |</v>
+        <v>| [Clasificación de ríos y cauces](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_ClasificacionRios) | Patrones de cauces. Clasificación de los cauces aluviales con base en los criterios de Schumm. |  |</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| [Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |  |  |</v>
+        <v>| [Clasificación de ríos y cauces](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_ClasificacionRios) | Patrones de cauces. Clasificación de los cauces aluviales con base en los criterios de Schumm. |  |  |</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -5269,10 +7326,10 @@
     </row>
     <row r="8" spans="2:9" ht="60" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -5292,10 +7349,10 @@
     </row>
     <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -5315,10 +7372,10 @@
     </row>
     <row r="10" spans="2:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -5338,10 +7395,10 @@
     </row>
     <row r="11" spans="2:9" ht="60" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -5361,10 +7418,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -7122,9 +9179,9 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -7158,7 +9215,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -7210,12 +9267,12 @@
         <v>|---|---|---|---|</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="60" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -7235,10 +9292,10 @@
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -7258,10 +9315,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -7281,10 +9338,10 @@
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -9154,7 +11211,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -9208,10 +11265,10 @@
     </row>
     <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -9231,10 +11288,10 @@
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -9254,10 +11311,10 @@
     </row>
     <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -9277,10 +11334,10 @@
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -9300,10 +11357,10 @@
     </row>
     <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -9323,10 +11380,10 @@
     </row>
     <row r="10" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -9346,10 +11403,10 @@
     </row>
     <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -9369,10 +11426,10 @@
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -11166,7 +13223,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -11220,10 +13277,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -11243,10 +13300,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -11266,10 +13323,10 @@
     </row>
     <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -11289,10 +13346,10 @@
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -11312,10 +13369,10 @@
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -11335,10 +13392,10 @@
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -15230,6 +17287,2120 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5FD415-DECC-4BCA-94FF-CF6B14FADCE6}">
+  <dimension ref="B2:J103"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="6" width="26.21875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="74.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="74.109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="30" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
+        <v>| Modo de transporte de sedimentos | M% |</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
+        <v>| Modo de transporte de sedimentos | M% | Estable |</v>
+      </c>
+      <c r="J3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," |")</f>
+        <v>| Modo de transporte de sedimentos | M% | Estable | En sedimentación (exceso de sedimentos) | En erosión (déficit de sedimentos) |</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|")</f>
+        <v>|---|---|</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|")</f>
+        <v>|---|---|---|</v>
+      </c>
+      <c r="J4" s="11" t="str">
+        <f>_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," |")</f>
+        <v>| --- | --- | --- | --- | --- |</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="75" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
+        <v>| Carga suspendida: carga del 85-100% | 100 |</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
+        <v>| Carga suspendida: carga del 85-100% | 100 | Relación ancho/profundidad &lt;7; Sinuosidad &gt;2.1; Pendiente: relativamente baja |</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," | ",F5," |")</f>
+        <v>| Carga suspendida: carga del 85-100% | 100 | Relación ancho/profundidad &lt;7; Sinuosidad &gt;2.1; Pendiente: relativamente baja | La mayor sedimentación ocurre en las márgenes, que causa el estrachamiento del cauce. La sedimentación en el lecho es poca. | Predomina la erosión del fondo del lecho. Poco ensanchamiento del cauce. |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="60" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="5">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
+        <v>| Carga mixta: carga suspendida del 65-85%, carga por arrastre del 15-35% | 30 |</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," |")</f>
+        <v>| Carga mixta: carga suspendida del 65-85%, carga por arrastre del 15-35% | 30 | Relación ancho/profundidad 7-25; Sinuosidad 1.5-2.1; Pendiente: moderada |</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f t="shared" ref="J6:J69" si="0">_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," | ",E6," | ",F6," |")</f>
+        <v>| Carga mixta: carga suspendida del 65-85%, carga por arrastre del 15-35% | 30 | Relación ancho/profundidad 7-25; Sinuosidad 1.5-2.1; Pendiente: moderada | Al comienzo hay mayor sedimentación en las márgenes y luego se presenta sedimentación en el lecho. | Comienza por erosión del fondo del lecho, seguido por ampliación del cauce. |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="45" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B7," | ",C7," |")</f>
+        <v>| Carga por arrastre: carga del 35-70% | 0 |</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B7," | ",C7," | ",D7," |")</f>
+        <v>| Carga por arrastre: carga del 35-70% | 0 | Relación ancho/profundidad &gt;25; Sinuosidad &lt;1.5; Pendiente: relativamente alta |</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Carga por arrastre: carga del 35-70% | 0 | Relación ancho/profundidad &gt;25; Sinuosidad &lt;1.5; Pendiente: relativamente alta | Sedimentación en el lecho y formación de islas. | Poca erosión del fondo, predomina el ensanchamiento del cauce. |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B8," | ",C8," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B8," | ",C8," | ",D8," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B9," | ",C9," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B9," | ",C9," | ",D9," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B10," | ",C10," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B10," | ",C10," | ",D10," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B11," | ",C11," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B11," | ",C11," | ",D11," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B12," | ",C12," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B12," | ",C12," | ",D12," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B13," | ",C13," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B13," | ",C13," | ",D13," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B14," | ",C14," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B14," | ",C14," | ",D14," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B15," | ",C15," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B15," | ",C15," | ",D15," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B16," | ",C16," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B16," | ",C16," | ",D16," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B17," | ",C17," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B17," | ",C17," | ",D17," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B18," | ",C18," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B18," | ",C18," | ",D18," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B19," | ",C19," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B19," | ",C19," | ",D19," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B20," | ",C20," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B20," | ",C20," | ",D20," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B21," | ",C21," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B21," | ",C21," | ",D21," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B22," | ",C22," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B22," | ",C22," | ",D22," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B23," | ",C23," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B23," | ",C23," | ",D23," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B24," | ",C24," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B24," | ",C24," | ",D24," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B25," | ",C25," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B25," | ",C25," | ",D25," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B26," | ",C26," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B26," | ",C26," | ",D26," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B27," | ",C27," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B27," | ",C27," | ",D27," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B28," | ",C28," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B28," | ",C28," | ",D28," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B29," | ",C29," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B29," | ",C29," | ",D29," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B30," | ",C30," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B30," | ",C30," | ",D30," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B31," | ",C31," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B31," | ",C31," | ",D31," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B32," | ",C32," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B32," | ",C32," | ",D32," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B33," | ",C33," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B33," | ",C33," | ",D33," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B34," | ",C34," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B34," | ",C34," | ",D34," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B35," | ",C35," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B35," | ",C35," | ",D35," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B36," | ",C36," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B36," | ",C36," | ",D36," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B37," | ",C37," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B37," | ",C37," | ",D37," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B38," | ",C38," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I38" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B38," | ",C38," | ",D38," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B39," | ",C39," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I39" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B39," | ",C39," | ",D39," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B40," | ",C40," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I40" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B40," | ",C40," | ",D40," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B41," | ",C41," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I41" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B41," | ",C41," | ",D41," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B42," | ",C42," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I42" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B42," | ",C42," | ",D42," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B43," | ",C43," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I43" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B43," | ",C43," | ",D43," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B44," | ",C44," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I44" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B44," | ",C44," | ",D44," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B45," | ",C45," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I45" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B45," | ",C45," | ",D45," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B46," | ",C46," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I46" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B46," | ",C46," | ",D46," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B47," | ",C47," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I47" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B47," | ",C47," | ",D47," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B48," | ",C48," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I48" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B48," | ",C48," | ",D48," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B49," | ",C49," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I49" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B49," | ",C49," | ",D49," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B50," | ",C50," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I50" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B50," | ",C50," | ",D50," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B51," | ",C51," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I51" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B51," | ",C51," | ",D51," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B52," | ",C52," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I52" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B52," | ",C52," | ",D52," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B53," | ",C53," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I53" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B53," | ",C53," | ",D53," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B54," | ",C54," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I54" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B54," | ",C54," | ",D54," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B55," | ",C55," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I55" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B55," | ",C55," | ",D55," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B56," | ",C56," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I56" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B56," | ",C56," | ",D56," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B57," | ",C57," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I57" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B57," | ",C57," | ",D57," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B58," | ",C58," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I58" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B58," | ",C58," | ",D58," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B59," | ",C59," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I59" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B59," | ",C59," | ",D59," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B60," | ",C60," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I60" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B60," | ",C60," | ",D60," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B61," | ",C61," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I61" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B61," | ",C61," | ",D61," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B62," | ",C62," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I62" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B62," | ",C62," | ",D62," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B63," | ",C63," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I63" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B63," | ",C63," | ",D63," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B64," | ",C64," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I64" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B64," | ",C64," | ",D64," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B65," | ",C65," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I65" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B65," | ",C65," | ",D65," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B66," | ",C66," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I66" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B66," | ",C66," | ",D66," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J66" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B67," | ",C67," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I67" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B67," | ",C67," | ",D67," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J67" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B68," | ",C68," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I68" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B68," | ",C68," | ",D68," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J68" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B69," | ",C69," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I69" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J69" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="5" t="str">
+        <f t="shared" ref="H70:H103" si="1">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="I70" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B70," | ",C70," | ",D70," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J70" s="5" t="str">
+        <f t="shared" ref="J70:J103" si="2">_xlfn.CONCAT("| ",B70," | ",C70," | ",D70," | ",E70," | ",F70," |")</f>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I71" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B71," | ",C71," | ",D71," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J71" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I72" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B72," | ",C72," | ",D72," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J72" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I73" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B73," | ",C73," | ",D73," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J73" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I74" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B74," | ",C74," | ",D74," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J74" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I75" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B75," | ",C75," | ",D75," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J75" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I76" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B76," | ",C76," | ",D76," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J76" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I77" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B77," | ",C77," | ",D77," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J77" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I78" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B78," | ",C78," | ",D78," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J78" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I79" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B79," | ",C79," | ",D79," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J79" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I80" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B80," | ",C80," | ",D80," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J80" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I81" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B81," | ",C81," | ",D81," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J81" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I82" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B82," | ",C82," | ",D82," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J82" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I83" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B83," | ",C83," | ",D83," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J83" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I84" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B84," | ",C84," | ",D84," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J84" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B85," | ",C85," | ",D85," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J85" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I86" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B86," | ",C86," | ",D86," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J86" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I87" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B87," | ",C87," | ",D87," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J87" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I88" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B88," | ",C88," | ",D88," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J88" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I89" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B89," | ",C89," | ",D89," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J89" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I90" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B90," | ",C90," | ",D90," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J90" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I91" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B91," | ",C91," | ",D91," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J91" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I92" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B92," | ",C92," | ",D92," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J92" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I93" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B93," | ",C93," | ",D93," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J93" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I94" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B94," | ",C94," | ",D94," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J94" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I95" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B95," | ",C95," | ",D95," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J95" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I96" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B96," | ",C96," | ",D96," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J96" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I97" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B97," | ",C97," | ",D97," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J97" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I98" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B98," | ",C98," | ",D98," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J98" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I99" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B99," | ",C99," | ",D99," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J99" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I100" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B100," | ",C100," | ",D100," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J100" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I101" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B101," | ",C101," | ",D101," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J101" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I102" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B102," | ",C102," | ",D102," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J102" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="I103" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B103," | ",C103," | ",D103," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="J103" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |  |</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16AD24E-BC6D-4E2C-905E-0970E18303A5}">
   <dimension ref="B2:I102"/>
   <sheetViews>
@@ -15269,10 +19440,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -15323,10 +19494,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -15346,10 +19517,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -15369,10 +19540,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -15392,10 +19563,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -15415,10 +19586,10 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -15438,10 +19609,10 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -15461,10 +19632,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -15484,10 +19655,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -15507,10 +19678,10 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -15530,10 +19701,10 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -15553,10 +19724,10 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -15576,10 +19747,10 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -15599,10 +19770,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -15622,10 +19793,10 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -15645,10 +19816,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -17247,1996 +21418,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB6E6C-1D05-499A-989F-C261220A1AD3}">
-  <sheetPr codeName="Hoja5"/>
-  <dimension ref="B2:I103"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="68" style="1" customWidth="1"/>
-    <col min="3" max="3" width="79" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.77734375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="74.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
-        <v>| Tipo de suelo | Nombre |</v>
-      </c>
-      <c r="H3" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
-        <v>| Tipo de suelo | Nombre | Tamaño |</v>
-      </c>
-      <c r="I3" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
-        <v>| Tipo de suelo | Nombre | Tamaño | Tamiz |</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="str">
-        <f>_xlfn.CONCAT("|",B4,"|",C4,"|")</f>
-        <v>|---|---|</v>
-      </c>
-      <c r="H4" s="8" t="str">
-        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|")</f>
-        <v>|---|---|---|</v>
-      </c>
-      <c r="I4" s="8" t="str">
-        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|",E4,"|")</f>
-        <v>|---|---|---|---|</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| SUELOS GRANULARES | CANTO RODADO |</v>
-      </c>
-      <c r="H5" s="5" t="str">
-        <f t="shared" ref="H5:H68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| SUELOS GRANULARES | CANTO RODADO |  |</v>
-      </c>
-      <c r="I5" s="5" t="str">
-        <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| SUELOS GRANULARES | CANTO RODADO |  |  |</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="9"/>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="str">
-        <f t="shared" ref="G6:G69" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>|  | Muy grande |</v>
-      </c>
-      <c r="H6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  | Muy grande | 4 m - 2 m |</v>
-      </c>
-      <c r="I6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  | Muy grande | 4 m - 2 m |  |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="9"/>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  | Grande |</v>
-      </c>
-      <c r="H7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  | Grande | 2 m - 1 m |</v>
-      </c>
-      <c r="I7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  | Grande | 2 m - 1 m |  |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I28" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H29" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I29" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H30" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I30" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H31" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I31" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H32" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I32" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H33" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I33" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H34" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I34" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H35" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I35" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H36" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I36" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H37" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H38" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I38" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H39" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I39" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H40" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I40" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H41" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I41" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H42" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I42" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H43" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I43" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H44" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I44" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H45" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I45" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H46" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I46" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H47" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I47" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H48" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I48" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H49" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I49" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H50" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I50" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H51" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I51" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H52" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I52" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H53" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I53" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H54" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I54" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H55" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I55" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H56" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I56" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H57" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I57" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H58" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I58" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H59" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I59" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H60" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I60" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H61" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I61" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H62" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I62" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H63" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I63" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H64" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I64" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H65" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I65" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H66" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I66" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H67" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I67" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H68" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I68" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H69" s="5" t="str">
-        <f t="shared" ref="H69:H103" si="3">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I69" s="5" t="str">
-        <f t="shared" ref="I69:I103" si="4">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," | ",E69," |")</f>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="5" t="str">
-        <f t="shared" ref="G70:G103" si="5">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
-        <v>|  |  |</v>
-      </c>
-      <c r="H70" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I70" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H71" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I71" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H72" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I72" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H73" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I73" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H74" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I74" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H75" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I75" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H76" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I76" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H77" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I77" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H78" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I78" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H79" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I79" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H80" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I80" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H81" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I81" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H82" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I82" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H83" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I83" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H84" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I84" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H85" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I85" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H86" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I86" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H87" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I87" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H88" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I88" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H89" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I89" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H90" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I90" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H91" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I91" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H92" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I92" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H93" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I93" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H94" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I94" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H95" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I95" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H96" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I96" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H97" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I97" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H98" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I98" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H99" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I99" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H100" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I100" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H101" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I101" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H102" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I102" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H103" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I103" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/ExcelTableToMarkDownSample.xlsx
+++ b/ExcelTableToMarkDownSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866E990F-6AE7-4DAB-83DE-CBCE40F7D353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CDCD35-6FB8-4528-9DDD-A308447321A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Abreviaturas" sheetId="9" r:id="rId1"/>
@@ -579,28 +579,7 @@
     <t>Distribución de velocidades y concentración de sedimentos en suspensión en un canal.</t>
   </si>
   <si>
-    <t>Ecuación de continuidad de sedimentos</t>
-  </si>
-  <si>
     <t>Ecuación de Exner.</t>
-  </si>
-  <si>
-    <t>[Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos)</t>
-  </si>
-  <si>
-    <t>[Potencia de la corriente](https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia)</t>
-  </si>
-  <si>
-    <t>[Movimiento incipiente](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_MovimientoIncipiente)</t>
-  </si>
-  <si>
-    <t>[Acorazamiento](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Acorazamiento)</t>
-  </si>
-  <si>
-    <t>[Predicción sobre la respuesta general de un río al cambio](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Lane)</t>
-  </si>
-  <si>
-    <t>[Caudal sólido en suspensión](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_CaudalSuspension)</t>
   </si>
   <si>
     <t>Generación del archivo de sedimentos del modelo. Initial conditions and transport parameters. Boundary conditions. Consideraciones. Bed Change Options.</t>
@@ -616,9 +595,6 @@
   </si>
   <si>
     <t>Actividad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Cuantificación del potencial de transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section02/2_PotencialTransporteSedimentos) </t>
   </si>
   <si>
     <t>Modo de transporte de sedimentos</t>
@@ -675,10 +651,34 @@
     <t>Texto para cinco columnas</t>
   </si>
   <si>
-    <t>[Clasificación de ríos y cauces](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_ClasificacionRios)</t>
+    <t>Patrones de cauces. Clasificación de los cauces aluviales con base en los criterios de Schumm.</t>
   </si>
   <si>
-    <t>Patrones de cauces. Clasificación de los cauces aluviales con base en los criterios de Schumm.</t>
+    <t>[Transporte de sedimentos](Section01/1_TransporteDeSedimentos)</t>
+  </si>
+  <si>
+    <t>[Clasificación de ríos y cauces](Section01/1_ClasificacionRios)</t>
+  </si>
+  <si>
+    <t>[Potencia de la corriente](Section01/1_Potencia)</t>
+  </si>
+  <si>
+    <t>[Movimiento incipiente](Section01/1_MovimientoIncipiente)</t>
+  </si>
+  <si>
+    <t>[Acorazamiento](Section01/1_Acorazamiento)</t>
+  </si>
+  <si>
+    <t>[Caudal sólido en suspensión](Section01/1_CaudalSuspension)</t>
+  </si>
+  <si>
+    <t>[Predicción sobre la respuesta general de un río al cambio](Section01/1_Lane)</t>
+  </si>
+  <si>
+    <t>[Ecuación de continuidad de sedimentos](Section01/1_Exner)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Cuantificación del potencial de transporte de sedimentos](Section02/2_PotencialTransporteSedimentos) </t>
   </si>
 </sst>
 </file>
@@ -7167,9 +7167,9 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -7255,9 +7255,9 @@
         <v>|---|---|---|---|</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="60" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>66</v>
@@ -7267,43 +7267,43 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| [Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |</v>
+        <v>| [Transporte de sedimentos](Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" ref="H5:H68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| [Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |  |</v>
+        <v>| [Transporte de sedimentos](Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |  |</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| [Transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |  |  |</v>
+        <v>| [Transporte de sedimentos](Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |  |  |</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="60" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="str">
         <f t="shared" ref="G6:G69" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| [Clasificación de ríos y cauces](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_ClasificacionRios) | Patrones de cauces. Clasificación de los cauces aluviales con base en los criterios de Schumm. |</v>
+        <v>| [Clasificación de ríos y cauces](Section01/1_ClasificacionRios) | Patrones de cauces. Clasificación de los cauces aluviales con base en los criterios de Schumm. |</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| [Clasificación de ríos y cauces](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_ClasificacionRios) | Patrones de cauces. Clasificación de los cauces aluviales con base en los criterios de Schumm. |  |</v>
+        <v>| [Clasificación de ríos y cauces](Section01/1_ClasificacionRios) | Patrones de cauces. Clasificación de los cauces aluviales con base en los criterios de Schumm. |  |</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| [Clasificación de ríos y cauces](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_ClasificacionRios) | Patrones de cauces. Clasificación de los cauces aluviales con base en los criterios de Schumm. |  |  |</v>
+        <v>| [Clasificación de ríos y cauces](Section01/1_ClasificacionRios) | Patrones de cauces. Clasificación de los cauces aluviales con base en los criterios de Schumm. |  |  |</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>170</v>
@@ -7313,20 +7313,20 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| [Potencia de la corriente](https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia) | Definición y usos. |</v>
+        <v>| [Potencia de la corriente](Section01/1_Potencia) | Definición y usos. |</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| [Potencia de la corriente](https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia) | Definición y usos. |  |</v>
+        <v>| [Potencia de la corriente](Section01/1_Potencia) | Definición y usos. |  |</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| [Potencia de la corriente](https://github.com/mflatouche/M.TSED/blob/main/Section01/1_Potencia) | Definición y usos. |  |  |</v>
+        <v>| [Potencia de la corriente](Section01/1_Potencia) | Definición y usos. |  |  |</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="60" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>172</v>
@@ -7336,20 +7336,20 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| [Movimiento incipiente](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_MovimientoIncipiente) | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. Ejemplo. |</v>
+        <v>| [Movimiento incipiente](Section01/1_MovimientoIncipiente) | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. Ejemplo. |</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| [Movimiento incipiente](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_MovimientoIncipiente) | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. Ejemplo. |  |</v>
+        <v>| [Movimiento incipiente](Section01/1_MovimientoIncipiente) | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. Ejemplo. |  |</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| [Movimiento incipiente](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_MovimientoIncipiente) | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. Ejemplo. |  |  |</v>
+        <v>| [Movimiento incipiente](Section01/1_MovimientoIncipiente) | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. Ejemplo. |  |  |</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>67</v>
@@ -7359,20 +7359,20 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| [Acorazamiento](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Acorazamiento) | Explicación del proceso de acorazamiento de un lecho. |</v>
+        <v>| [Acorazamiento](Section01/1_Acorazamiento) | Explicación del proceso de acorazamiento de un lecho. |</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| [Acorazamiento](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Acorazamiento) | Explicación del proceso de acorazamiento de un lecho. |  |</v>
+        <v>| [Acorazamiento](Section01/1_Acorazamiento) | Explicación del proceso de acorazamiento de un lecho. |  |</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| [Acorazamiento](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Acorazamiento) | Explicación del proceso de acorazamiento de un lecho. |  |  |</v>
+        <v>| [Acorazamiento](Section01/1_Acorazamiento) | Explicación del proceso de acorazamiento de un lecho. |  |  |</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>173</v>
@@ -7382,20 +7382,20 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| [Caudal sólido en suspensión](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_CaudalSuspension) | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |</v>
+        <v>| [Caudal sólido en suspensión](Section01/1_CaudalSuspension) | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| [Caudal sólido en suspensión](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_CaudalSuspension) | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |  |</v>
+        <v>| [Caudal sólido en suspensión](Section01/1_CaudalSuspension) | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |  |</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| [Caudal sólido en suspensión](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_CaudalSuspension) | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |  |  |</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="60" x14ac:dyDescent="0.35">
+        <v>| [Caudal sólido en suspensión](Section01/1_CaudalSuspension) | Distribución de velocidades y concentración de sedimentos en suspensión en un canal. |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>171</v>
@@ -7405,38 +7405,38 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| [Predicción sobre la respuesta general de un río al cambio](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Lane) | Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo. |</v>
+        <v>| [Predicción sobre la respuesta general de un río al cambio](Section01/1_Lane) | Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo. |</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| [Predicción sobre la respuesta general de un río al cambio](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Lane) | Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo. |  |</v>
+        <v>| [Predicción sobre la respuesta general de un río al cambio](Section01/1_Lane) | Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo. |  |</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| [Predicción sobre la respuesta general de un río al cambio](https://github.com/mflatouche/M.TSED/tree/main/Section01/1_Lane) | Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo. |  |  |</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+        <v>| [Predicción sobre la respuesta general de un río al cambio](Section01/1_Lane) | Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo. |  |  |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Ecuación de continuidad de sedimentos | Ecuación de Exner. |</v>
+        <v>| [Ecuación de continuidad de sedimentos](Section01/1_Exner) | Ecuación de Exner. |</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Ecuación de continuidad de sedimentos | Ecuación de Exner. |  |</v>
+        <v>| [Ecuación de continuidad de sedimentos](Section01/1_Exner) | Ecuación de Exner. |  |</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Ecuación de continuidad de sedimentos | Ecuación de Exner. |  |  |</v>
+        <v>| [Ecuación de continuidad de sedimentos](Section01/1_Exner) | Ecuación de Exner. |  |  |</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
@@ -9179,9 +9179,9 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -9215,7 +9215,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -9269,7 +9269,7 @@
     </row>
     <row r="5" spans="2:9" ht="60" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>91</v>
@@ -9279,15 +9279,15 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| [Cuantificación del potencial de transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section02/2_PotencialTransporteSedimentos)  | Estudio y transporte sólido requerido. Distribución de velocidades y perfil de concentraciones. Datos necesarios. Parámetros de interés. |</v>
+        <v>| [Cuantificación del potencial de transporte de sedimentos](Section02/2_PotencialTransporteSedimentos)  | Estudio y transporte sólido requerido. Distribución de velocidades y perfil de concentraciones. Datos necesarios. Parámetros de interés. |</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" ref="H5:H68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| [Cuantificación del potencial de transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section02/2_PotencialTransporteSedimentos)  | Estudio y transporte sólido requerido. Distribución de velocidades y perfil de concentraciones. Datos necesarios. Parámetros de interés. |  |</v>
+        <v>| [Cuantificación del potencial de transporte de sedimentos](Section02/2_PotencialTransporteSedimentos)  | Estudio y transporte sólido requerido. Distribución de velocidades y perfil de concentraciones. Datos necesarios. Parámetros de interés. |  |</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| [Cuantificación del potencial de transporte de sedimentos](https://github.com/mflatouche/M.TSED/tree/main/Section02/2_PotencialTransporteSedimentos)  | Estudio y transporte sólido requerido. Distribución de velocidades y perfil de concentraciones. Datos necesarios. Parámetros de interés. |  |  |</v>
+        <v>| [Cuantificación del potencial de transporte de sedimentos](Section02/2_PotencialTransporteSedimentos)  | Estudio y transporte sólido requerido. Distribución de velocidades y perfil de concentraciones. Datos necesarios. Parámetros de interés. |  |  |</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.35">
@@ -9341,7 +9341,7 @@
         <v>71</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -11211,7 +11211,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -11288,10 +11288,10 @@
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -11383,7 +11383,7 @@
         <v>82</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -13223,7 +13223,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -17321,24 +17321,24 @@
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="str">
@@ -17386,27 +17386,27 @@
     </row>
     <row r="5" spans="2:10" ht="75" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C5" s="5">
         <v>100</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
+        <f t="shared" ref="H5:H36" si="0">_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
         <v>| Carga suspendida: carga del 85-100% | 100 |</v>
       </c>
       <c r="I5" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
+        <f t="shared" ref="I5:I36" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
         <v>| Carga suspendida: carga del 85-100% | 100 | Relación ancho/profundidad &lt;7; Sinuosidad &gt;2.1; Pendiente: relativamente baja |</v>
       </c>
       <c r="J5" s="5" t="str">
@@ -17414,63 +17414,63 @@
         <v>| Carga suspendida: carga del 85-100% | 100 | Relación ancho/profundidad &lt;7; Sinuosidad &gt;2.1; Pendiente: relativamente baja | La mayor sedimentación ocurre en las márgenes, que causa el estrachamiento del cauce. La sedimentación en el lecho es poca. | Predomina la erosión del fondo del lecho. Poco ensanchamiento del cauce. |</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="60" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="75" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C6" s="5">
         <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
+        <f t="shared" si="0"/>
         <v>| Carga mixta: carga suspendida del 65-85%, carga por arrastre del 15-35% | 30 |</v>
       </c>
       <c r="I6" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," |")</f>
+        <f t="shared" si="1"/>
         <v>| Carga mixta: carga suspendida del 65-85%, carga por arrastre del 15-35% | 30 | Relación ancho/profundidad 7-25; Sinuosidad 1.5-2.1; Pendiente: moderada |</v>
       </c>
       <c r="J6" s="5" t="str">
-        <f t="shared" ref="J6:J69" si="0">_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," | ",E6," | ",F6," |")</f>
+        <f t="shared" ref="J6:J69" si="2">_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," | ",E6," | ",F6," |")</f>
         <v>| Carga mixta: carga suspendida del 65-85%, carga por arrastre del 15-35% | 30 | Relación ancho/profundidad 7-25; Sinuosidad 1.5-2.1; Pendiente: moderada | Al comienzo hay mayor sedimentación en las márgenes y luego se presenta sedimentación en el lecho. | Comienza por erosión del fondo del lecho, seguido por ampliación del cauce. |</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="45" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B7," | ",C7," |")</f>
+        <f t="shared" si="0"/>
         <v>| Carga por arrastre: carga del 35-70% | 0 |</v>
       </c>
       <c r="I7" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B7," | ",C7," | ",D7," |")</f>
+        <f t="shared" si="1"/>
         <v>| Carga por arrastre: carga del 35-70% | 0 | Relación ancho/profundidad &gt;25; Sinuosidad &lt;1.5; Pendiente: relativamente alta |</v>
       </c>
       <c r="J7" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>| Carga por arrastre: carga del 35-70% | 0 | Relación ancho/profundidad &gt;25; Sinuosidad &lt;1.5; Pendiente: relativamente alta | Sedimentación en el lecho y formación de islas. | Poca erosión del fondo, predomina el ensanchamiento del cauce. |</v>
       </c>
     </row>
@@ -17482,15 +17482,15 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B8," | ",C8," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I8" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B8," | ",C8," | ",D8," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J8" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17502,15 +17502,15 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B9," | ",C9," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I9" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B9," | ",C9," | ",D9," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J9" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17522,15 +17522,15 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B10," | ",C10," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I10" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B10," | ",C10," | ",D10," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J10" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17542,15 +17542,15 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B11," | ",C11," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I11" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B11," | ",C11," | ",D11," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J11" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17562,15 +17562,15 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B12," | ",C12," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I12" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B12," | ",C12," | ",D12," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J12" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17582,15 +17582,15 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B13," | ",C13," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I13" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B13," | ",C13," | ",D13," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J13" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17602,15 +17602,15 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B14," | ",C14," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I14" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B14," | ",C14," | ",D14," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J14" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17622,15 +17622,15 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B15," | ",C15," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I15" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B15," | ",C15," | ",D15," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J15" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17642,15 +17642,15 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B16," | ",C16," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I16" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B16," | ",C16," | ",D16," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J16" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17662,15 +17662,15 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B17," | ",C17," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I17" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B17," | ",C17," | ",D17," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J17" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17682,15 +17682,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B18," | ",C18," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I18" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B18," | ",C18," | ",D18," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J18" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17702,15 +17702,15 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B19," | ",C19," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I19" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B19," | ",C19," | ",D19," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J19" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17722,15 +17722,15 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B20," | ",C20," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I20" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B20," | ",C20," | ",D20," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J20" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17742,15 +17742,15 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B21," | ",C21," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I21" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B21," | ",C21," | ",D21," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J21" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17762,15 +17762,15 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B22," | ",C22," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I22" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B22," | ",C22," | ",D22," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J22" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17782,15 +17782,15 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B23," | ",C23," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I23" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B23," | ",C23," | ",D23," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J23" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17802,15 +17802,15 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B24," | ",C24," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I24" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B24," | ",C24," | ",D24," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J24" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17822,15 +17822,15 @@
       <c r="F25" s="5"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B25," | ",C25," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I25" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B25," | ",C25," | ",D25," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J25" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17842,15 +17842,15 @@
       <c r="F26" s="5"/>
       <c r="G26" s="4"/>
       <c r="H26" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B26," | ",C26," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I26" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B26," | ",C26," | ",D26," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J26" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17862,15 +17862,15 @@
       <c r="F27" s="5"/>
       <c r="G27" s="4"/>
       <c r="H27" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B27," | ",C27," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I27" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B27," | ",C27," | ",D27," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J27" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17882,15 +17882,15 @@
       <c r="F28" s="5"/>
       <c r="G28" s="4"/>
       <c r="H28" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B28," | ",C28," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I28" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B28," | ",C28," | ",D28," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J28" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17902,15 +17902,15 @@
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
       <c r="H29" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B29," | ",C29," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I29" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B29," | ",C29," | ",D29," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J29" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17922,15 +17922,15 @@
       <c r="F30" s="5"/>
       <c r="G30" s="4"/>
       <c r="H30" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B30," | ",C30," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I30" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B30," | ",C30," | ",D30," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J30" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17942,15 +17942,15 @@
       <c r="F31" s="5"/>
       <c r="G31" s="4"/>
       <c r="H31" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B31," | ",C31," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I31" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B31," | ",C31," | ",D31," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J31" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17962,15 +17962,15 @@
       <c r="F32" s="5"/>
       <c r="G32" s="4"/>
       <c r="H32" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B32," | ",C32," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I32" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B32," | ",C32," | ",D32," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J32" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -17982,15 +17982,15 @@
       <c r="F33" s="5"/>
       <c r="G33" s="4"/>
       <c r="H33" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B33," | ",C33," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I33" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B33," | ",C33," | ",D33," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J33" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18002,15 +18002,15 @@
       <c r="F34" s="5"/>
       <c r="G34" s="4"/>
       <c r="H34" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B34," | ",C34," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I34" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B34," | ",C34," | ",D34," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J34" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18022,15 +18022,15 @@
       <c r="F35" s="5"/>
       <c r="G35" s="4"/>
       <c r="H35" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B35," | ",C35," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I35" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B35," | ",C35," | ",D35," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J35" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18042,15 +18042,15 @@
       <c r="F36" s="5"/>
       <c r="G36" s="4"/>
       <c r="H36" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B36," | ",C36," |")</f>
+        <f t="shared" si="0"/>
         <v>|  |  |</v>
       </c>
       <c r="I36" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B36," | ",C36," | ",D36," |")</f>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J36" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18062,15 +18062,15 @@
       <c r="F37" s="5"/>
       <c r="G37" s="4"/>
       <c r="H37" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B37," | ",C37," |")</f>
+        <f t="shared" ref="H37:H69" si="3">_xlfn.CONCAT("| ",B37," | ",C37," |")</f>
         <v>|  |  |</v>
       </c>
       <c r="I37" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B37," | ",C37," | ",D37," |")</f>
+        <f t="shared" ref="I37:I68" si="4">_xlfn.CONCAT("| ",B37," | ",C37," | ",D37," |")</f>
         <v>|  |  |  |</v>
       </c>
       <c r="J37" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18082,15 +18082,15 @@
       <c r="F38" s="5"/>
       <c r="G38" s="4"/>
       <c r="H38" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B38," | ",C38," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I38" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B38," | ",C38," | ",D38," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J38" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18102,15 +18102,15 @@
       <c r="F39" s="5"/>
       <c r="G39" s="4"/>
       <c r="H39" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B39," | ",C39," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I39" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B39," | ",C39," | ",D39," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J39" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18122,15 +18122,15 @@
       <c r="F40" s="5"/>
       <c r="G40" s="4"/>
       <c r="H40" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B40," | ",C40," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I40" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B40," | ",C40," | ",D40," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J40" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18142,15 +18142,15 @@
       <c r="F41" s="5"/>
       <c r="G41" s="4"/>
       <c r="H41" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B41," | ",C41," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I41" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B41," | ",C41," | ",D41," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J41" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18162,15 +18162,15 @@
       <c r="F42" s="5"/>
       <c r="G42" s="4"/>
       <c r="H42" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B42," | ",C42," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I42" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B42," | ",C42," | ",D42," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J42" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18182,15 +18182,15 @@
       <c r="F43" s="5"/>
       <c r="G43" s="4"/>
       <c r="H43" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B43," | ",C43," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I43" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B43," | ",C43," | ",D43," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J43" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18202,15 +18202,15 @@
       <c r="F44" s="5"/>
       <c r="G44" s="4"/>
       <c r="H44" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B44," | ",C44," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I44" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B44," | ",C44," | ",D44," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J44" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18222,15 +18222,15 @@
       <c r="F45" s="5"/>
       <c r="G45" s="4"/>
       <c r="H45" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B45," | ",C45," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I45" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B45," | ",C45," | ",D45," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J45" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18242,15 +18242,15 @@
       <c r="F46" s="5"/>
       <c r="G46" s="4"/>
       <c r="H46" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B46," | ",C46," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I46" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B46," | ",C46," | ",D46," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J46" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18262,15 +18262,15 @@
       <c r="F47" s="5"/>
       <c r="G47" s="4"/>
       <c r="H47" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B47," | ",C47," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I47" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B47," | ",C47," | ",D47," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J47" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18282,15 +18282,15 @@
       <c r="F48" s="5"/>
       <c r="G48" s="4"/>
       <c r="H48" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B48," | ",C48," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I48" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B48," | ",C48," | ",D48," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J48" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18302,15 +18302,15 @@
       <c r="F49" s="5"/>
       <c r="G49" s="4"/>
       <c r="H49" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B49," | ",C49," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I49" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B49," | ",C49," | ",D49," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J49" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18322,15 +18322,15 @@
       <c r="F50" s="5"/>
       <c r="G50" s="4"/>
       <c r="H50" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B50," | ",C50," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I50" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B50," | ",C50," | ",D50," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J50" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18342,15 +18342,15 @@
       <c r="F51" s="5"/>
       <c r="G51" s="4"/>
       <c r="H51" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B51," | ",C51," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I51" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B51," | ",C51," | ",D51," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J51" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18362,15 +18362,15 @@
       <c r="F52" s="5"/>
       <c r="G52" s="4"/>
       <c r="H52" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B52," | ",C52," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I52" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B52," | ",C52," | ",D52," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J52" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18382,15 +18382,15 @@
       <c r="F53" s="5"/>
       <c r="G53" s="4"/>
       <c r="H53" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B53," | ",C53," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I53" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B53," | ",C53," | ",D53," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J53" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18402,15 +18402,15 @@
       <c r="F54" s="5"/>
       <c r="G54" s="4"/>
       <c r="H54" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B54," | ",C54," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I54" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B54," | ",C54," | ",D54," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J54" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18422,15 +18422,15 @@
       <c r="F55" s="5"/>
       <c r="G55" s="4"/>
       <c r="H55" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B55," | ",C55," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I55" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B55," | ",C55," | ",D55," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J55" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18442,15 +18442,15 @@
       <c r="F56" s="5"/>
       <c r="G56" s="4"/>
       <c r="H56" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B56," | ",C56," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I56" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B56," | ",C56," | ",D56," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J56" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18462,15 +18462,15 @@
       <c r="F57" s="5"/>
       <c r="G57" s="4"/>
       <c r="H57" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B57," | ",C57," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I57" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B57," | ",C57," | ",D57," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J57" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18482,15 +18482,15 @@
       <c r="F58" s="5"/>
       <c r="G58" s="4"/>
       <c r="H58" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B58," | ",C58," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I58" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B58," | ",C58," | ",D58," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J58" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18502,15 +18502,15 @@
       <c r="F59" s="5"/>
       <c r="G59" s="4"/>
       <c r="H59" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B59," | ",C59," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I59" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B59," | ",C59," | ",D59," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J59" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18522,15 +18522,15 @@
       <c r="F60" s="5"/>
       <c r="G60" s="4"/>
       <c r="H60" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B60," | ",C60," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I60" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B60," | ",C60," | ",D60," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J60" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18542,15 +18542,15 @@
       <c r="F61" s="5"/>
       <c r="G61" s="4"/>
       <c r="H61" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B61," | ",C61," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I61" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B61," | ",C61," | ",D61," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J61" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18562,15 +18562,15 @@
       <c r="F62" s="5"/>
       <c r="G62" s="4"/>
       <c r="H62" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B62," | ",C62," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I62" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B62," | ",C62," | ",D62," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J62" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18582,15 +18582,15 @@
       <c r="F63" s="5"/>
       <c r="G63" s="4"/>
       <c r="H63" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B63," | ",C63," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I63" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B63," | ",C63," | ",D63," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J63" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18602,15 +18602,15 @@
       <c r="F64" s="5"/>
       <c r="G64" s="4"/>
       <c r="H64" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B64," | ",C64," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I64" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B64," | ",C64," | ",D64," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J64" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18622,15 +18622,15 @@
       <c r="F65" s="5"/>
       <c r="G65" s="4"/>
       <c r="H65" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B65," | ",C65," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I65" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B65," | ",C65," | ",D65," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J65" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18642,15 +18642,15 @@
       <c r="F66" s="5"/>
       <c r="G66" s="4"/>
       <c r="H66" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B66," | ",C66," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I66" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B66," | ",C66," | ",D66," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J66" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18662,15 +18662,15 @@
       <c r="F67" s="5"/>
       <c r="G67" s="4"/>
       <c r="H67" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B67," | ",C67," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I67" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B67," | ",C67," | ",D67," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J67" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18682,15 +18682,15 @@
       <c r="F68" s="5"/>
       <c r="G68" s="4"/>
       <c r="H68" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B68," | ",C68," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I68" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B68," | ",C68," | ",D68," |")</f>
+        <f t="shared" si="4"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J68" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18702,15 +18702,15 @@
       <c r="F69" s="5"/>
       <c r="G69" s="4"/>
       <c r="H69" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B69," | ",C69," |")</f>
+        <f t="shared" si="3"/>
         <v>|  |  |</v>
       </c>
       <c r="I69" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
+        <f t="shared" ref="I69:I103" si="5">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
         <v>|  |  |  |</v>
       </c>
       <c r="J69" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18722,15 +18722,15 @@
       <c r="F70" s="5"/>
       <c r="G70" s="4"/>
       <c r="H70" s="5" t="str">
-        <f t="shared" ref="H70:H103" si="1">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
+        <f t="shared" ref="H70:H103" si="6">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
         <v>|  |  |</v>
       </c>
       <c r="I70" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B70," | ",C70," | ",D70," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J70" s="5" t="str">
-        <f t="shared" ref="J70:J103" si="2">_xlfn.CONCAT("| ",B70," | ",C70," | ",D70," | ",E70," | ",F70," |")</f>
+        <f t="shared" ref="J70:J103" si="7">_xlfn.CONCAT("| ",B70," | ",C70," | ",D70," | ",E70," | ",F70," |")</f>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18742,15 +18742,15 @@
       <c r="F71" s="5"/>
       <c r="G71" s="4"/>
       <c r="H71" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I71" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B71," | ",C71," | ",D71," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J71" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18762,15 +18762,15 @@
       <c r="F72" s="5"/>
       <c r="G72" s="4"/>
       <c r="H72" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I72" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B72," | ",C72," | ",D72," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J72" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18782,15 +18782,15 @@
       <c r="F73" s="5"/>
       <c r="G73" s="4"/>
       <c r="H73" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I73" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B73," | ",C73," | ",D73," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J73" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18802,15 +18802,15 @@
       <c r="F74" s="5"/>
       <c r="G74" s="4"/>
       <c r="H74" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I74" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B74," | ",C74," | ",D74," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J74" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18822,15 +18822,15 @@
       <c r="F75" s="5"/>
       <c r="G75" s="4"/>
       <c r="H75" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I75" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B75," | ",C75," | ",D75," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J75" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18842,15 +18842,15 @@
       <c r="F76" s="5"/>
       <c r="G76" s="4"/>
       <c r="H76" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I76" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B76," | ",C76," | ",D76," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J76" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18862,15 +18862,15 @@
       <c r="F77" s="5"/>
       <c r="G77" s="4"/>
       <c r="H77" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I77" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B77," | ",C77," | ",D77," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J77" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18882,15 +18882,15 @@
       <c r="F78" s="5"/>
       <c r="G78" s="4"/>
       <c r="H78" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I78" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B78," | ",C78," | ",D78," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J78" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18902,15 +18902,15 @@
       <c r="F79" s="5"/>
       <c r="G79" s="4"/>
       <c r="H79" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I79" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B79," | ",C79," | ",D79," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J79" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18922,15 +18922,15 @@
       <c r="F80" s="5"/>
       <c r="G80" s="4"/>
       <c r="H80" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I80" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B80," | ",C80," | ",D80," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J80" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18942,15 +18942,15 @@
       <c r="F81" s="5"/>
       <c r="G81" s="4"/>
       <c r="H81" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I81" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B81," | ",C81," | ",D81," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J81" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18962,15 +18962,15 @@
       <c r="F82" s="5"/>
       <c r="G82" s="4"/>
       <c r="H82" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I82" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B82," | ",C82," | ",D82," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J82" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -18982,15 +18982,15 @@
       <c r="F83" s="5"/>
       <c r="G83" s="4"/>
       <c r="H83" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I83" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B83," | ",C83," | ",D83," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J83" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19002,15 +19002,15 @@
       <c r="F84" s="5"/>
       <c r="G84" s="4"/>
       <c r="H84" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I84" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B84," | ",C84," | ",D84," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J84" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19022,15 +19022,15 @@
       <c r="F85" s="5"/>
       <c r="G85" s="4"/>
       <c r="H85" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I85" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B85," | ",C85," | ",D85," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J85" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19042,15 +19042,15 @@
       <c r="F86" s="5"/>
       <c r="G86" s="4"/>
       <c r="H86" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I86" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B86," | ",C86," | ",D86," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J86" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19062,15 +19062,15 @@
       <c r="F87" s="5"/>
       <c r="G87" s="4"/>
       <c r="H87" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I87" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B87," | ",C87," | ",D87," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J87" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19082,15 +19082,15 @@
       <c r="F88" s="5"/>
       <c r="G88" s="4"/>
       <c r="H88" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I88" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B88," | ",C88," | ",D88," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J88" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19102,15 +19102,15 @@
       <c r="F89" s="5"/>
       <c r="G89" s="4"/>
       <c r="H89" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I89" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B89," | ",C89," | ",D89," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J89" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19122,15 +19122,15 @@
       <c r="F90" s="5"/>
       <c r="G90" s="4"/>
       <c r="H90" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I90" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B90," | ",C90," | ",D90," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J90" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19142,15 +19142,15 @@
       <c r="F91" s="5"/>
       <c r="G91" s="4"/>
       <c r="H91" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I91" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B91," | ",C91," | ",D91," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J91" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19162,15 +19162,15 @@
       <c r="F92" s="5"/>
       <c r="G92" s="4"/>
       <c r="H92" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I92" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B92," | ",C92," | ",D92," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J92" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19182,15 +19182,15 @@
       <c r="F93" s="5"/>
       <c r="G93" s="4"/>
       <c r="H93" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I93" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B93," | ",C93," | ",D93," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J93" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19202,15 +19202,15 @@
       <c r="F94" s="5"/>
       <c r="G94" s="4"/>
       <c r="H94" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I94" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B94," | ",C94," | ",D94," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J94" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19222,15 +19222,15 @@
       <c r="F95" s="5"/>
       <c r="G95" s="4"/>
       <c r="H95" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I95" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B95," | ",C95," | ",D95," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J95" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19242,15 +19242,15 @@
       <c r="F96" s="5"/>
       <c r="G96" s="4"/>
       <c r="H96" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I96" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B96," | ",C96," | ",D96," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J96" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19262,15 +19262,15 @@
       <c r="F97" s="5"/>
       <c r="G97" s="4"/>
       <c r="H97" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I97" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B97," | ",C97," | ",D97," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J97" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19282,15 +19282,15 @@
       <c r="F98" s="5"/>
       <c r="G98" s="4"/>
       <c r="H98" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I98" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B98," | ",C98," | ",D98," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J98" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19302,15 +19302,15 @@
       <c r="F99" s="5"/>
       <c r="G99" s="4"/>
       <c r="H99" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I99" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B99," | ",C99," | ",D99," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J99" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19322,15 +19322,15 @@
       <c r="F100" s="5"/>
       <c r="G100" s="4"/>
       <c r="H100" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I100" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B100," | ",C100," | ",D100," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J100" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19342,15 +19342,15 @@
       <c r="F101" s="5"/>
       <c r="G101" s="4"/>
       <c r="H101" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I101" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B101," | ",C101," | ",D101," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J101" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19362,15 +19362,15 @@
       <c r="F102" s="5"/>
       <c r="G102" s="4"/>
       <c r="H102" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I102" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B102," | ",C102," | ",D102," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J102" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>
@@ -19382,15 +19382,15 @@
       <c r="F103" s="5"/>
       <c r="G103" s="4"/>
       <c r="H103" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>|  |  |</v>
       </c>
       <c r="I103" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B103," | ",C103," | ",D103," |")</f>
+        <f t="shared" si="5"/>
         <v>|  |  |  |</v>
       </c>
       <c r="J103" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>|  |  |  |  |  |</v>
       </c>
     </row>

--- a/ExcelTableToMarkDownSample.xlsx
+++ b/ExcelTableToMarkDownSample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CDCD35-6FB8-4528-9DDD-A308447321A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93251A26-52CF-4152-B386-9C7B17506070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
@@ -16,24 +16,22 @@
     <sheet name="Abreviaturas" sheetId="9" r:id="rId1"/>
     <sheet name="Sample" sheetId="1" r:id="rId2"/>
     <sheet name="0_Section01" sheetId="4" r:id="rId3"/>
-    <sheet name="0_Section02" sheetId="5" r:id="rId4"/>
-    <sheet name="0_Section03" sheetId="6" r:id="rId5"/>
-    <sheet name="0_Section04" sheetId="7" r:id="rId6"/>
-    <sheet name="1_TransporteSedimentos" sheetId="3" r:id="rId7"/>
-    <sheet name="1_ClasificacionRios" sheetId="10" r:id="rId8"/>
-    <sheet name="2_PotencialTransporte" sheetId="8" r:id="rId9"/>
-    <sheet name="RefsFile" sheetId="2" r:id="rId10"/>
+    <sheet name="0_Section02" sheetId="6" r:id="rId4"/>
+    <sheet name="0_Section03" sheetId="7" r:id="rId5"/>
+    <sheet name="1_TransporteSedimentos" sheetId="3" r:id="rId6"/>
+    <sheet name="1_ClasificacionRios" sheetId="10" r:id="rId7"/>
+    <sheet name="2_PotencialTransporte" sheetId="8" r:id="rId8"/>
+    <sheet name="RefsFile" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc107986980" localSheetId="2">'0_Section01'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="3">'0_Section02'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="4">'0_Section03'!$B$9</definedName>
-    <definedName name="_Toc107986980" localSheetId="5">'0_Section04'!$B$9</definedName>
-    <definedName name="_Toc107986980" localSheetId="7">'1_ClasificacionRios'!$B$9</definedName>
-    <definedName name="_Toc107986980" localSheetId="6">'1_TransporteSedimentos'!$B$9</definedName>
-    <definedName name="_Toc107986980" localSheetId="8">'2_PotencialTransporte'!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="6">'1_ClasificacionRios'!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="5">'1_TransporteSedimentos'!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="7">'2_PotencialTransporte'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="0">Abreviaturas!$B$9</definedName>
-    <definedName name="_Toc107986980" localSheetId="9">RefsFile!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="8">RefsFile!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="1">Sample!$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -55,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="200">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -261,18 +259,6 @@
     <t>Explicación del proceso de acorazamiento de un lecho.</t>
   </si>
   <si>
-    <t>Transporte por arrastre</t>
-  </si>
-  <si>
-    <t>Transporte por suspensión</t>
-  </si>
-  <si>
-    <t>Ecuaciones:</t>
-  </si>
-  <si>
-    <t>Transporte total</t>
-  </si>
-  <si>
     <t>Funcionamiento del modelo de HEC-RAS 1D</t>
   </si>
   <si>
@@ -330,12 +316,6 @@
     <t>Definir un plan de transporte de sedimentos y ejecutarlo.</t>
   </si>
   <si>
-    <t>Estudio y transporte sólido requerido. Distribución de velocidades y perfil de concentraciones. Datos necesarios. Parámetros de interés.</t>
-  </si>
-  <si>
-    <t>Ecuaciones: Shields, Meyer-Peter and Müller (MPM) y Wilcock and Crowe. Ejemplos</t>
-  </si>
-  <si>
     <t>Estudio</t>
   </si>
   <si>
@@ -579,18 +559,12 @@
     <t>Distribución de velocidades y concentración de sedimentos en suspensión en un canal.</t>
   </si>
   <si>
-    <t>Ecuación de Exner.</t>
-  </si>
-  <si>
     <t>Generación del archivo de sedimentos del modelo. Initial conditions and transport parameters. Boundary conditions. Consideraciones. Bed Change Options.</t>
   </si>
   <si>
     <t>Estructura del modelo</t>
   </si>
   <si>
-    <t>Ecuaciones: Einstein, Ackers and White, Engelund-Hansen, Laursen-Copeland, Toffaleti, MPM-Toffaleti y Yang</t>
-  </si>
-  <si>
     <t>Estructura de los archivos para modelos de transporte de sedimentos de flujo quasi- no permanente y no permanente.</t>
   </si>
   <si>
@@ -675,10 +649,10 @@
     <t>[Predicción sobre la respuesta general de un río al cambio](Section01/1_Lane)</t>
   </si>
   <si>
-    <t>[Ecuación de continuidad de sedimentos](Section01/1_Exner)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Cuantificación del potencial de transporte de sedimentos](Section02/2_PotencialTransporteSedimentos) </t>
+    <t xml:space="preserve">[Cuantificación del potencial de transporte de sedimentos](Section01/1_PotencialTransporteSedimentos) </t>
+  </si>
+  <si>
+    <t>Estudio y transporte sólido requerido. Potencial de transporte de sedimentos.</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1109,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -1189,10 +1163,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1212,10 +1186,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1235,10 +1209,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1258,10 +1232,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1281,10 +1255,10 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1304,10 +1278,10 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1327,10 +1301,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1350,10 +1324,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1373,10 +1347,10 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1396,10 +1370,10 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1419,10 +1393,10 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1442,10 +1416,10 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1465,10 +1439,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1488,10 +1462,10 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1511,10 +1485,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1534,10 +1508,10 @@
     </row>
     <row r="20" spans="2:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1557,10 +1531,10 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1580,10 +1554,10 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1603,10 +1577,10 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1626,10 +1600,10 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1649,10 +1623,10 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1672,10 +1646,10 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1695,10 +1669,10 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1718,10 +1692,10 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1741,10 +1715,10 @@
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1764,10 +1738,10 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1787,10 +1761,10 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3173,1998 +3147,6 @@
       </c>
       <c r="I103" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB6E6C-1D05-499A-989F-C261220A1AD3}">
-  <sheetPr codeName="Hoja5"/>
-  <dimension ref="B2:I103"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="68" style="1" customWidth="1"/>
-    <col min="3" max="3" width="79" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.77734375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="74.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
-        <v>| Tipo de suelo | Nombre |</v>
-      </c>
-      <c r="H3" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
-        <v>| Tipo de suelo | Nombre | Tamaño |</v>
-      </c>
-      <c r="I3" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
-        <v>| Tipo de suelo | Nombre | Tamaño | Tamiz |</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="str">
-        <f>_xlfn.CONCAT("|",B4,"|",C4,"|")</f>
-        <v>|---|---|</v>
-      </c>
-      <c r="H4" s="8" t="str">
-        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|")</f>
-        <v>|---|---|---|</v>
-      </c>
-      <c r="I4" s="8" t="str">
-        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|",E4,"|")</f>
-        <v>|---|---|---|---|</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| SUELOS GRANULARES | CANTO RODADO |</v>
-      </c>
-      <c r="H5" s="5" t="str">
-        <f t="shared" ref="H5:H68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| SUELOS GRANULARES | CANTO RODADO |  |</v>
-      </c>
-      <c r="I5" s="5" t="str">
-        <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| SUELOS GRANULARES | CANTO RODADO |  |  |</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="9"/>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="str">
-        <f t="shared" ref="G6:G69" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>|  | Muy grande |</v>
-      </c>
-      <c r="H6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  | Muy grande | 4 m - 2 m |</v>
-      </c>
-      <c r="I6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  | Muy grande | 4 m - 2 m |  |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="9"/>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  | Grande |</v>
-      </c>
-      <c r="H7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  | Grande | 2 m - 1 m |</v>
-      </c>
-      <c r="I7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  | Grande | 2 m - 1 m |  |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I28" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H29" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I29" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H30" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I30" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H31" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I31" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H32" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I32" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H33" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I33" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H34" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I34" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H35" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I35" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H36" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I36" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H37" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H38" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I38" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H39" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I39" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H40" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I40" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H41" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I41" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H42" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I42" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H43" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I43" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H44" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I44" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H45" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I45" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H46" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I46" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H47" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I47" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H48" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I48" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H49" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I49" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H50" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I50" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H51" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I51" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H52" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I52" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H53" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I53" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H54" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I54" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H55" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I55" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H56" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I56" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H57" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I57" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H58" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I58" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H59" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I59" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H60" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I60" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H61" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I61" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H62" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I62" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H63" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I63" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H64" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I64" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H65" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I65" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H66" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I66" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H67" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I67" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H68" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I68" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H69" s="5" t="str">
-        <f t="shared" ref="H69:H103" si="3">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I69" s="5" t="str">
-        <f t="shared" ref="I69:I103" si="4">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," | ",E69," |")</f>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="5" t="str">
-        <f t="shared" ref="G70:G103" si="5">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
-        <v>|  |  |</v>
-      </c>
-      <c r="H70" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I70" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H71" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I71" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H72" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I72" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H73" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I73" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H74" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I74" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H75" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I75" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H76" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I76" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H77" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I77" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H78" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I78" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H79" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I79" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H80" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I80" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H81" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I81" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H82" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I82" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H83" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I83" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H84" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I84" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H85" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I85" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H86" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I86" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H87" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I87" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H88" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I88" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H89" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I89" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H90" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I90" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H91" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I91" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H92" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I92" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H93" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I93" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H94" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I94" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H95" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I95" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H96" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I96" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H97" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I97" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H98" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I98" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H99" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I99" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H100" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I100" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H101" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I101" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H102" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I102" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H103" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I103" s="5" t="str">
-        <f t="shared" si="4"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -7167,9 +5149,9 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G12"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -7203,7 +5185,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -7255,9 +5237,9 @@
         <v>|---|---|---|---|</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="60" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>66</v>
@@ -7278,12 +5260,12 @@
         <v>| [Transporte de sedimentos](Section01/1_TransporteDeSedimentos) | Clasificación del transporte de sedimentos según el origen del material y el modo de transporte. Terminología del transporte de sedimentos. |  |  |</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="60" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -7301,12 +5283,12 @@
         <v>| [Clasificación de ríos y cauces](Section01/1_ClasificacionRios) | Patrones de cauces. Clasificación de los cauces aluviales con base en los criterios de Schumm. |  |  |</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -7324,12 +5306,12 @@
         <v>| [Potencia de la corriente](Section01/1_Potencia) | Definición y usos. |  |  |</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="60" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -7347,9 +5329,9 @@
         <v>| [Movimiento incipiente](Section01/1_MovimientoIncipiente) | Estudio del movimiento incipiente. Aproximación de esfuerzos cortantes de Shields. Ejemplo. |  |  |</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>67</v>
@@ -7372,10 +5354,10 @@
     </row>
     <row r="10" spans="2:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -7395,10 +5377,10 @@
     </row>
     <row r="11" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -7416,27 +5398,27 @@
         <v>| [Predicción sobre la respuesta general de un río al cambio](Section01/1_Lane) | Estimaciones cualitativas. Explicación de las relaciones generales. Analogía de la balanza de Lane. Ejemplo. |  |  |</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
-        <v>206</v>
+    <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+      <c r="B12" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| [Ecuación de continuidad de sedimentos](Section01/1_Exner) | Ecuación de Exner. |</v>
+        <v>| [Cuantificación del potencial de transporte de sedimentos](Section01/1_PotencialTransporteSedimentos)  | Estudio y transporte sólido requerido. Potencial de transporte de sedimentos. |</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| [Ecuación de continuidad de sedimentos](Section01/1_Exner) | Ecuación de Exner. |  |</v>
+        <v>| [Cuantificación del potencial de transporte de sedimentos](Section01/1_PotencialTransporteSedimentos)  | Estudio y transporte sólido requerido. Potencial de transporte de sedimentos. |  |</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| [Ecuación de continuidad de sedimentos](Section01/1_Exner) | Ecuación de Exner. |  |  |</v>
+        <v>| [Cuantificación del potencial de transporte de sedimentos](Section01/1_PotencialTransporteSedimentos)  | Estudio y transporte sólido requerido. Potencial de transporte de sedimentos. |  |  |</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
@@ -9175,13 +7157,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FC35F7-E1F5-4D93-9954-7369D1C39019}">
-  <sheetPr codeName="Hoja3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8E123B-9080-4571-AD06-DEDC363A6AEB}">
+  <sheetPr codeName="Hoja6"/>
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G8"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -9215,7 +7197,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -9267,172 +7249,188 @@
         <v>|---|---|---|---|</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="60" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| [Cuantificación del potencial de transporte de sedimentos](Section02/2_PotencialTransporteSedimentos)  | Estudio y transporte sólido requerido. Distribución de velocidades y perfil de concentraciones. Datos necesarios. Parámetros de interés. |</v>
+        <v>| Funcionamiento del modelo de HEC-RAS 1D | Explicación de las ecuaciones básicas que utiliza HEC-RAS para realizar el cálculo del transporte de sedimentos. |</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" ref="H5:H68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| [Cuantificación del potencial de transporte de sedimentos](Section02/2_PotencialTransporteSedimentos)  | Estudio y transporte sólido requerido. Distribución de velocidades y perfil de concentraciones. Datos necesarios. Parámetros de interés. |  |</v>
+        <v>| Funcionamiento del modelo de HEC-RAS 1D | Explicación de las ecuaciones básicas que utiliza HEC-RAS para realizar el cálculo del transporte de sedimentos. |  |</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| [Cuantificación del potencial de transporte de sedimentos](Section02/2_PotencialTransporteSedimentos)  | Estudio y transporte sólido requerido. Distribución de velocidades y perfil de concentraciones. Datos necesarios. Parámetros de interés. |  |  |</v>
+        <v>| Funcionamiento del modelo de HEC-RAS 1D | Explicación de las ecuaciones básicas que utiliza HEC-RAS para realizar el cálculo del transporte de sedimentos. |  |  |</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| Transporte por arrastre | Ecuaciones: Shields, Meyer-Peter and Müller (MPM) y Wilcock and Crowe. Ejemplos |</v>
+        <f t="shared" ref="G6:G11" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
+        <v>| Estructura del modelo | Estructura de los archivos para modelos de transporte de sedimentos de flujo quasi- no permanente y no permanente. |</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Transporte por arrastre | Ecuaciones: Shields, Meyer-Peter and Müller (MPM) y Wilcock and Crowe. Ejemplos |  |</v>
+        <v>| Estructura del modelo | Estructura de los archivos para modelos de transporte de sedimentos de flujo quasi- no permanente y no permanente. |  |</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Transporte por arrastre | Ecuaciones: Shields, Meyer-Peter and Müller (MPM) y Wilcock and Crowe. Ejemplos |  |  |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+        <v>| Estructura del modelo | Estructura de los archivos para modelos de transporte de sedimentos de flujo quasi- no permanente y no permanente. |  |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="str">
-        <f t="shared" ref="G7" si="2">_xlfn.CONCAT("| ",B7," | ",C7," |")</f>
-        <v>| Transporte por suspensión | Ecuaciones: |</v>
+        <f t="shared" si="2"/>
+        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Transporte por suspensión | Ecuaciones: |  |</v>
+        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |  |</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Transporte por suspensión | Ecuaciones: |  |  |</v>
+        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |  |  |</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B8" s="9" t="s">
-        <v>71</v>
+      <c r="B8" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B8," | ",C8," |")</f>
-        <v>| Transporte total | Ecuaciones: Einstein, Ackers and White, Engelund-Hansen, Laursen-Copeland, Toffaleti, MPM-Toffaleti y Yang |</v>
+        <f t="shared" si="2"/>
+        <v>| Datos del modelo. Archivo de geometría | Generación del archivo de geometría del modelo. |</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Transporte total | Ecuaciones: Einstein, Ackers and White, Engelund-Hansen, Laursen-Copeland, Toffaleti, MPM-Toffaleti y Yang |  |</v>
+        <v>| Datos del modelo. Archivo de geometría | Generación del archivo de geometría del modelo. |  |</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Transporte total | Ecuaciones: Einstein, Ackers and White, Engelund-Hansen, Laursen-Copeland, Toffaleti, MPM-Toffaleti y Yang |  |  |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+        <v>| Datos del modelo. Archivo de geometría | Generación del archivo de geometría del modelo. |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="str">
-        <f t="shared" ref="G9:G69" si="3">_xlfn.CONCAT("| ",B9," | ",C9," |")</f>
-        <v>|  |  |</v>
+        <f t="shared" si="2"/>
+        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo. Diferencias entre modelación con flujo "quasi-unsteady" y flujo "unsteady". Computational increment. |</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo. Diferencias entre modelación con flujo "quasi-unsteady" y flujo "unsteady". Computational increment. |  |</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo. Diferencias entre modelación con flujo "quasi-unsteady" y flujo "unsteady". Computational increment. |  |  |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
+        <f t="shared" si="2"/>
+        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. Initial conditions and transport parameters. Boundary conditions. Consideraciones. Bed Change Options. |</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. Initial conditions and transport parameters. Boundary conditions. Consideraciones. Bed Change Options. |  |</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. Initial conditions and transport parameters. Boundary conditions. Consideraciones. Bed Change Options. |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
+        <f t="shared" si="2"/>
+        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. Opciones de cálculo. Sediment Output Options. |</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. Opciones de cálculo. Sediment Output Options. |  |</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. Opciones de cálculo. Sediment Output Options. |  |  |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
+        <f t="shared" ref="G12:G69" si="3">_xlfn.CONCAT("| ",B12," | ",C12," |")</f>
+        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |  |</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
+        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |  |  |</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
@@ -11171,13 +9169,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8E123B-9080-4571-AD06-DEDC363A6AEB}">
-  <sheetPr codeName="Hoja6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17435F5A-6FF6-46D8-82B3-65E349CBB224}">
+  <sheetPr codeName="Hoja7"/>
   <dimension ref="B2:I103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -11211,7 +9209,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -11263,73 +9261,73 @@
         <v>|---|---|---|---|</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| Funcionamiento del modelo de HEC-RAS 1D | Explicación de las ecuaciones básicas que utiliza HEC-RAS para realizar el cálculo del transporte de sedimentos. |</v>
-      </c>
-      <c r="H5" s="5" t="str">
-        <f t="shared" ref="H5:H68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| Funcionamiento del modelo de HEC-RAS 1D | Explicación de las ecuaciones básicas que utiliza HEC-RAS para realizar el cálculo del transporte de sedimentos. |  |</v>
-      </c>
-      <c r="I5" s="5" t="str">
-        <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| Funcionamiento del modelo de HEC-RAS 1D | Explicación de las ecuaciones básicas que utiliza HEC-RAS para realizar el cálculo del transporte de sedimentos. |  |  |</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B6" s="9" t="s">
-        <v>176</v>
+        <f t="shared" ref="G5:G10" si="0">_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
+        <v>| Presentación caso de estudio | Contexto general del proyecto que se va a realizar. |</v>
+      </c>
+      <c r="H5" s="5" t="e">
+        <f>_xlfn.CONCAT("| ",#REF!," | ",#REF!," | ",D5," |")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I5" s="5" t="e">
+        <f>_xlfn.CONCAT("| ",#REF!," | ",#REF!," | ",D5," | ",E5," |")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="str">
-        <f t="shared" ref="G6:G11" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| Estructura del modelo | Estructura de los archivos para modelos de transporte de sedimentos de flujo quasi- no permanente y no permanente. |</v>
+        <f t="shared" si="0"/>
+        <v>| Datos del modelo. Archivo de geometría | Cargar el archivo de geometría del modelo. |</v>
       </c>
       <c r="H6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Estructura del modelo | Estructura de los archivos para modelos de transporte de sedimentos de flujo quasi- no permanente y no permanente. |  |</v>
+        <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D6," |")</f>
+        <v>| Presentación caso de estudio | Contexto general del proyecto que se va a realizar. |  |</v>
       </c>
       <c r="I6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| Estructura del modelo | Estructura de los archivos para modelos de transporte de sedimentos de flujo quasi- no permanente y no permanente. |  |  |</v>
+        <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D6," | ",E6," |")</f>
+        <v>| Presentación caso de estudio | Contexto general del proyecto que se va a realizar. |  |  |</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |</v>
+        <f t="shared" si="0"/>
+        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo con flujo "quasi-unsteady" |</v>
       </c>
       <c r="H7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |  |</v>
+        <f t="shared" ref="H7:H68" si="1">_xlfn.CONCAT("| ",B7," | ",C7," | ",D7," |")</f>
+        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo con flujo "quasi-unsteady" |  |</v>
       </c>
       <c r="I7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |  |  |</v>
+        <f t="shared" ref="I7:I68" si="2">_xlfn.CONCAT("| ",B7," | ",C7," | ",D7," | ",E7," |")</f>
+        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo con flujo "quasi-unsteady" |  |  |</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.35">
@@ -11337,114 +9335,106 @@
         <v>78</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| Datos del modelo. Archivo de geometría | Generación del archivo de geometría del modelo. |</v>
+        <f t="shared" si="0"/>
+        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. |</v>
       </c>
       <c r="H8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Datos del modelo. Archivo de geometría | Generación del archivo de geometría del modelo. |  |</v>
+        <f t="shared" si="1"/>
+        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. |  |</v>
       </c>
       <c r="I8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| Datos del modelo. Archivo de geometría | Generación del archivo de geometría del modelo. |  |  |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo. Diferencias entre modelación con flujo "quasi-unsteady" y flujo "unsteady". Computational increment. |</v>
+        <f t="shared" si="0"/>
+        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. |</v>
       </c>
       <c r="H9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo. Diferencias entre modelación con flujo "quasi-unsteady" y flujo "unsteady". Computational increment. |  |</v>
+        <f t="shared" si="1"/>
+        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. |  |</v>
       </c>
       <c r="I9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo. Diferencias entre modelación con flujo "quasi-unsteady" y flujo "unsteady". Computational increment. |  |  |</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. |  |  |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. Initial conditions and transport parameters. Boundary conditions. Consideraciones. Bed Change Options. |</v>
+        <f t="shared" si="0"/>
+        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |</v>
       </c>
       <c r="H10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. Initial conditions and transport parameters. Boundary conditions. Consideraciones. Bed Change Options. |  |</v>
+        <f t="shared" si="1"/>
+        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |  |</v>
       </c>
       <c r="I10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. Initial conditions and transport parameters. Boundary conditions. Consideraciones. Bed Change Options. |  |  |</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>84</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. Opciones de cálculo. Sediment Output Options. |</v>
+        <f t="shared" ref="G11:G69" si="3">_xlfn.CONCAT("| ",B11," | ",C11," |")</f>
+        <v>|  |  |</v>
       </c>
       <c r="H11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. Opciones de cálculo. Sediment Output Options. |  |</v>
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
       </c>
       <c r="I11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. Opciones de cálculo. Sediment Output Options. |  |  |</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>86</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="str">
-        <f t="shared" ref="G12:G69" si="3">_xlfn.CONCAT("| ",B12," | ",C12," |")</f>
-        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |</v>
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
       </c>
       <c r="H12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |  |</v>
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
       </c>
       <c r="I12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |  |  |</v>
+        <f t="shared" si="2"/>
+        <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
@@ -11458,11 +9448,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H13" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I13" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11477,11 +9467,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H14" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I14" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11496,11 +9486,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H15" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I15" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11515,11 +9505,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H16" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I16" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11534,11 +9524,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H17" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I17" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11553,11 +9543,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H18" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I18" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11572,11 +9562,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H19" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I19" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11591,11 +9581,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H20" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I20" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11610,11 +9600,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H21" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I21" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11629,11 +9619,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I22" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11648,11 +9638,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H23" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I23" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11667,11 +9657,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H24" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I24" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11686,11 +9676,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H25" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I25" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11705,11 +9695,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H26" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I26" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11724,11 +9714,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H27" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I27" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11743,11 +9733,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H28" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I28" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11762,11 +9752,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H29" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I29" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11781,11 +9771,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H30" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I30" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11800,11 +9790,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H31" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I31" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11819,11 +9809,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H32" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I32" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11838,11 +9828,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H33" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I33" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11857,11 +9847,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H34" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I34" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11876,11 +9866,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H35" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I35" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11895,11 +9885,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H36" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I36" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11914,11 +9904,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I37" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11933,11 +9923,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H38" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I38" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11952,11 +9942,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H39" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I39" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11971,11 +9961,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H40" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I40" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -11990,11 +9980,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H41" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I41" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12009,11 +9999,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H42" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I42" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12028,11 +10018,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H43" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I43" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12047,11 +10037,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H44" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I44" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12066,11 +10056,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H45" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I45" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12085,11 +10075,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H46" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I46" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12104,11 +10094,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H47" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I47" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12123,11 +10113,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H48" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I48" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12142,11 +10132,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H49" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I49" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12161,11 +10151,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H50" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I50" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12180,11 +10170,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H51" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I51" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12199,11 +10189,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H52" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I52" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12218,11 +10208,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H53" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I53" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12237,11 +10227,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H54" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I54" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12256,11 +10246,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H55" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I55" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12275,11 +10265,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H56" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I56" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12294,11 +10284,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H57" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I57" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12313,11 +10303,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H58" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I58" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12332,11 +10322,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H59" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I59" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12351,11 +10341,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H60" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I60" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12370,11 +10360,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H61" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I61" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12389,11 +10379,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H62" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I62" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12408,11 +10398,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H63" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I63" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12427,11 +10417,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H64" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I64" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12446,11 +10436,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H65" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I65" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12465,11 +10455,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H66" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I66" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12484,11 +10474,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H67" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I67" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -12503,11 +10493,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H68" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>|  |  |  |</v>
       </c>
       <c r="I68" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -13183,2010 +11173,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17435F5A-6FF6-46D8-82B3-65E349CBB224}">
-  <sheetPr codeName="Hoja7"/>
-  <dimension ref="B2:I103"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.21875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="2.77734375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="74.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
-        <v>| Actividad | Alcance |</v>
-      </c>
-      <c r="H3" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
-        <v>| Actividad | Alcance | Tamaño |</v>
-      </c>
-      <c r="I3" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
-        <v>| Actividad | Alcance | Tamaño | Tamiz |</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="str">
-        <f>_xlfn.CONCAT("|",B4,"|",C4,"|")</f>
-        <v>|---|---|</v>
-      </c>
-      <c r="H4" s="8" t="str">
-        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|")</f>
-        <v>|---|---|---|</v>
-      </c>
-      <c r="I4" s="8" t="str">
-        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|",E4,"|")</f>
-        <v>|---|---|---|---|</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="str">
-        <f t="shared" ref="G5:G10" si="0">_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| Presentación caso de estudio | Contexto general del proyecto que se va a realizar. |</v>
-      </c>
-      <c r="H5" s="5" t="e">
-        <f>_xlfn.CONCAT("| ",#REF!," | ",#REF!," | ",D5," |")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I5" s="5" t="e">
-        <f>_xlfn.CONCAT("| ",#REF!," | ",#REF!," | ",D5," | ",E5," |")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Datos del modelo. Archivo de geometría | Cargar el archivo de geometría del modelo. |</v>
-      </c>
-      <c r="H6" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D6," |")</f>
-        <v>| Presentación caso de estudio | Contexto general del proyecto que se va a realizar. |  |</v>
-      </c>
-      <c r="I6" s="5" t="str">
-        <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D6," | ",E6," |")</f>
-        <v>| Presentación caso de estudio | Contexto general del proyecto que se va a realizar. |  |  |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo con flujo "quasi-unsteady" |</v>
-      </c>
-      <c r="H7" s="5" t="str">
-        <f t="shared" ref="H7:H68" si="1">_xlfn.CONCAT("| ",B7," | ",C7," | ",D7," |")</f>
-        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo con flujo "quasi-unsteady" |  |</v>
-      </c>
-      <c r="I7" s="5" t="str">
-        <f t="shared" ref="I7:I68" si="2">_xlfn.CONCAT("| ",B7," | ",C7," | ",D7," | ",E7," |")</f>
-        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo con flujo "quasi-unsteady" |  |  |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. |</v>
-      </c>
-      <c r="H8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. |  |</v>
-      </c>
-      <c r="I8" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. |  |  |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. |</v>
-      </c>
-      <c r="H9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. |  |</v>
-      </c>
-      <c r="I9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. |  |  |</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |</v>
-      </c>
-      <c r="H10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |  |</v>
-      </c>
-      <c r="I10" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |  |  |</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="str">
-        <f t="shared" ref="G11:G69" si="3">_xlfn.CONCAT("| ",B11," | ",C11," |")</f>
-        <v>|  |  |</v>
-      </c>
-      <c r="H11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I11" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I12" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I13" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I14" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I15" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I16" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I17" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I18" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I19" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I20" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I21" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I22" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I23" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I24" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I25" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I26" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I27" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H28" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I28" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H29" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I29" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H30" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I30" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H31" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I31" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H32" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I32" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H33" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I33" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H34" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I34" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H35" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I35" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H36" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I36" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I37" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H38" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I38" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H39" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I39" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H40" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I40" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H41" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I41" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H42" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I42" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H43" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I43" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H44" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I44" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H45" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I45" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H46" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I46" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H47" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I47" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H48" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I48" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H49" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I49" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H50" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I50" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H51" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I51" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H52" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I52" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H53" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I53" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H54" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I54" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H55" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I55" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H56" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I56" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H57" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I57" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H58" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I58" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H59" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I59" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H60" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I60" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H61" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I61" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H62" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I62" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H63" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I63" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H64" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I64" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H65" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I65" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H66" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I66" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H67" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I67" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H68" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I68" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H69" s="5" t="str">
-        <f t="shared" ref="H69:H103" si="4">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I69" s="5" t="str">
-        <f t="shared" ref="I69:I103" si="5">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," | ",E69," |")</f>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="5" t="str">
-        <f t="shared" ref="G70:G103" si="6">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
-        <v>|  |  |</v>
-      </c>
-      <c r="H70" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I70" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H71" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I71" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H72" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I72" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H73" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I73" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H74" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I74" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H75" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I75" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H76" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I76" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H77" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I77" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H78" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I78" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H79" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I79" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H80" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I80" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H81" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I81" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H82" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I82" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H83" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I83" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H84" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I84" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H85" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I85" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H86" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I86" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H87" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I87" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H88" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I88" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H89" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I89" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H90" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I90" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H91" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I91" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H92" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I92" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H93" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I93" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H94" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I94" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H95" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I95" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H96" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I96" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H97" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I97" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H98" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I98" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H99" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I99" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H100" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I100" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H101" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I101" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H102" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I102" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H103" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I103" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4D1AA1-E8DE-4F52-B39F-83F2799A1FB7}">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B2:I103"/>
@@ -17286,7 +13272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5FD415-DECC-4BCA-94FF-CF6B14FADCE6}">
   <dimension ref="B2:J103"/>
   <sheetViews>
@@ -17321,24 +13307,24 @@
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="str">
@@ -17386,19 +13372,19 @@
     </row>
     <row r="5" spans="2:10" ht="75" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C5" s="5">
         <v>100</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="str">
@@ -17416,19 +13402,19 @@
     </row>
     <row r="6" spans="2:10" ht="75" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C6" s="5">
         <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="str">
@@ -17446,19 +13432,19 @@
     </row>
     <row r="7" spans="2:10" ht="45" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="str">
@@ -19400,7 +15386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16AD24E-BC6D-4E2C-905E-0970E18303A5}">
   <dimension ref="B2:I102"/>
   <sheetViews>
@@ -19440,10 +15426,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -19494,10 +15480,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -19517,10 +15503,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -19540,10 +15526,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -19563,10 +15549,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -19586,10 +15572,10 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -19609,10 +15595,10 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -19632,10 +15618,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -19655,10 +15641,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -19678,10 +15664,10 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -19701,10 +15687,10 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -19724,10 +15710,10 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -19747,10 +15733,10 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -19770,10 +15756,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -19793,10 +15779,10 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -19816,10 +15802,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -21418,4 +17404,1996 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB6E6C-1D05-499A-989F-C261220A1AD3}">
+  <sheetPr codeName="Hoja5"/>
+  <dimension ref="B2:I103"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.77734375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="74.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
+        <v>| Tipo de suelo | Nombre |</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
+        <v>| Tipo de suelo | Nombre | Tamaño |</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
+        <v>| Tipo de suelo | Nombre | Tamaño | Tamiz |</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|")</f>
+        <v>|---|---|</v>
+      </c>
+      <c r="H4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|")</f>
+        <v>|---|---|---|</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|",E4,"|")</f>
+        <v>|---|---|---|---|</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
+        <v>| SUELOS GRANULARES | CANTO RODADO |</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5:H68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
+        <v>| SUELOS GRANULARES | CANTO RODADO |  |</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
+        <v>| SUELOS GRANULARES | CANTO RODADO |  |  |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="9"/>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="str">
+        <f t="shared" ref="G6:G69" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
+        <v>|  | Muy grande |</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  | Muy grande | 4 m - 2 m |</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  | Muy grande | 4 m - 2 m |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="9"/>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  | Grande |</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  | Grande | 2 m - 1 m |</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  | Grande | 2 m - 1 m |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I39" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I41" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I42" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I43" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I45" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I46" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I54" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I55" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I57" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I58" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I59" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I61" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I62" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I63" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I64" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I65" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H66" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I66" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I67" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I68" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H69" s="5" t="str">
+        <f t="shared" ref="H69:H103" si="3">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I69" s="5" t="str">
+        <f t="shared" ref="I69:I103" si="4">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," | ",E69," |")</f>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="5" t="str">
+        <f t="shared" ref="G70:G103" si="5">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="H70" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I70" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H71" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I71" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H72" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I72" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H73" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I73" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H74" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I74" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H75" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I75" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H76" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I76" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H77" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I77" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H78" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I78" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H79" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I79" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H80" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I80" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I81" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H82" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I82" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H83" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I83" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H84" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I84" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H85" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H86" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I86" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H87" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I87" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H88" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I88" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H89" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I89" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H90" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I90" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H91" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I91" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H92" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I92" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H93" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I93" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H94" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I94" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H95" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I95" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H96" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I96" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H97" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I97" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H98" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I98" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H99" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I99" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H100" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I100" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H101" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I101" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H102" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I102" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H103" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I103" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ExcelTableToMarkDownSample.xlsx
+++ b/ExcelTableToMarkDownSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93251A26-52CF-4152-B386-9C7B17506070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F4763A-FA3B-47D6-A7EC-FA4446999B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Abreviaturas" sheetId="9" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="202">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -259,12 +259,6 @@
     <t>Explicación del proceso de acorazamiento de un lecho.</t>
   </si>
   <si>
-    <t>Funcionamiento del modelo de HEC-RAS 1D</t>
-  </si>
-  <si>
-    <t>Explicación de las ecuaciones básicas que utiliza HEC-RAS para realizar el cálculo del transporte de sedimentos.</t>
-  </si>
-  <si>
     <t>Presentación caso de estudio</t>
   </si>
   <si>
@@ -286,9 +280,6 @@
     <t>Datos del modelo. Archivo de caudal</t>
   </si>
   <si>
-    <t>Generación del archivo de caudal del modelo. Diferencias entre modelación con flujo "quasi-unsteady" y flujo "unsteady". Computational increment.</t>
-  </si>
-  <si>
     <t>Datos del modelo. Archivo de sedimentos</t>
   </si>
   <si>
@@ -304,18 +295,6 @@
     <t>Opciones de visualización de resultados. Time series, cross sections, profiles.</t>
   </si>
   <si>
-    <t>Cargar el archivo de geometría del modelo.</t>
-  </si>
-  <si>
-    <t>Generación del archivo de caudal del modelo con flujo "quasi-unsteady"</t>
-  </si>
-  <si>
-    <t>Generación del archivo de sedimentos del modelo.</t>
-  </si>
-  <si>
-    <t>Definir un plan de transporte de sedimentos y ejecutarlo.</t>
-  </si>
-  <si>
     <t>Estudio</t>
   </si>
   <si>
@@ -653,6 +632,33 @@
   </si>
   <si>
     <t>Estudio y transporte sólido requerido. Potencial de transporte de sedimentos.</t>
+  </si>
+  <si>
+    <t>Generación del archivo de caudal del modelo. Computational increment.</t>
+  </si>
+  <si>
+    <t>Calibración</t>
+  </si>
+  <si>
+    <t>Opciones para realizar la calibración del modelo de transporte de sedimentos.</t>
+  </si>
+  <si>
+    <t>Funciones de transporte de sedimentos</t>
+  </si>
+  <si>
+    <t>Ecuaciones de potencial de transporte de sedimentos disponibles en HEC-RAS 1D.</t>
+  </si>
+  <si>
+    <t>Explicación de las ecuaciones básicas que utiliza HEC-RAS 1D para realizar el cálculo del transporte de sedimentos.</t>
+  </si>
+  <si>
+    <t>Limitaciones</t>
+  </si>
+  <si>
+    <t>Limitaciones del modelo de transporte de sedimentos.</t>
+  </si>
+  <si>
+    <t>[Funcionamiento del modelo](Section02/2_Funcionamiento)</t>
   </si>
 </sst>
 </file>
@@ -1109,10 +1115,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -1163,10 +1169,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1186,10 +1192,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1209,10 +1215,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1232,10 +1238,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1255,10 +1261,10 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1278,10 +1284,10 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1301,10 +1307,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1324,10 +1330,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1347,10 +1353,10 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1370,10 +1376,10 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1393,10 +1399,10 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1416,10 +1422,10 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1439,10 +1445,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1462,10 +1468,10 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1485,10 +1491,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1508,10 +1514,10 @@
     </row>
     <row r="20" spans="2:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1531,10 +1537,10 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1554,10 +1560,10 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1577,10 +1583,10 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1600,10 +1606,10 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1623,10 +1629,10 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1646,10 +1652,10 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1669,10 +1675,10 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1692,10 +1698,10 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1715,10 +1721,10 @@
     </row>
     <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1738,10 +1744,10 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1761,10 +1767,10 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -5149,8 +5155,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -5185,7 +5191,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -5239,7 +5245,7 @@
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>66</v>
@@ -5262,10 +5268,10 @@
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -5285,10 +5291,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -5308,10 +5314,10 @@
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -5331,7 +5337,7 @@
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>67</v>
@@ -5354,10 +5360,10 @@
     </row>
     <row r="10" spans="2:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -5377,10 +5383,10 @@
     </row>
     <row r="11" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -5400,10 +5406,10 @@
     </row>
     <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -7161,9 +7167,9 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -7197,7 +7203,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -7251,33 +7257,33 @@
     </row>
     <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| Funcionamiento del modelo de HEC-RAS 1D | Explicación de las ecuaciones básicas que utiliza HEC-RAS para realizar el cálculo del transporte de sedimentos. |</v>
+        <v>| [Funcionamiento del modelo](Section02/2_Funcionamiento) | Explicación de las ecuaciones básicas que utiliza HEC-RAS 1D para realizar el cálculo del transporte de sedimentos. |</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" ref="H5:H68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| Funcionamiento del modelo de HEC-RAS 1D | Explicación de las ecuaciones básicas que utiliza HEC-RAS para realizar el cálculo del transporte de sedimentos. |  |</v>
+        <v>| [Funcionamiento del modelo](Section02/2_Funcionamiento) | Explicación de las ecuaciones básicas que utiliza HEC-RAS 1D para realizar el cálculo del transporte de sedimentos. |  |</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| Funcionamiento del modelo de HEC-RAS 1D | Explicación de las ecuaciones básicas que utiliza HEC-RAS para realizar el cálculo del transporte de sedimentos. |  |  |</v>
+        <v>| [Funcionamiento del modelo](Section02/2_Funcionamiento) | Explicación de las ecuaciones básicas que utiliza HEC-RAS 1D para realizar el cálculo del transporte de sedimentos. |  |  |</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -7297,140 +7303,128 @@
     </row>
     <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |</v>
+        <v>| Funciones de transporte de sedimentos | Ecuaciones de potencial de transporte de sedimentos disponibles en HEC-RAS 1D. |</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |  |</v>
+        <v>| Funciones de transporte de sedimentos | Ecuaciones de potencial de transporte de sedimentos disponibles en HEC-RAS 1D. |  |</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |  |  |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+        <v>| Funciones de transporte de sedimentos | Ecuaciones de potencial de transporte de sedimentos disponibles en HEC-RAS 1D. |  |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| Datos del modelo. Archivo de geometría | Generación del archivo de geometría del modelo. |</v>
+        <f>_xlfn.CONCAT("| ",B8," | ",C8," |")</f>
+        <v>| Limitaciones | Limitaciones del modelo de transporte de sedimentos. |</v>
       </c>
       <c r="H8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Datos del modelo. Archivo de geometría | Generación del archivo de geometría del modelo. |  |</v>
+        <f>_xlfn.CONCAT("| ",B8," | ",C8," | ",D8," |")</f>
+        <v>| Limitaciones | Limitaciones del modelo de transporte de sedimentos. |  |</v>
       </c>
       <c r="I8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| Datos del modelo. Archivo de geometría | Generación del archivo de geometría del modelo. |  |  |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
-        <v>76</v>
+        <f>_xlfn.CONCAT("| ",B8," | ",C8," | ",D8," | ",E8," |")</f>
+        <v>| Limitaciones | Limitaciones del modelo de transporte de sedimentos. |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo. Diferencias entre modelación con flujo "quasi-unsteady" y flujo "unsteady". Computational increment. |</v>
+        <f>_xlfn.CONCAT("| ",B9," | ",C9," |")</f>
+        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |</v>
       </c>
       <c r="H9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo. Diferencias entre modelación con flujo "quasi-unsteady" y flujo "unsteady". Computational increment. |  |</v>
+        <f>_xlfn.CONCAT("| ",B9," | ",C9," | ",D9," |")</f>
+        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |  |</v>
       </c>
       <c r="I9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo. Diferencias entre modelación con flujo "quasi-unsteady" y flujo "unsteady". Computational increment. |  |  |</v>
+        <f>_xlfn.CONCAT("| ",B9," | ",C9," | ",D9," | ",E9," |")</f>
+        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |  |  |</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="45" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>168</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. Initial conditions and transport parameters. Boundary conditions. Consideraciones. Bed Change Options. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. Initial conditions and transport parameters. Boundary conditions. Consideraciones. Bed Change Options. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. Initial conditions and transport parameters. Boundary conditions. Consideraciones. Bed Change Options. |  |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. Opciones de cálculo. Sediment Output Options. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. Opciones de cálculo. Sediment Output Options. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. Opciones de cálculo. Sediment Output Options. |  |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="str">
         <f t="shared" ref="G12:G69" si="3">_xlfn.CONCAT("| ",B12," | ",C12," |")</f>
-        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |</v>
+        <v>|  |  |</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |  |</v>
+        <v>|  |  |  |</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |  |  |</v>
+        <v>|  |  |  |  |</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
@@ -9173,9 +9167,9 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -9209,7 +9203,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -9263,10 +9257,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -9286,17 +9280,17 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Datos del modelo. Archivo de geometría | Cargar el archivo de geometría del modelo. |</v>
+        <v>| Datos del modelo. Archivo de geometría | Generación del archivo de geometría del modelo. |</v>
       </c>
       <c r="H6" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D6," |")</f>
@@ -9307,81 +9301,81 @@
         <v>| Presentación caso de estudio | Contexto general del proyecto que se va a realizar. |  |  |</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo con flujo "quasi-unsteady" |</v>
+        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo. Computational increment. |</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" ref="H7:H68" si="1">_xlfn.CONCAT("| ",B7," | ",C7," | ",D7," |")</f>
-        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo con flujo "quasi-unsteady" |  |</v>
+        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo. Computational increment. |  |</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" ref="I7:I68" si="2">_xlfn.CONCAT("| ",B7," | ",C7," | ",D7," | ",E7," |")</f>
-        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo con flujo "quasi-unsteady" |  |  |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+        <v>| Datos del modelo. Archivo de caudal | Generación del archivo de caudal del modelo. Computational increment. |  |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. |</v>
+        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. Initial conditions and transport parameters. Boundary conditions. Consideraciones. Bed Change Options. |</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. |  |</v>
+        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. Initial conditions and transport parameters. Boundary conditions. Consideraciones. Bed Change Options. |  |</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. |  |  |</v>
+        <v>| Datos del modelo. Archivo de sedimentos | Generación del archivo de sedimentos del modelo. Initial conditions and transport parameters. Boundary conditions. Consideraciones. Bed Change Options. |  |  |</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. |</v>
+        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. Opciones de cálculo. Sediment Output Options. |</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. |  |</v>
+        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. Opciones de cálculo. Sediment Output Options. |  |</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. |  |  |</v>
+        <v>| Crear plan de transporte de sedimentos | Definir un plan de transporte de sedimentos y ejecutarlo. Opciones de cálculo. Sediment Output Options. |  |  |</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -9399,23 +9393,27 @@
         <v>| Visualización e interpretación de resultados | Opciones de visualización de resultados. Time series, cross sections, profiles. |  |  |</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="str">
         <f t="shared" ref="G11:G69" si="3">_xlfn.CONCAT("| ",B11," | ",C11," |")</f>
-        <v>|  |  |</v>
+        <v>| Calibración | Opciones para realizar la calibración del modelo de transporte de sedimentos. |</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |</v>
+        <v>| Calibración | Opciones para realizar la calibración del modelo de transporte de sedimentos. |  |</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|  |  |  |  |</v>
+        <v>| Calibración | Opciones para realizar la calibración del modelo de transporte de sedimentos. |  |  |</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
@@ -13307,24 +13305,24 @@
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="str">
@@ -13372,19 +13370,19 @@
     </row>
     <row r="5" spans="2:10" ht="75" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C5" s="5">
         <v>100</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="str">
@@ -13402,19 +13400,19 @@
     </row>
     <row r="6" spans="2:10" ht="75" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C6" s="5">
         <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="str">
@@ -13432,19 +13430,19 @@
     </row>
     <row r="7" spans="2:10" ht="45" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="str">
@@ -15426,10 +15424,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -15480,10 +15478,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -15503,10 +15501,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -15526,10 +15524,10 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -15549,10 +15547,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -15572,10 +15570,10 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -15595,10 +15593,10 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -15618,10 +15616,10 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -15641,10 +15639,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -15664,10 +15662,10 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -15687,10 +15685,10 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -15710,10 +15708,10 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -15733,10 +15731,10 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -15756,10 +15754,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -15779,10 +15777,10 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -15802,10 +15800,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>

--- a/ExcelTableToMarkDownSample.xlsx
+++ b/ExcelTableToMarkDownSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F4763A-FA3B-47D6-A7EC-FA4446999B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A65D3D7-9780-4DEC-B694-2BB9A060A0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Abreviaturas" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="1_TransporteSedimentos" sheetId="3" r:id="rId6"/>
     <sheet name="1_ClasificacionRios" sheetId="10" r:id="rId7"/>
     <sheet name="2_PotencialTransporte" sheetId="8" r:id="rId8"/>
-    <sheet name="RefsFile" sheetId="2" r:id="rId9"/>
+    <sheet name="2_Modelo" sheetId="11" r:id="rId9"/>
+    <sheet name="RefsFile" sheetId="2" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc107986980" localSheetId="2">'0_Section01'!$B$9</definedName>
@@ -29,9 +30,10 @@
     <definedName name="_Toc107986980" localSheetId="4">'0_Section03'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="6">'1_ClasificacionRios'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="5">'1_TransporteSedimentos'!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="8">'2_Modelo'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="7">'2_PotencialTransporte'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="0">Abreviaturas!$B$9</definedName>
-    <definedName name="_Toc107986980" localSheetId="8">RefsFile!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="9">RefsFile!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="1">Sample!$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="212">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -541,9 +543,6 @@
     <t>Generación del archivo de sedimentos del modelo. Initial conditions and transport parameters. Boundary conditions. Consideraciones. Bed Change Options.</t>
   </si>
   <si>
-    <t>Estructura del modelo</t>
-  </si>
-  <si>
     <t>Estructura de los archivos para modelos de transporte de sedimentos de flujo quasi- no permanente y no permanente.</t>
   </si>
   <si>
@@ -652,13 +651,46 @@
     <t>Explicación de las ecuaciones básicas que utiliza HEC-RAS 1D para realizar el cálculo del transporte de sedimentos.</t>
   </si>
   <si>
-    <t>Limitaciones</t>
-  </si>
-  <si>
     <t>Limitaciones del modelo de transporte de sedimentos.</t>
   </si>
   <si>
     <t>[Funcionamiento del modelo](Section02/2_Funcionamiento)</t>
+  </si>
+  <si>
+    <t>Cuasi-no permanente</t>
+  </si>
+  <si>
+    <t>No permanente</t>
+  </si>
+  <si>
+    <t>Resuelve las ecuaciones de flujo permanente para una serie de caudales con tiempos asociados (un histograma).</t>
+  </si>
+  <si>
+    <t>Resuelve las ecuaciones de Saint-Venant de forma implícita.</t>
+  </si>
+  <si>
+    <t>No conserva el caudal ni tiene en cuenta el almacenamiento.</t>
+  </si>
+  <si>
+    <t>Conserva el caudal y tiene en cuenta del almacenamiento en embalses.</t>
+  </si>
+  <si>
+    <t>Más estable.</t>
+  </si>
+  <si>
+    <t>Menos estable. El cambio en las secciones transversales puede incrementar las inestabilidades del modelo, comunes a la solución de Saint-Venant.</t>
+  </si>
+  <si>
+    <t>Limitado a las opciones de flujo permanente.</t>
+  </si>
+  <si>
+    <t>Se dispone de condiciones de frontera de flujo complejas que incluyen interflujos de aguas subterráneas, reglas, estructuras laterales, controles de compuertas internas, bombas y otros.</t>
+  </si>
+  <si>
+    <t>[Estructura del modelo](Section02/2_Modelo)</t>
+  </si>
+  <si>
+    <t>[Limitaciones](Section02/2_Limitaciones)</t>
   </si>
 </sst>
 </file>
@@ -3162,6 +3194,1998 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB6E6C-1D05-499A-989F-C261220A1AD3}">
+  <sheetPr codeName="Hoja5"/>
+  <dimension ref="B2:I103"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="68" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.77734375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="74.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
+        <v>| Tipo de suelo | Nombre |</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
+        <v>| Tipo de suelo | Nombre | Tamaño |</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
+        <v>| Tipo de suelo | Nombre | Tamaño | Tamiz |</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|")</f>
+        <v>|---|---|</v>
+      </c>
+      <c r="H4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|")</f>
+        <v>|---|---|---|</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|",E4,"|")</f>
+        <v>|---|---|---|---|</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
+        <v>| SUELOS GRANULARES | CANTO RODADO |</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5:H68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
+        <v>| SUELOS GRANULARES | CANTO RODADO |  |</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
+        <v>| SUELOS GRANULARES | CANTO RODADO |  |  |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="9"/>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="str">
+        <f t="shared" ref="G6:G69" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
+        <v>|  | Muy grande |</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  | Muy grande | 4 m - 2 m |</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  | Muy grande | 4 m - 2 m |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="9"/>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  | Grande |</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  | Grande | 2 m - 1 m |</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  | Grande | 2 m - 1 m |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I39" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I41" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I42" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I43" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I45" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I46" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I54" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I55" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I57" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I58" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I59" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I61" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I62" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I63" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I64" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I65" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H66" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I66" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I67" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I68" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H69" s="5" t="str">
+        <f t="shared" ref="H69:H103" si="3">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I69" s="5" t="str">
+        <f t="shared" ref="I69:I103" si="4">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," | ",E69," |")</f>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="5" t="str">
+        <f t="shared" ref="G70:G103" si="5">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="H70" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I70" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H71" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I71" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H72" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I72" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H73" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I73" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H74" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I74" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H75" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I75" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H76" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I76" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H77" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I77" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H78" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I78" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H79" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I79" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H80" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I80" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I81" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H82" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I82" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H83" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I83" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H84" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I84" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H85" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H86" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I86" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H87" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I87" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H88" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I88" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H89" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I89" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H90" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I90" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H91" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I91" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H92" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I92" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H93" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I93" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H94" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I94" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H95" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I95" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H96" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I96" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H97" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I97" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H98" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I98" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H99" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I99" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H100" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I100" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H101" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I101" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H102" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I102" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H103" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I103" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |  |</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2E19A4-40DE-42A8-B3E2-A2516218588C}">
   <sheetPr codeName="Hoja1"/>
@@ -5191,7 +7215,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -5245,7 +7269,7 @@
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>66</v>
@@ -5268,10 +7292,10 @@
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -5291,7 +7315,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>157</v>
@@ -5314,7 +7338,7 @@
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>159</v>
@@ -5337,7 +7361,7 @@
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>67</v>
@@ -5360,7 +7384,7 @@
     </row>
     <row r="10" spans="2:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>160</v>
@@ -5383,7 +7407,7 @@
     </row>
     <row r="11" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>158</v>
@@ -5406,10 +7430,10 @@
     </row>
     <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -7167,9 +9191,9 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G9"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -7203,7 +9227,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -7255,12 +9279,12 @@
         <v>|---|---|---|---|</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -7280,33 +9304,33 @@
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="str">
         <f t="shared" ref="G6:G11" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>| Estructura del modelo | Estructura de los archivos para modelos de transporte de sedimentos de flujo quasi- no permanente y no permanente. |</v>
+        <v>| [Estructura del modelo](Section02/2_Modelo) | Estructura de los archivos para modelos de transporte de sedimentos de flujo quasi- no permanente y no permanente. |</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| Estructura del modelo | Estructura de los archivos para modelos de transporte de sedimentos de flujo quasi- no permanente y no permanente. |  |</v>
+        <v>| [Estructura del modelo](Section02/2_Modelo) | Estructura de los archivos para modelos de transporte de sedimentos de flujo quasi- no permanente y no permanente. |  |</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| Estructura del modelo | Estructura de los archivos para modelos de transporte de sedimentos de flujo quasi- no permanente y no permanente. |  |  |</v>
+        <v>| [Estructura del modelo](Section02/2_Modelo) | Estructura de los archivos para modelos de transporte de sedimentos de flujo quasi- no permanente y no permanente. |  |  |</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -7324,53 +9348,53 @@
         <v>| Funciones de transporte de sedimentos | Ecuaciones de potencial de transporte de sedimentos disponibles en HEC-RAS 1D. |  |  |</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>199</v>
+    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="B8" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>200</v>
+        <v>71</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B8," | ",C8," |")</f>
-        <v>| Limitaciones | Limitaciones del modelo de transporte de sedimentos. |</v>
+        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |</v>
       </c>
       <c r="H8" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B8," | ",C8," | ",D8," |")</f>
-        <v>| Limitaciones | Limitaciones del modelo de transporte de sedimentos. |  |</v>
+        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |  |</v>
       </c>
       <c r="I8" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B8," | ",C8," | ",D8," | ",E8," |")</f>
-        <v>| Limitaciones | Limitaciones del modelo de transporte de sedimentos. |  |  |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
-        <v>70</v>
+        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |  |  |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B9," | ",C9," |")</f>
-        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |</v>
+        <v>| [Limitaciones](Section02/2_Limitaciones) | Limitaciones del modelo de transporte de sedimentos. |</v>
       </c>
       <c r="H9" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B9," | ",C9," | ",D9," |")</f>
-        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |  |</v>
+        <v>| [Limitaciones](Section02/2_Limitaciones) | Limitaciones del modelo de transporte de sedimentos. |  |</v>
       </c>
       <c r="I9" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B9," | ",C9," | ",D9," | ",E9," |")</f>
-        <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |  |  |</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+        <v>| [Limitaciones](Section02/2_Limitaciones) | Limitaciones del modelo de transporte de sedimentos. |  |  |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -7389,7 +9413,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -7408,7 +9432,7 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -9167,7 +11191,7 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
@@ -9203,7 +11227,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -9278,7 +11302,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>72</v>
       </c>
@@ -9301,12 +11325,12 @@
         <v>| Presentación caso de estudio | Contexto general del proyecto que se va a realizar. |  |  |</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -9395,10 +11419,10 @@
     </row>
     <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -13274,7 +15298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5FD415-DECC-4BCA-94FF-CF6B14FADCE6}">
   <dimension ref="B2:J103"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
@@ -13305,24 +15329,24 @@
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="str">
@@ -13370,19 +15394,19 @@
     </row>
     <row r="5" spans="2:10" ht="75" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="5">
         <v>100</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="str">
@@ -13400,19 +15424,19 @@
     </row>
     <row r="6" spans="2:10" ht="75" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="5">
         <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="str">
@@ -13430,19 +15454,19 @@
     </row>
     <row r="7" spans="2:10" ht="45" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="str">
@@ -15389,7 +17413,7 @@
   <dimension ref="B2:I102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -17405,21 +19429,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB6E6C-1D05-499A-989F-C261220A1AD3}">
-  <sheetPr codeName="Hoja5"/>
-  <dimension ref="B2:I103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B950BA5D-678B-49CC-9B90-4540D4D82476}">
+  <dimension ref="B2:I102"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="68" style="1" customWidth="1"/>
-    <col min="3" max="3" width="79" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18" style="1" customWidth="1"/>
+    <col min="2" max="3" width="56.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="2.77734375" style="1" customWidth="1"/>
     <col min="7" max="9" width="74.109375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.109375" style="1"/>
@@ -17445,10 +19467,10 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -17459,15 +19481,15 @@
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
-        <v>| Tipo de suelo | Nombre |</v>
+        <v>| Cuasi-no permanente | No permanente |</v>
       </c>
       <c r="H3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
-        <v>| Tipo de suelo | Nombre | Tamaño |</v>
+        <v>| Cuasi-no permanente | No permanente | Tamaño |</v>
       </c>
       <c r="I3" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," |")</f>
-        <v>| Tipo de suelo | Nombre | Tamaño | Tamiz |</v>
+        <v>| Cuasi-no permanente | No permanente | Tamaño | Tamiz |</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
@@ -17497,92 +19519,96 @@
         <v>|---|---|---|---|</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="str">
         <f>_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
-        <v>| SUELOS GRANULARES | CANTO RODADO |</v>
+        <v>| Resuelve las ecuaciones de flujo permanente para una serie de caudales con tiempos asociados (un histograma). | Resuelve las ecuaciones de Saint-Venant de forma implícita. |</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" ref="H5:H68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
-        <v>| SUELOS GRANULARES | CANTO RODADO |  |</v>
+        <v>| Resuelve las ecuaciones de flujo permanente para una serie de caudales con tiempos asociados (un histograma). | Resuelve las ecuaciones de Saint-Venant de forma implícita. |  |</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" ref="I5:I68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," |")</f>
-        <v>| SUELOS GRANULARES | CANTO RODADO |  |  |</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="9"/>
+        <v>| Resuelve las ecuaciones de flujo permanente para una serie de caudales con tiempos asociados (un histograma). | Resuelve las ecuaciones de Saint-Venant de forma implícita. |  |  |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
+        <v>204</v>
+      </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="str">
         <f t="shared" ref="G6:G69" si="2">_xlfn.CONCAT("| ",B6," | ",C6," |")</f>
-        <v>|  | Muy grande |</v>
+        <v>| No conserva el caudal ni tiene en cuenta el almacenamiento. | Conserva el caudal y tiene en cuenta del almacenamiento en embalses. |</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  | Muy grande | 4 m - 2 m |</v>
+        <v>| No conserva el caudal ni tiene en cuenta el almacenamiento. | Conserva el caudal y tiene en cuenta del almacenamiento en embalses. |  |</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  | Muy grande | 4 m - 2 m |  |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="9"/>
+        <v>| No conserva el caudal ni tiene en cuenta el almacenamiento. | Conserva el caudal y tiene en cuenta del almacenamiento en embalses. |  |  |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>206</v>
+      </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|  | Grande |</v>
+        <v>| Más estable. | Menos estable. El cambio en las secciones transversales puede incrementar las inestabilidades del modelo, comunes a la solución de Saint-Venant. |</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  | Grande | 2 m - 1 m |</v>
+        <v>| Más estable. | Menos estable. El cambio en las secciones transversales puede incrementar las inestabilidades del modelo, comunes a la solución de Saint-Venant. |  |</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  | Grande | 2 m - 1 m |  |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+        <v>| Más estable. | Menos estable. El cambio en las secciones transversales puede incrementar las inestabilidades del modelo, comunes a la solución de Saint-Venant. |  |  |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>|  |  |</v>
+        <v>| Limitado a las opciones de flujo permanente. | Se dispone de condiciones de frontera de flujo complejas que incluyen interflujos de aguas subterráneas, reglas, estructuras laterales, controles de compuertas internas, bombas y otros. |</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>|  |  |  |</v>
+        <v>| Limitado a las opciones de flujo permanente. | Se dispone de condiciones de frontera de flujo complejas que incluyen interflujos de aguas subterráneas, reglas, estructuras laterales, controles de compuertas internas, bombas y otros. |  |</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>|  |  |  |  |</v>
+        <v>| Limitado a las opciones de flujo permanente. | Se dispone de condiciones de frontera de flujo complejas que incluyen interflujos de aguas subterráneas, reglas, estructuras laterales, controles de compuertas internas, bombas y otros. |  |  |</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
@@ -17871,11 +19897,11 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="5" t="str">
         <f t="shared" si="2"/>
         <v>|  |  |</v>
@@ -19371,25 +21397,6 @@
         <v>|  |  |  |  |</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>|  |  |</v>
-      </c>
-      <c r="H103" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>|  |  |  |</v>
-      </c>
-      <c r="I103" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>|  |  |  |  |</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ExcelTableToMarkDownSample.xlsx
+++ b/ExcelTableToMarkDownSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A65D3D7-9780-4DEC-B694-2BB9A060A0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BB1292-8872-46DB-BCE2-FB947242B0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Abreviaturas" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="1_ClasificacionRios" sheetId="10" r:id="rId7"/>
     <sheet name="2_PotencialTransporte" sheetId="8" r:id="rId8"/>
     <sheet name="2_Modelo" sheetId="11" r:id="rId9"/>
-    <sheet name="RefsFile" sheetId="2" r:id="rId10"/>
+    <sheet name="2_FuncionesTransporte" sheetId="12" r:id="rId10"/>
+    <sheet name="RefsFile" sheetId="2" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc107986980" localSheetId="2">'0_Section01'!$B$9</definedName>
@@ -30,10 +31,11 @@
     <definedName name="_Toc107986980" localSheetId="4">'0_Section03'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="6">'1_ClasificacionRios'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="5">'1_TransporteSedimentos'!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="9">'2_FuncionesTransporte'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="8">'2_Modelo'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="7">'2_PotencialTransporte'!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="0">Abreviaturas!$B$9</definedName>
-    <definedName name="_Toc107986980" localSheetId="9">RefsFile!$B$9</definedName>
+    <definedName name="_Toc107986980" localSheetId="10">RefsFile!$B$9</definedName>
     <definedName name="_Toc107986980" localSheetId="1">Sample!$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="238">
   <si>
     <t>Creación de tablas en formato .md</t>
   </si>
@@ -691,6 +693,84 @@
   </si>
   <si>
     <t>[Limitaciones](Section02/2_Limitaciones)</t>
+  </si>
+  <si>
+    <t>Ecuación</t>
+  </si>
+  <si>
+    <t>Tipo de transporte</t>
+  </si>
+  <si>
+    <t>Tipo de aproximación</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Ackers and White</t>
+  </si>
+  <si>
+    <t>Transporte total</t>
+  </si>
+  <si>
+    <t>Potencia de la corriente</t>
+  </si>
+  <si>
+    <t>Desarrollado a partir de datos de canal para granulometrías relativamente uniformes que van desde arena hasta gravas finas. HEC-RAS muestra tres parámetros de la ecuación: el umbral de movilidad (A) y los coeficientes (C y m) para que los usuarios puedan calibrarlos. Sin embargo, son parámetros dinámicos, cambian con las propiedades de los sedimentos y el flujo. Los modeladores que opten por calibrar Ackers-White deberían utilizar los factores de escala en su lugar.</t>
+  </si>
+  <si>
+    <t>Engelund-Hansen</t>
+  </si>
+  <si>
+    <t>Desarrollado a partir de datos de canal, utilizando tamaños de arena relativamente uniformes entre 0.19 mm y 0.93 mm. A menudo puede calcular transportes bajos para partículas de tamaños grandes. Engelund-Hansen debería limitarse normalmente a sistemas de arena.</t>
+  </si>
+  <si>
+    <t>Laursen-Copeland</t>
+  </si>
+  <si>
+    <t>Esfuerzos cortantes</t>
+  </si>
+  <si>
+    <t>La versión de Copleand de la ecuación de Laursen fue desarrollada para particulas de tamaño desde limo grueso hasta gravas, esto le confiere la más amplia gama de aplicabilidad de las funciones de transporte incluidas en HEC-RAS Es la única función de transporte desarrollada en el rango de limo grueso y un trabajo no publicado en Colorado State (Watson, comunicación personal) demostró que esta ecuación superaba a otras funciones de transporte en el rango de arena muy fina y limo muy grueso. Se utiliza con el método de mezcla de Copeland (algoritmo de acorazamiento), si la ecuación se utiliza sola, sobrestima el potencial de transporte.</t>
+  </si>
+  <si>
+    <t>Meyer-Peter and Müller (MPM)</t>
+  </si>
+  <si>
+    <t>Transporte por arrastre</t>
+  </si>
+  <si>
+    <t>La MPM es estrictamente una ecuación de carga por arrastre desarrollada a partir de experimentos de canal de arena y grava en condiciones de lecho plano. Los experimentos de MPM examinaron principalmente grava uniforme, lo que hace que la función de transporte MPM sea más aplicable en sistemas de grava. La ecuación de MPM tiende a subestimar el transporte de materiales más finos.</t>
+  </si>
+  <si>
+    <t>Toffaleti</t>
+  </si>
+  <si>
+    <t>Probabilística</t>
+  </si>
+  <si>
+    <t>Desarrollada principalmente para partículas del tamaño de arena, sigue los principios básicos del enfoque de Einstein, sustituyendo algunos de los supuestos empíricos. Toffaleti suele aplicarse a "grandes ríos", ya que la mayoría de los datos utilizados para desarrollarla procedían de grandes sistemas de carga suspendida. Su desempeño es particularmente deficiente para las partículas de tamaño de grava. HEC-RAS puede mostrar los resultados del transporte de cada zona por separado, aproximando el perfil de concentración vertical. A veces los modeladores utilizan esta función para calibrar las mediciones de carga suspendida, comparando la medición con el caudal sólido calculado de las tres zonas superiores.</t>
+  </si>
+  <si>
+    <t>MPM-Toffaleti</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>La ecuación de Toffaleti se desarrolló para ríos de gran tamaño y lecho de arena, y su desempeño no es bueno para partículas gruesas. Esta función combinada sustituye el componente del transporte por arrastre de Toffaleti por la ecuación de MPM, que es más apropiada para el material grueso.</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>La función fue desarrollada y probada sobre una variedad de datos de canal y de campo. La ecuación incluye dos relaciones separadas para el transporte de arena y grava. La ecuación de Yang tiende a ser muy sensible a la velocidad de la corriente, y es más sensible a la velocidad de caída que la mayoría de las otras funciones de transporte.</t>
+  </si>
+  <si>
+    <t>Wilcock and Crowe</t>
+  </si>
+  <si>
+    <t>Diseñado para ríos bien gradados que contienen tanto arena como grava. Los lechos solían estar acorazados, con un contenido de arena mucho menor en la superficie que en el subsuelo. Por lo tanto, los usuarios deben elegir algoritmos de capas activas y las granulometrías deben reflejar las propiedades de la superficie del lecho. Se recomienda utilizar siempre esta función con el método de mezcla del lecho de la capa activa (Active Layer). Para calibrar la ecuación de Wilcock &amp; Crowe (2003) ajuste el factor de escala de movilidad (mobility scaling factor).</t>
   </si>
 </sst>
 </file>
@@ -3195,6 +3275,2049 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513C3029-5A48-4725-9EBA-B6B2EB2DE333}">
+  <dimension ref="B2:I103"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="26.21875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="56.21875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="2.77734375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="74.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="74.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," |")</f>
+        <v>| Ecuación | Tipo de transporte |</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," |")</f>
+        <v>| Ecuación | Tipo de transporte | Tipo de aproximación |</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ")</f>
+        <v xml:space="preserve">| Ecuación | Tipo de transporte | Tipo de aproximación | Descripción | </v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|")</f>
+        <v>|---|---|</v>
+      </c>
+      <c r="H4" s="8" t="str">
+        <f>_xlfn.CONCAT("|",B4,"|",C4,"|",D4,"|")</f>
+        <v>|---|---|---|</v>
+      </c>
+      <c r="I4" s="11" t="str">
+        <f>_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ")</f>
+        <v xml:space="preserve">| --- | --- | --- | --- | </v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="120" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="str">
+        <f t="shared" ref="G5:G68" si="0">_xlfn.CONCAT("| ",B5," | ",C5," |")</f>
+        <v>| Ackers and White | Transporte total |</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ref="H5:H68" si="1">_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," |")</f>
+        <v>| Ackers and White | Transporte total | Potencia de la corriente |</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f>_xlfn.CONCAT("| ",B5," | ",C5," | ",D5," | ",E5," | ")</f>
+        <v xml:space="preserve">| Ackers and White | Transporte total | Potencia de la corriente | Desarrollado a partir de datos de canal para granulometrías relativamente uniformes que van desde arena hasta gravas finas. HEC-RAS muestra tres parámetros de la ecuación: el umbral de movilidad (A) y los coeficientes (C y m) para que los usuarios puedan calibrarlos. Sin embargo, son parámetros dinámicos, cambian con las propiedades de los sedimentos y el flujo. Los modeladores que opten por calibrar Ackers-White deberían utilizar los factores de escala en su lugar. | </v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="75" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Engelund-Hansen | Transporte total |</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Engelund-Hansen | Transporte total | Potencia de la corriente |</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" ref="I6:I69" si="2">_xlfn.CONCAT("| ",B6," | ",C6," | ",D6," | ",E6," | ")</f>
+        <v xml:space="preserve">| Engelund-Hansen | Transporte total | Potencia de la corriente | Desarrollado a partir de datos de canal, utilizando tamaños de arena relativamente uniformes entre 0.19 mm y 0.93 mm. A menudo puede calcular transportes bajos para partículas de tamaños grandes. Engelund-Hansen debería limitarse normalmente a sistemas de arena. | </v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="150" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Laursen-Copeland | Transporte total |</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Laursen-Copeland | Transporte total | Esfuerzos cortantes |</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">| Laursen-Copeland | Transporte total | Esfuerzos cortantes | La versión de Copleand de la ecuación de Laursen fue desarrollada para particulas de tamaño desde limo grueso hasta gravas, esto le confiere la más amplia gama de aplicabilidad de las funciones de transporte incluidas en HEC-RAS Es la única función de transporte desarrollada en el rango de limo grueso y un trabajo no publicado en Colorado State (Watson, comunicación personal) demostró que esta ecuación superaba a otras funciones de transporte en el rango de arena muy fina y limo muy grueso. Se utiliza con el método de mezcla de Copeland (algoritmo de acorazamiento), si la ecuación se utiliza sola, sobrestima el potencial de transporte. | </v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="105" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Meyer-Peter and Müller (MPM) | Transporte por arrastre |</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Meyer-Peter and Müller (MPM) | Transporte por arrastre | Esfuerzos cortantes |</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">| Meyer-Peter and Müller (MPM) | Transporte por arrastre | Esfuerzos cortantes | La MPM es estrictamente una ecuación de carga por arrastre desarrollada a partir de experimentos de canal de arena y grava en condiciones de lecho plano. Los experimentos de MPM examinaron principalmente grava uniforme, lo que hace que la función de transporte MPM sea más aplicable en sistemas de grava. La ecuación de MPM tiende a subestimar el transporte de materiales más finos. | </v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="180" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Toffaleti | Transporte total |</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Toffaleti | Transporte total | Probabilística |</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">| Toffaleti | Transporte total | Probabilística | Desarrollada principalmente para partículas del tamaño de arena, sigue los principios básicos del enfoque de Einstein, sustituyendo algunos de los supuestos empíricos. Toffaleti suele aplicarse a "grandes ríos", ya que la mayoría de los datos utilizados para desarrollarla procedían de grandes sistemas de carga suspendida. Su desempeño es particularmente deficiente para las partículas de tamaño de grava. HEC-RAS puede mostrar los resultados del transporte de cada zona por separado, aproximando el perfil de concentración vertical. A veces los modeladores utilizan esta función para calibrar las mediciones de carga suspendida, comparando la medición con el caudal sólido calculado de las tres zonas superiores. | </v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="75" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| MPM-Toffaleti | Transporte total |</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| MPM-Toffaleti | Transporte total | - |</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">| MPM-Toffaleti | Transporte total | - | La ecuación de Toffaleti se desarrolló para ríos de gran tamaño y lecho de arena, y su desempeño no es bueno para partículas gruesas. Esta función combinada sustituye el componente del transporte por arrastre de Toffaleti por la ecuación de MPM, que es más apropiada para el material grueso. | </v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="90" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Yang | Transporte total |</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Yang | Transporte total | Potencia de la corriente |</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">| Yang | Transporte total | Potencia de la corriente | La función fue desarrollada y probada sobre una variedad de datos de canal y de campo. La ecuación incluye dos relaciones separadas para el transporte de arena y grava. La ecuación de Yang tiende a ser muy sensible a la velocidad de la corriente, y es más sensible a la velocidad de caída que la mayoría de las otras funciones de transporte. | </v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="135" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>| Wilcock and Crowe | Transporte por arrastre |</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| Wilcock and Crowe | Transporte por arrastre | Esfuerzos cortantes |</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">| Wilcock and Crowe | Transporte por arrastre | Esfuerzos cortantes | Diseñado para ríos bien gradados que contienen tanto arena como grava. Los lechos solían estar acorazados, con un contenido de arena mucho menor en la superficie que en el subsuelo. Por lo tanto, los usuarios deben elegir algoritmos de capas activas y las granulometrías deben reflejar las propiedades de la superficie del lecho. Se recomienda utilizar siempre esta función con el método de mezcla del lecho de la capa activa (Active Layer). Para calibrar la ecuación de Wilcock &amp; Crowe (2003) ajuste el factor de escala de movilidad (mobility scaling factor). | </v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I38" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I39" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I40" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I41" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I42" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I43" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I44" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I45" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I46" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I47" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I48" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I49" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I50" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I51" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I52" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I53" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I54" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I55" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I56" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I57" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I58" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I59" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I60" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I61" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I62" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I63" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H64" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I64" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H65" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I65" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H66" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I66" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I67" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I68" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="5" t="str">
+        <f t="shared" ref="G69:G103" si="3">_xlfn.CONCAT("| ",B69," | ",C69," |")</f>
+        <v>|  |  |</v>
+      </c>
+      <c r="H69" s="5" t="str">
+        <f t="shared" ref="H69:H103" si="4">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I69" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H70" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I70" s="5" t="str">
+        <f t="shared" ref="I70:I103" si="5">_xlfn.CONCAT("| ",B70," | ",C70," | ",D70," | ",E70," | ")</f>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H71" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I71" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H72" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I72" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H73" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I73" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H74" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I74" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H75" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I75" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H76" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I76" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H77" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I77" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H78" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I78" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H79" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I79" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H80" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I80" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I81" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H82" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I82" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H83" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I83" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H84" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I84" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H85" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H86" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I86" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H87" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I87" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H88" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I88" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H89" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I89" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H90" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I90" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H91" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I91" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H92" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I92" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H93" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I93" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H94" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I94" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H95" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I95" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H96" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I96" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H97" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I97" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H98" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I98" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H99" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I99" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H100" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I100" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H101" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I101" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H102" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I102" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>|  |  |</v>
+      </c>
+      <c r="H103" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>|  |  |  |</v>
+      </c>
+      <c r="I103" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">|  |  |  |  | </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB6E6C-1D05-499A-989F-C261220A1AD3}">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="B2:I103"/>
@@ -9191,7 +11314,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="B2:I103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
@@ -9371,7 +11494,7 @@
         <v>| Información de campo | Información de campo necesaria para construir el modelo de transporte de sedimentos en 1D. |  |  |</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>211</v>
       </c>
@@ -15298,7 +17421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5FD415-DECC-4BCA-94FF-CF6B14FADCE6}">
   <dimension ref="B2:J103"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
@@ -19519,7 +21642,7 @@
         <v>|---|---|---|---|</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>202</v>
       </c>
@@ -20762,11 +22885,11 @@
         <v>|  |  |</v>
       </c>
       <c r="H69" s="5" t="str">
-        <f t="shared" ref="H69:H103" si="3">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
+        <f t="shared" ref="H69:H102" si="3">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," |")</f>
         <v>|  |  |  |</v>
       </c>
       <c r="I69" s="5" t="str">
-        <f t="shared" ref="I69:I103" si="4">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," | ",E69," |")</f>
+        <f t="shared" ref="I69:I102" si="4">_xlfn.CONCAT("| ",B69," | ",C69," | ",D69," | ",E69," |")</f>
         <v>|  |  |  |  |</v>
       </c>
     </row>
@@ -20777,7 +22900,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="5" t="str">
-        <f t="shared" ref="G70:G103" si="5">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
+        <f t="shared" ref="G70:G102" si="5">_xlfn.CONCAT("| ",B70," | ",C70," |")</f>
         <v>|  |  |</v>
       </c>
       <c r="H70" s="5" t="str">
